--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\Run1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B51D7D-B3FF-4721-AA4E-3EADC1D71BC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
-    <sheet name="DriverSheet" r:id="rId3" sheetId="2" state="visible"/>
-    <sheet name="VerifyCSVForExistingVersion" r:id="rId4" sheetId="3" state="visible"/>
-    <sheet name="VerifyCSVForNewVersion" r:id="rId5" sheetId="4" state="visible"/>
-    <sheet name="VerifyDeleteOffer" r:id="rId6" sheetId="5" state="visible"/>
-    <sheet name="VerifyEventAPI" r:id="rId7" sheetId="6" state="visible"/>
-    <sheet name="Cases_RealTimeSpine" r:id="rId8" sheetId="7" state="visible"/>
-    <sheet name="BatchDecisionOutputValidations" r:id="rId9" sheetId="8" state="visible"/>
-    <sheet name="CheckLists" r:id="rId10" sheetId="9" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DriverSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="VerifyCSVForExistingVersion" sheetId="3" r:id="rId3"/>
+    <sheet name="VerifyCSVForNewVersion" sheetId="4" r:id="rId4"/>
+    <sheet name="VerifyDeleteOffer" sheetId="5" r:id="rId5"/>
+    <sheet name="VerifyEventAPI" sheetId="6" r:id="rId6"/>
+    <sheet name="Cases_RealTimeSpine" sheetId="7" r:id="rId7"/>
+    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId8"/>
+    <sheet name="CheckLists" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,876 +33,879 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="292">
-  <si>
-    <t xml:space="preserve">TS1_Regr_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the status pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eleEngineStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elementPropertyCheck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please add the new test cases for the execution with the RunMode (Y or N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCaseID should be matching with the TestCaseID in the 'RegressionCases'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCaseID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RunMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerifyCSVForExistingVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validating the downloaded csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS1_Regr_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerifyCSVForNewVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure the CSV version created without Email, and with IB has ib , but no Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS2_Regr_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerifyEventAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cases by integrating the API calls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS1_Regr_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerifyDeleteOffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario to validate the deleted offer is not present in the CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS3_Regr_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cases_RealTimeSpine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executing the real time spine API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below is the template to add new test cases to the suite.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below test cases are added to validate the CSV after the engine run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageObject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActionKeyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argument1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putting some wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleepTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on launch web interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkLaunchWebInterface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on enginedesigner Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkEngineDesignerPortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch to Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gettingHandle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Define brain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkDdefineBrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switchToFrame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PegaGadget1Ifr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rollback to the baseline version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rollBackToBaselineVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.356.254.2.NA.01-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clcik on new version button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnCreatenewVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter description text box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtShortDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enterText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophie_Auto_328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter notes on text box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtVersionNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created as part of automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clcik on next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgBtnNext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkboxSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkSMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deselect Microsite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkMicrosite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkboxUncheck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkCallCentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkDirectMail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkInCall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Generate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgGeneratebtn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Submit notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnSubmitVersionNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on generate engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnRunEngine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RunOrResumeEngineclick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the link Click to Check data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkClickToCheckData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csvDownloadclick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the link Click to download the csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkDownloadCSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait to download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate the downloaded CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValidateBatchDecisionOutputCSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_31</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="293">
+  <si>
+    <t>TS1_Regr_01</t>
+  </si>
+  <si>
+    <t>TS_27</t>
+  </si>
+  <si>
+    <t>Verify the status pause</t>
+  </si>
+  <si>
+    <t>eleEngineStatus</t>
+  </si>
+  <si>
+    <t>elementPropertyCheck</t>
+  </si>
+  <si>
+    <t>Paused</t>
+  </si>
+  <si>
+    <t>Please add the new test cases for the execution with the RunMode (Y or N)</t>
+  </si>
+  <si>
+    <t>TestCaseID should be matching with the TestCaseID in the 'RegressionCases'</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>VerifyCSVForExistingVersion</t>
+  </si>
+  <si>
+    <t>Validating the downloaded csv</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TS1_Regr_02</t>
+  </si>
+  <si>
+    <t>VerifyCSVForNewVersion</t>
+  </si>
+  <si>
+    <t>Ensure the CSV version created without Email, and with IB has ib , but no Email</t>
+  </si>
+  <si>
+    <t>TS2_Regr_01</t>
+  </si>
+  <si>
+    <t>VerifyEventAPI</t>
+  </si>
+  <si>
+    <t>Cases by integrating the API calls</t>
+  </si>
+  <si>
+    <t>TS1_Regr_14</t>
+  </si>
+  <si>
+    <t>VerifyDeleteOffer</t>
+  </si>
+  <si>
+    <t>Scenario to validate the deleted offer is not present in the CSV</t>
+  </si>
+  <si>
+    <t>TS3_Regr_01</t>
+  </si>
+  <si>
+    <t>Cases_RealTimeSpine</t>
+  </si>
+  <si>
+    <t>Executing the real time spine API</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Below is the template to add new test cases to the suite.</t>
+  </si>
+  <si>
+    <t>Below test cases are added to validate the CSV after the engine run</t>
+  </si>
+  <si>
+    <t>TS_ID</t>
+  </si>
+  <si>
+    <t>PageObject</t>
+  </si>
+  <si>
+    <t>ActionKeyword</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Argument1</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>Open the url</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>openURL</t>
+  </si>
+  <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>Putting some wait</t>
+  </si>
+  <si>
+    <t>sleepTime</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>Click on launch web interface</t>
+  </si>
+  <si>
+    <t>lnkLaunchWebInterface</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>TS_06</t>
+  </si>
+  <si>
+    <t>Click on enginedesigner Portal</t>
+  </si>
+  <si>
+    <t>lnkEngineDesignerPortal</t>
+  </si>
+  <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>Switch to Portal</t>
+  </si>
+  <si>
+    <t>gettingHandle</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>Click on Define brain</t>
+  </si>
+  <si>
+    <t>lnkDdefineBrain</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>switchToFrame</t>
+  </si>
+  <si>
+    <t>PegaGadget1Ifr</t>
+  </si>
+  <si>
+    <t>TS_12</t>
+  </si>
+  <si>
+    <t>Rollback to the baseline version</t>
+  </si>
+  <si>
+    <t>rollBackToBaselineVersion</t>
+  </si>
+  <si>
+    <t>29.356.254.2.NA.01-01-01</t>
+  </si>
+  <si>
+    <t>wait time</t>
+  </si>
+  <si>
+    <t>Clcik on new version button</t>
+  </si>
+  <si>
+    <t>btnCreatenewVersion</t>
+  </si>
+  <si>
+    <t>TS_13</t>
+  </si>
+  <si>
+    <t>Enter description text box</t>
+  </si>
+  <si>
+    <t>txtShortDesc</t>
+  </si>
+  <si>
+    <t>enterText</t>
+  </si>
+  <si>
+    <t>Sophie_Auto_328</t>
+  </si>
+  <si>
+    <t>TS_14</t>
+  </si>
+  <si>
+    <t>Enter notes on text box</t>
+  </si>
+  <si>
+    <t>txtVersionNotes</t>
+  </si>
+  <si>
+    <t>Created as part of automation</t>
+  </si>
+  <si>
+    <t>TS_15</t>
+  </si>
+  <si>
+    <t>Clcik on next</t>
+  </si>
+  <si>
+    <t>imgBtnNext</t>
+  </si>
+  <si>
+    <t>TS_16</t>
+  </si>
+  <si>
+    <t>Select Email</t>
+  </si>
+  <si>
+    <t>chkEmail</t>
+  </si>
+  <si>
+    <t>checkboxSelect</t>
+  </si>
+  <si>
+    <t>TS_17</t>
+  </si>
+  <si>
+    <t>Select SMS</t>
+  </si>
+  <si>
+    <t>chkSMS</t>
+  </si>
+  <si>
+    <t>Deselect Microsite</t>
+  </si>
+  <si>
+    <t>chkMicrosite</t>
+  </si>
+  <si>
+    <t>checkboxUncheck</t>
+  </si>
+  <si>
+    <t>TS_18</t>
+  </si>
+  <si>
+    <t>chkCallCentre</t>
+  </si>
+  <si>
+    <t>TS_19</t>
+  </si>
+  <si>
+    <t>chkDirectMail</t>
+  </si>
+  <si>
+    <t>TS_20</t>
+  </si>
+  <si>
+    <t>chkInCall</t>
+  </si>
+  <si>
+    <t>TS_21</t>
+  </si>
+  <si>
+    <t>TS_22</t>
+  </si>
+  <si>
+    <t>TS_23</t>
+  </si>
+  <si>
+    <t>Click on Generate</t>
+  </si>
+  <si>
+    <t>imgGeneratebtn</t>
+  </si>
+  <si>
+    <t>TS_24</t>
+  </si>
+  <si>
+    <t>Click on Submit notes</t>
+  </si>
+  <si>
+    <t>btnSubmitVersionNotes</t>
+  </si>
+  <si>
+    <t>TS_25</t>
+  </si>
+  <si>
+    <t>TS_26</t>
+  </si>
+  <si>
+    <t>Click on generate engine</t>
+  </si>
+  <si>
+    <t>btnRunEngine</t>
+  </si>
+  <si>
+    <t>RunOrResumeEngineclick</t>
+  </si>
+  <si>
+    <t>TS_28</t>
+  </si>
+  <si>
+    <t>Click the link Click to Check data</t>
+  </si>
+  <si>
+    <t>lnkClickToCheckData</t>
+  </si>
+  <si>
+    <t>csvDownloadclick</t>
+  </si>
+  <si>
+    <t>TS_29</t>
+  </si>
+  <si>
+    <t>Click the link Click to download the csv</t>
+  </si>
+  <si>
+    <t>lnkDownloadCSV</t>
+  </si>
+  <si>
+    <t>wait to download</t>
+  </si>
+  <si>
+    <t>TS_30</t>
+  </si>
+  <si>
+    <t>Validate the downloaded CSV</t>
+  </si>
+  <si>
+    <t>ValidateBatchDecisionOutputCSV</t>
+  </si>
+  <si>
+    <t>TS_31</t>
   </si>
   <si>
     <t xml:space="preserve">Resume the run </t>
   </si>
   <si>
-    <t xml:space="preserve">btnResumeRun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing the browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quitBrowser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophie_NoEmail_ButIB_329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unselect DM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Email channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnEmailChannel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ToggleButtonClick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncheck microsite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on New offer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnNewOffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter the name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtOfferLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OfferRegr4820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtOfferName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entert the start date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtOfferStartDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entert the End date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtOfferEndDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click next&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnNext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose sms tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select sms template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddnEmailTemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SelectListItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophie Default Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose oBCC  tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabDirectEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose obcc template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddnDMTemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophie Default DirectMail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete_offer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete the offer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rbdeloffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiddenClick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select radio button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radBtndeloffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click on next button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnNxt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closeBrowser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below cases have API integrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switchToNewWindow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on technical admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkTechAdmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch to frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear IH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnClearIH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset engine status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnResetEngStat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch To Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switchToParent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PegaGadget2Ifr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophie_API_integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click new event button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnAddEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter new event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtEventName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regression_event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">press enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyPressEnter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check trigger event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkTriggerEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OfferWithEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabSMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddnSMSTemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophie Default SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select the bypass arbitration for the new offer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">byPassArbitrationSelection</t>
+    <t>btnResumeRun</t>
+  </si>
+  <si>
+    <t>TS_32</t>
+  </si>
+  <si>
+    <t>TS_33</t>
+  </si>
+  <si>
+    <t>Closing the browser</t>
+  </si>
+  <si>
+    <t>quitBrowser</t>
+  </si>
+  <si>
+    <t>Sophie_NoEmail_ButIB_329</t>
+  </si>
+  <si>
+    <t>Unselect DM</t>
+  </si>
+  <si>
+    <t>Click Email channel</t>
+  </si>
+  <si>
+    <t>btnEmailChannel</t>
+  </si>
+  <si>
+    <t>ToggleButtonClick</t>
+  </si>
+  <si>
+    <t>uncheck microsite</t>
+  </si>
+  <si>
+    <t>Click Next</t>
+  </si>
+  <si>
+    <t>Click on New offer</t>
+  </si>
+  <si>
+    <t>btnNewOffer</t>
+  </si>
+  <si>
+    <t>enter the name</t>
+  </si>
+  <si>
+    <t>txtOfferLabel</t>
+  </si>
+  <si>
+    <t>OfferRegr4820</t>
+  </si>
+  <si>
+    <t>txtOfferName</t>
+  </si>
+  <si>
+    <t>Entert the start date</t>
+  </si>
+  <si>
+    <t>txtOfferStartDate</t>
+  </si>
+  <si>
+    <t>Entert the End date</t>
+  </si>
+  <si>
+    <t>txtOfferEndDate</t>
+  </si>
+  <si>
+    <t>Click next&gt;&gt;</t>
+  </si>
+  <si>
+    <t>btnNext</t>
+  </si>
+  <si>
+    <t>Choose sms tab</t>
+  </si>
+  <si>
+    <t>tabEmail</t>
+  </si>
+  <si>
+    <t>Select sms template</t>
+  </si>
+  <si>
+    <t>ddnEmailTemplate</t>
+  </si>
+  <si>
+    <t>SelectListItem</t>
+  </si>
+  <si>
+    <t>Sophie Default Email</t>
+  </si>
+  <si>
+    <t>Choose oBCC  tab</t>
+  </si>
+  <si>
+    <t>tabDirectEmail</t>
+  </si>
+  <si>
+    <t>Choose obcc template</t>
+  </si>
+  <si>
+    <t>ddnDMTemplate</t>
+  </si>
+  <si>
+    <t>Sophie Default DirectMail</t>
+  </si>
+  <si>
+    <t>TS_34</t>
+  </si>
+  <si>
+    <t>Click on next</t>
+  </si>
+  <si>
+    <t>TS_35</t>
+  </si>
+  <si>
+    <t>TS_38</t>
+  </si>
+  <si>
+    <t>TS_36</t>
+  </si>
+  <si>
+    <t>Click submit</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Delete_offer</t>
+  </si>
+  <si>
+    <t>Delete the offer</t>
+  </si>
+  <si>
+    <t>rbdeloffer</t>
+  </si>
+  <si>
+    <t>hiddenClick</t>
+  </si>
+  <si>
+    <t>test_5</t>
+  </si>
+  <si>
+    <t>select radio button</t>
+  </si>
+  <si>
+    <t>radBtndeloffer</t>
+  </si>
+  <si>
+    <t>click on next button</t>
+  </si>
+  <si>
+    <t>btnNxt</t>
+  </si>
+  <si>
+    <t>TS_37</t>
+  </si>
+  <si>
+    <t>TS_39</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Below cases have API integrations</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>switchToNewWindow</t>
+  </si>
+  <si>
+    <t>Click on technical admin</t>
+  </si>
+  <si>
+    <t>lnkTechAdmin</t>
+  </si>
+  <si>
+    <t>Switch to frame</t>
+  </si>
+  <si>
+    <t>Clear IH</t>
+  </si>
+  <si>
+    <t>btnClearIH</t>
+  </si>
+  <si>
+    <t>Reset engine status</t>
+  </si>
+  <si>
+    <t>btnResetEngStat</t>
+  </si>
+  <si>
+    <t>Switch To Parent</t>
+  </si>
+  <si>
+    <t>switchToParent</t>
+  </si>
+  <si>
+    <t>PegaGadget2Ifr</t>
+  </si>
+  <si>
+    <t>Sophie_API_integration</t>
+  </si>
+  <si>
+    <t>click new event button</t>
+  </si>
+  <si>
+    <t>btnAddEvent</t>
+  </si>
+  <si>
+    <t>Enter new event</t>
+  </si>
+  <si>
+    <t>txtEventName</t>
+  </si>
+  <si>
+    <t>regression_event</t>
+  </si>
+  <si>
+    <t>press enter</t>
+  </si>
+  <si>
+    <t>keyPressEnter</t>
+  </si>
+  <si>
+    <t>check trigger event</t>
+  </si>
+  <si>
+    <t>checkTriggerEvent</t>
+  </si>
+  <si>
+    <t>OfferWithEvent</t>
+  </si>
+  <si>
+    <t>tabSMS</t>
+  </si>
+  <si>
+    <t>ddnSMSTemplate</t>
+  </si>
+  <si>
+    <t>Sophie Default SMS</t>
+  </si>
+  <si>
+    <t>click next</t>
+  </si>
+  <si>
+    <t>select the bypass arbitration for the new offer</t>
+  </si>
+  <si>
+    <t>byPassArbitrationSelection</t>
   </si>
   <si>
     <t xml:space="preserve">validate the run status </t>
   </si>
   <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call the eventAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RealtimeEventGetAPi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below scenario ensure the new offer created on the discarded version not appears on the output csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the data set name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txtPrimarySearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTSpineData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the search btn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnPrimarySearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on data set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkRTSpineData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch to the frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PegaGadget0Ifr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnActions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select submenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menuRun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Operation from the drop down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddnOperation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truncate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnRun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switch to window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close the window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close the browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Designer Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkDesignerStudioMenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click submenu 'System'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkSystemSubmenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouseOver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on 'Operations'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkOperationsSubmenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click System Management Applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkSystemManagementApplicationSubmenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxiizing the window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximizeWindow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select the node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkNodeSelection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switch to Parent frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switch to frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leftbottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select agent management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkAgentManagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select agents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnkAgents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">put wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch to default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch to child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select the ProcessRTSpineDataMaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radBtnProcessRTSpineDataMaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectRadioButton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnStart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select the UpdateRTSpineDataChild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radBtnUpdateRTSpineDataChild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColumnToBeValidated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValueToBeChecked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">channel_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DirectMail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OfferRegr4819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS1_Regr_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ED_Offer_RenamedLabel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear the IH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enure no checked out versions</t>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Call the eventAPI</t>
+  </si>
+  <si>
+    <t>RealtimeEventGetAPi</t>
+  </si>
+  <si>
+    <t>Below scenario ensure the new offer created on the discarded version not appears on the output csv</t>
+  </si>
+  <si>
+    <t>Enter the data set name</t>
+  </si>
+  <si>
+    <t>txtPrimarySearch</t>
+  </si>
+  <si>
+    <t>RTSpineData</t>
+  </si>
+  <si>
+    <t>Click on the search btn</t>
+  </si>
+  <si>
+    <t>btnPrimarySearch</t>
+  </si>
+  <si>
+    <t>Click on data set</t>
+  </si>
+  <si>
+    <t>lnkRTSpineData</t>
+  </si>
+  <si>
+    <t>Switch to the frame</t>
+  </si>
+  <si>
+    <t>PegaGadget0Ifr</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>btnActions</t>
+  </si>
+  <si>
+    <t>Select submenu</t>
+  </si>
+  <si>
+    <t>menuRun</t>
+  </si>
+  <si>
+    <t>Select Operation from the drop down</t>
+  </si>
+  <si>
+    <t>ddnOperation</t>
+  </si>
+  <si>
+    <t>Truncate</t>
+  </si>
+  <si>
+    <t>Click on Run</t>
+  </si>
+  <si>
+    <t>btnRun</t>
+  </si>
+  <si>
+    <t>switch to window</t>
+  </si>
+  <si>
+    <t>close the window</t>
+  </si>
+  <si>
+    <t>close the browser</t>
+  </si>
+  <si>
+    <t>Click Designer Studio</t>
+  </si>
+  <si>
+    <t>lnkDesignerStudioMenu</t>
+  </si>
+  <si>
+    <t>Click submenu 'System'</t>
+  </si>
+  <si>
+    <t>lnkSystemSubmenu</t>
+  </si>
+  <si>
+    <t>mouseOver</t>
+  </si>
+  <si>
+    <t>Click on 'Operations'</t>
+  </si>
+  <si>
+    <t>lnkOperationsSubmenu</t>
+  </si>
+  <si>
+    <t>Click System Management Applications</t>
+  </si>
+  <si>
+    <t>lnkSystemManagementApplicationSubmenu</t>
+  </si>
+  <si>
+    <t>maxiizing the window</t>
+  </si>
+  <si>
+    <t>maximizeWindow</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>select the node</t>
+  </si>
+  <si>
+    <t>lnkNodeSelection</t>
+  </si>
+  <si>
+    <t>switch to Parent frame</t>
+  </si>
+  <si>
+    <t>switch to frame</t>
+  </si>
+  <si>
+    <t>leftbottom</t>
+  </si>
+  <si>
+    <t>select agent management</t>
+  </si>
+  <si>
+    <t>lnkAgentManagement</t>
+  </si>
+  <si>
+    <t>select agents</t>
+  </si>
+  <si>
+    <t>lnkAgents</t>
+  </si>
+  <si>
+    <t>put wait</t>
+  </si>
+  <si>
+    <t>Switch to default</t>
+  </si>
+  <si>
+    <t>Switch to child</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>select the ProcessRTSpineDataMaster</t>
+  </si>
+  <si>
+    <t>radBtnProcessRTSpineDataMaster</t>
+  </si>
+  <si>
+    <t>selectRadioButton</t>
+  </si>
+  <si>
+    <t>click Start</t>
+  </si>
+  <si>
+    <t>btnStart</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>select the UpdateRTSpineDataChild</t>
+  </si>
+  <si>
+    <t>radBtnUpdateRTSpineDataChild</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>ColumnToBeValidated</t>
+  </si>
+  <si>
+    <t>ValueToBeChecked</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>channel_name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>DirectMail</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>offer_name</t>
+  </si>
+  <si>
+    <t>OfferRegr4819</t>
+  </si>
+  <si>
+    <t>ED_Offer_RenamedLabel_2</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Clear the IH</t>
+  </si>
+  <si>
+    <t>Enure no checked out versions</t>
+  </si>
+  <si>
+    <t>chkWeb</t>
+  </si>
+  <si>
+    <t>Deselect web</t>
   </si>
   <si>
     <t>Pass</t>
@@ -909,33 +917,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -945,7 +937,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -956,10 +948,9 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
-      <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -970,11 +961,10 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibiri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,204 +995,156 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" name="Percent" xfId="19"/>
-    <cellStyle builtinId="8" name="*unknown*" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1261,13 +1203,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1283,11 +1241,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1308,23 +1272,315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,81 +1601,73 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="2" width="14.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="2" width="27.15" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="2" width="70.7" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="2" width="19.14" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="2" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="true" hidden="false" style="2" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="14.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="70.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="9.140625" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="1" s="4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="14.25">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="2" s="4">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="14.25">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="3" s="4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="4" s="8">
-      <c r="A4" s="7" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="14.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1682,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1449,7 +1697,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1464,7 +1712,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1727,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1499,405 +1747,397 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E25" activeCellId="0" pane="topLeft" sqref="E25"/>
+    <sheetView topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="16.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="14.85" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="39.0" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="27.85" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="32.57" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="7" customWidth="true" hidden="false" style="0" width="31.43" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="7.85" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="11" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="9">
         <v>5000</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="9">
         <v>2000</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="9">
         <v>3000</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="9">
         <v>3000</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="9">
         <v>3000</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1912,16 +2152,16 @@
       <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1939,11 +2179,11 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1963,11 +2203,11 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1987,11 +2227,11 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2009,11 +2249,11 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2028,16 +2268,16 @@
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2055,11 +2295,11 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2077,11 +2317,11 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2099,11 +2339,11 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2121,11 +2361,11 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2143,11 +2383,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2165,181 +2405,181 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>49</v>
+      <c r="D30" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3000</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3000</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3000</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>49</v>
@@ -2347,70 +2587,70 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>20000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F39" s="1">
+        <v>20000</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2418,20 +2658,20 @@
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F41" s="1"/>
@@ -2440,67 +2680,67 @@
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10000</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2508,50 +2748,72 @@
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F46" s="1">
+        <v>30000</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2560,377 +2822,369 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A6" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F17" activeCellId="0" pane="topLeft" sqref="F17"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="34.86" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="22.15" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="30.86" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="26.57" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="9">
         <v>5000</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="9">
         <v>2000</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="9">
         <v>3000</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="9">
         <v>3000</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="9">
         <v>3000</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2948,9 +3202,9 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2970,9 +3224,9 @@
         <v>131</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2992,9 +3246,9 @@
         <v>80</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3012,9 +3266,9 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3030,13 +3284,13 @@
       <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="1">
         <v>3000</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3054,9 +3308,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3072,11 +3326,11 @@
       <c r="E24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3092,11 +3346,11 @@
       <c r="E25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3112,11 +3366,11 @@
       <c r="E26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3132,11 +3386,11 @@
       <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -3152,13 +3406,13 @@
       <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>3000</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -3174,11 +3428,11 @@
       <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3194,11 +3448,11 @@
       <c r="E30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3214,13 +3468,13 @@
       <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -3236,13 +3490,13 @@
       <c r="E32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -3258,13 +3512,13 @@
       <c r="E33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="17" t="n">
+      <c r="F33" s="13">
         <v>43525</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="G33" s="13"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -3280,13 +3534,13 @@
       <c r="E34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="17" t="n">
+      <c r="F34" s="13">
         <v>45743</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+      <c r="G34" s="13"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -3302,11 +3556,11 @@
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -3322,11 +3576,11 @@
       <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -3346,9 +3600,9 @@
         <v>155</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -3366,9 +3620,9 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -3388,9 +3642,9 @@
         <v>160</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -3406,11 +3660,11 @@
       <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -3426,13 +3680,13 @@
       <c r="E41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="13" t="n">
+      <c r="F41" s="9">
         <v>5000</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -3448,11 +3702,11 @@
       <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -3468,13 +3722,13 @@
       <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="13" t="n">
+      <c r="F43" s="9">
         <v>10000</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -3490,11 +3744,11 @@
       <c r="E44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -3510,11 +3764,11 @@
       <c r="E45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -3530,13 +3784,13 @@
       <c r="E46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="1">
         <v>20000</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -3556,7 +3810,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -3569,14 +3823,14 @@
       <c r="D48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -3589,14 +3843,14 @@
       <c r="D49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3612,13 +3866,13 @@
       <c r="E50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="1">
         <v>10000</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -3638,7 +3892,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -3658,7 +3912,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -3674,13 +3928,13 @@
       <c r="E53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F53" s="1">
         <v>30000</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -3706,100 +3960,92 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="F17" activeCellId="0" pane="topLeft" sqref="F17"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="16.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="14.85" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="39.0" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="27.85" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="32.57" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="7" customWidth="true" hidden="false" style="0" width="31.43" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="7.85" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="1025" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3819,7 +4065,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3841,7 +4087,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3857,13 +4103,13 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="14">
         <v>5000</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -3883,7 +4129,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -3905,7 +4151,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -3925,7 +4171,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3947,7 +4193,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3967,7 +4213,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3989,7 +4235,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -4009,7 +4255,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -4031,7 +4277,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -4044,16 +4290,16 @@
       <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -4075,7 +4321,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -4091,13 +4337,13 @@
       <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4117,7 +4363,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4139,7 +4385,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -4161,7 +4407,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -4181,7 +4427,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -4197,13 +4443,13 @@
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -4223,7 +4469,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4243,7 +4489,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -4263,7 +4509,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -4283,7 +4529,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -4299,13 +4545,13 @@
       <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>3000</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -4325,7 +4571,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -4341,13 +4587,13 @@
       <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="1">
         <v>8000</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -4369,7 +4615,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4385,13 +4631,13 @@
       <c r="E32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="1">
         <v>8000</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -4411,7 +4657,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -4431,7 +4677,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -4447,13 +4693,13 @@
       <c r="E35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="1">
         <v>3000</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -4473,7 +4719,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -4489,13 +4735,13 @@
       <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="1">
         <v>3000</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -4515,7 +4761,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -4535,7 +4781,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -4551,13 +4797,13 @@
       <c r="E40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40" s="1">
         <v>20000</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -4577,7 +4823,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -4597,7 +4843,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -4617,7 +4863,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -4633,13 +4879,13 @@
       <c r="E44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="1">
         <v>10000</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -4659,7 +4905,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
@@ -4679,7 +4925,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -4695,13 +4941,13 @@
       <c r="E47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="1">
         <v>30000</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -4727,97 +4973,89 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E21" activeCellId="0" pane="topLeft" sqref="E21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="7.14" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="28.0" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="22.15" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="33.14" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="7" customWidth="true" hidden="false" style="0" width="21.85" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="12" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -4833,13 +5071,13 @@
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -4855,13 +5093,13 @@
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -4877,13 +5115,13 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4903,7 +5141,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4925,7 +5163,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4945,7 +5183,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -4967,7 +5205,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -4983,13 +5221,13 @@
       <c r="E12" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -5011,7 +5249,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -5031,7 +5269,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -5053,7 +5291,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -5073,7 +5311,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5093,7 +5331,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5351,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -5133,7 +5371,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -5155,7 +5393,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -5177,7 +5415,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -5199,7 +5437,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -5215,13 +5453,13 @@
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>5000</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -5241,7 +5479,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -5263,7 +5501,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -5285,7 +5523,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -5305,7 +5543,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -5321,13 +5559,13 @@
       <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>3000</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -5347,7 +5585,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -5367,7 +5605,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -5387,7 +5625,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -5407,7 +5645,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -5429,7 +5667,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -5449,7 +5687,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -5471,7 +5709,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -5491,7 +5729,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -5507,13 +5745,13 @@
       <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="1">
         <v>3000</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -5529,11 +5767,11 @@
       <c r="E38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -5549,11 +5787,11 @@
       <c r="E39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5569,13 +5807,13 @@
       <c r="E40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -5591,13 +5829,13 @@
       <c r="E41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -5613,13 +5851,13 @@
       <c r="E42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="13">
         <v>43526</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="G42" s="13"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -5635,13 +5873,13 @@
       <c r="E43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="17" t="n">
+      <c r="F43" s="13">
         <v>45743</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+      <c r="G43" s="13"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -5657,11 +5895,11 @@
       <c r="E44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -5677,11 +5915,11 @@
       <c r="E45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -5701,9 +5939,9 @@
         <v>155</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -5721,9 +5959,9 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -5743,9 +5981,9 @@
         <v>207</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -5761,11 +5999,11 @@
       <c r="E49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -5781,13 +6019,13 @@
       <c r="E50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="13" t="n">
+      <c r="F50" s="9">
         <v>5000</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -5803,11 +6041,11 @@
       <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -5823,35 +6061,35 @@
       <c r="E52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H52" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
@@ -5867,11 +6105,11 @@
       <c r="E54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="55">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -5887,13 +6125,13 @@
       <c r="E55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="F55" s="1">
         <v>20000</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="56">
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -5911,9 +6149,9 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57">
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
@@ -5929,13 +6167,13 @@
       <c r="E57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="1" t="n">
+      <c r="F57" s="1">
         <v>60000</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="58">
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -5953,9 +6191,9 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="59">
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
@@ -5971,13 +6209,13 @@
       <c r="E59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="1" t="n">
+      <c r="F59" s="1">
         <v>30000</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
@@ -5997,9 +6235,9 @@
         <v>212</v>
       </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="61">
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -6015,15 +6253,15 @@
       <c r="E61" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="1" t="n">
+      <c r="F61" s="1">
         <v>123458</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H61" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
@@ -6041,7 +6279,7 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="13"/>
+      <c r="H62" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6049,99 +6287,91 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMK44"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F38" activeCellId="0" pane="topLeft" sqref="F38"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="7.14" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="35.85" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="38.7" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.85" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="11.57" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="8.14" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="12" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -6157,13 +6387,13 @@
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -6179,13 +6409,13 @@
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -6201,13 +6431,13 @@
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -6229,7 +6459,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -6249,7 +6479,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -6269,7 +6499,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -6291,7 +6521,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -6311,7 +6541,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6331,7 +6561,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6351,7 +6581,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -6373,7 +6603,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -6383,7 +6613,7 @@
       <c r="C16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -6395,7 +6625,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -6415,7 +6645,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -6431,13 +6661,13 @@
       <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="14" t="s">
         <v>182</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -6453,13 +6683,13 @@
       <c r="E19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -6479,7 +6709,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -6495,13 +6725,13 @@
       <c r="E21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -6521,7 +6751,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -6537,13 +6767,13 @@
       <c r="E23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -6563,7 +6793,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -6583,7 +6813,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6603,7 +6833,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6623,7 +6853,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -6639,13 +6869,13 @@
       <c r="E28" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -6665,7 +6895,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -6687,7 +6917,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -6707,7 +6937,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -6717,7 +6947,7 @@
       <c r="C32" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -6727,7 +6957,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -6737,7 +6967,7 @@
       <c r="C33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -6749,7 +6979,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -6769,7 +6999,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -6789,7 +7019,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -6805,13 +7035,13 @@
       <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="1">
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -6831,7 +7061,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -6847,13 +7077,13 @@
       <c r="E38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="1">
         <v>3000</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -6875,7 +7105,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -6895,7 +7125,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -6915,7 +7145,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -6935,7 +7165,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -6957,7 +7187,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -6973,9 +7203,9 @@
       <c r="E44" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6983,194 +7213,192 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G10" activeCellId="0" pane="topLeft" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.15" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="18.71" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="21.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="28.0" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="15.28" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="19.57" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="18.0" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18" customWidth="1" collapsed="1"/>
+    <col min="9" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="12" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+      <c r="F5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="F6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7179,57 +7407,44 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A2:AMK3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D15" activeCellId="0" pane="topLeft" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.28" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\Run1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B51D7D-B3FF-4721-AA4E-3EADC1D71BC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5E3BCD27-1CE0-45F8-AD5E-79BBC0639395}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="DriverSheet" sheetId="2" r:id="rId2"/>
-    <sheet name="VerifyCSVForExistingVersion" sheetId="3" r:id="rId3"/>
-    <sheet name="VerifyCSVForNewVersion" sheetId="4" r:id="rId4"/>
-    <sheet name="VerifyDeleteOffer" sheetId="5" r:id="rId5"/>
-    <sheet name="VerifyEventAPI" sheetId="6" r:id="rId6"/>
-    <sheet name="Cases_RealTimeSpine" sheetId="7" r:id="rId7"/>
-    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId8"/>
-    <sheet name="CheckLists" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="DriverSheet" r:id="rId2" sheetId="2"/>
+    <sheet name="VerifyCSVForExistingVersion" r:id="rId3" sheetId="3"/>
+    <sheet name="VerifyCSVForNewVersion" r:id="rId4" sheetId="4"/>
+    <sheet name="VerifyDeleteOffer" r:id="rId5" sheetId="5"/>
+    <sheet name="VerifyEventAPI" r:id="rId6" sheetId="6"/>
+    <sheet name="Cases_RealTimeSpine" r:id="rId7" sheetId="7"/>
+    <sheet name="BatchDecisionOutputValidations" r:id="rId8" sheetId="8"/>
+    <sheet name="CheckLists" r:id="rId9" sheetId="9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="294">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>Deselect web</t>
+  </si>
+  <si>
+    <t>uncheck cc</t>
   </si>
   <si>
     <t>Pass</t>
@@ -1093,58 +1096,58 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1225,7 +1228,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1277,10 +1280,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1315,7 +1318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1367,7 +1370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1478,21 +1481,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1509,7 +1512,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1561,23 +1564,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1601,31 +1604,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="70.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="70.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
+    <col min="6" max="1025" customWidth="true" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="1" s="3" spans="1:5">
       <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
@@ -1634,7 +1637,7 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="2" s="3" spans="1:5">
       <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
@@ -1643,14 +1646,14 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="3" s="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="4" s="6" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1747,29 +1750,29 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1852,9 +1855,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -1876,9 +1877,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -1900,9 +1899,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1922,9 +1919,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1946,9 +1941,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -1968,9 +1961,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -1992,9 +1983,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -2014,9 +2003,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -2038,9 +2025,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -2060,9 +2045,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -2084,9 +2067,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -2108,9 +2089,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -2132,9 +2111,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
@@ -2156,9 +2133,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -2178,9 +2153,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
@@ -2202,9 +2175,7 @@
         <v>76</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
@@ -2226,9 +2197,7 @@
         <v>80</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
@@ -2248,9 +2217,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -2272,9 +2239,7 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
@@ -2294,9 +2259,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
@@ -2316,9 +2279,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
@@ -2338,9 +2299,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
@@ -2360,9 +2319,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
@@ -2382,9 +2339,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
@@ -2404,9 +2359,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
@@ -2426,9 +2379,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
@@ -2448,9 +2399,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
@@ -2472,9 +2421,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
@@ -2494,9 +2441,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
@@ -2518,9 +2463,7 @@
         <v>3000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
@@ -2540,9 +2483,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
@@ -2564,9 +2505,7 @@
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
@@ -2586,9 +2525,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
@@ -2608,9 +2545,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
@@ -2632,9 +2567,7 @@
         <v>20000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
@@ -2654,9 +2587,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
@@ -2676,9 +2607,7 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
@@ -2698,9 +2627,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
@@ -2722,9 +2649,7 @@
         <v>10000</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
@@ -2744,9 +2669,7 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
@@ -2766,9 +2689,7 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
@@ -2790,9 +2711,7 @@
         <v>30000</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
@@ -2812,9 +2731,7 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2822,28 +2739,28 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMK54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2926,7 +2843,9 @@
         <v>38</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -2948,7 +2867,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -2970,7 +2891,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -2990,7 +2913,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -3012,7 +2937,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -3032,7 +2959,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -3054,7 +2983,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -3074,7 +3005,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -3096,7 +3029,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -3116,7 +3051,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -3138,7 +3075,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -3160,7 +3099,9 @@
         <v>64</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -3182,7 +3123,9 @@
         <v>68</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -3202,7 +3145,9 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -3224,7 +3169,9 @@
         <v>131</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -3246,7 +3193,9 @@
         <v>80</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -3266,7 +3215,9 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -3288,7 +3239,9 @@
         <v>3000</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -3308,7 +3261,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -3328,7 +3283,9 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -3348,7 +3305,9 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -3368,7 +3327,9 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -3378,487 +3339,531 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>136</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>142</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="13">
-        <v>43525</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="13">
-        <v>45743</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F37" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45743</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F45" s="9">
+        <v>5000</v>
+      </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F47" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>38</v>
@@ -3867,92 +3872,192 @@
         <v>45</v>
       </c>
       <c r="F50" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="1">
-        <v>30000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3960,29 +4065,29 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMK48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A34" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4973,28 +5078,28 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMK62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="8" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6287,30 +6392,30 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMK44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7213,30 +7318,30 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7309,9 +7414,6 @@
       <c r="E5" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="F5" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -7329,9 +7431,6 @@
       <c r="E6" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="F6" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -7349,6 +7448,9 @@
       <c r="E7" s="18" t="s">
         <v>278</v>
       </c>
+      <c r="F7" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -7366,6 +7468,9 @@
       <c r="E8" s="18" t="s">
         <v>278</v>
       </c>
+      <c r="F8" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -7382,6 +7487,9 @@
       </c>
       <c r="E9" s="18" t="s">
         <v>278</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7407,24 +7515,24 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:AMK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="1025" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -7444,7 +7552,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -3146,7 +3146,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:8">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="294">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -2843,9 +2843,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -2867,9 +2865,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -2891,9 +2887,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -2913,9 +2907,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -2937,9 +2929,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -2959,9 +2949,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -2983,9 +2971,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -3005,9 +2991,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -3029,9 +3013,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -3051,9 +3033,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -3075,9 +3055,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -3099,9 +3077,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -3123,9 +3099,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -3145,9 +3119,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -3169,9 +3141,7 @@
         <v>131</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -3193,9 +3163,7 @@
         <v>80</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -3215,9 +3183,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -3239,9 +3205,7 @@
         <v>3000</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -3261,9 +3225,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -3283,9 +3245,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -3305,9 +3265,7 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -3327,9 +3285,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -3349,9 +3305,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -3371,9 +3325,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -3393,9 +3345,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -3415,9 +3365,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -3437,9 +3385,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -3461,9 +3407,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -3483,9 +3427,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -3505,9 +3447,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -3529,9 +3469,7 @@
         <v>142</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -3553,9 +3491,7 @@
         <v>142</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -3577,9 +3513,7 @@
         <v>43525</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -3601,9 +3535,7 @@
         <v>45743</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -3623,9 +3555,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -3645,9 +3575,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -3669,9 +3597,7 @@
         <v>155</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -3691,9 +3617,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -3715,9 +3639,7 @@
         <v>160</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -3737,9 +3659,7 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -3761,9 +3681,7 @@
         <v>5000</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -3783,9 +3701,7 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -3807,9 +3723,7 @@
         <v>10000</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3829,9 +3743,7 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -3851,9 +3763,7 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -3875,9 +3785,7 @@
         <v>20000</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -3897,9 +3805,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -3919,9 +3825,7 @@
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -3941,9 +3845,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -3965,9 +3867,7 @@
         <v>10000</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -3987,9 +3887,7 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -4009,9 +3907,7 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -4033,9 +3929,7 @@
         <v>30000</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -4055,9 +3949,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5180,7 +5072,9 @@
         <v>38</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -5202,7 +5096,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -5224,7 +5120,9 @@
         <v>182</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -5244,7 +5142,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -5266,7 +5166,9 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -5286,7 +5188,9 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -5308,7 +5212,9 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -5330,7 +5236,9 @@
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -5352,7 +5260,9 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -5372,7 +5282,9 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -5394,7 +5306,9 @@
         <v>64</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -5414,7 +5328,9 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -5434,7 +5350,9 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -5454,7 +5372,9 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -5474,7 +5394,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -5496,7 +5418,9 @@
         <v>168</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -5518,7 +5442,9 @@
         <v>193</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -5540,7 +5466,9 @@
         <v>68</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -5562,7 +5490,9 @@
         <v>5000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -5582,7 +5512,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -5604,7 +5536,9 @@
         <v>194</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -5626,7 +5560,9 @@
         <v>194</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -5646,7 +5582,9 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -5668,7 +5606,9 @@
         <v>3000</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -5688,7 +5628,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -5708,7 +5650,9 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -5728,7 +5672,9 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -5748,7 +5694,9 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -5770,7 +5718,9 @@
         <v>199</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -5790,7 +5740,9 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -5812,7 +5764,9 @@
         <v>199</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -5832,7 +5786,9 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -5854,7 +5810,9 @@
         <v>3000</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -5874,7 +5832,9 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -5894,7 +5854,9 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -5916,7 +5878,9 @@
         <v>204</v>
       </c>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -5938,7 +5902,9 @@
         <v>204</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -5960,7 +5926,9 @@
         <v>43526</v>
       </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -5982,7 +5950,9 @@
         <v>45743</v>
       </c>
       <c r="G43" s="13"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -6002,7 +5972,9 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -6022,7 +5994,9 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -6044,7 +6018,9 @@
         <v>155</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -6064,7 +6040,9 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -6086,7 +6064,9 @@
         <v>207</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -6106,7 +6086,9 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -6128,7 +6110,9 @@
         <v>5000</v>
       </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -6148,7 +6132,9 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -7448,9 +7434,6 @@
       <c r="E7" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="F7" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -7468,9 +7451,6 @@
       <c r="E8" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="F8" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -7487,9 +7467,6 @@
       </c>
       <c r="E9" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="F9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:8">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5E3BCD27-1CE0-45F8-AD5E-79BBC0639395}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{33BE9526-47DD-4644-9857-633FAB57CE37}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="4" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="294">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -554,9 +554,6 @@
     <t>hiddenClick</t>
   </si>
   <si>
-    <t>test_5</t>
-  </si>
-  <si>
     <t>select radio button</t>
   </si>
   <si>
@@ -909,6 +906,9 @@
   </si>
   <si>
     <t>uncheck cc</t>
+  </si>
+  <si>
+    <t>free_mobile</t>
   </si>
   <si>
     <t>Pass</t>
@@ -2369,10 +2369,10 @@
         <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -2748,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3295,7 +3295,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -3358,7 +3358,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -3964,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4060,7 +4060,9 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -4082,7 +4084,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -4104,7 +4108,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -4124,7 +4130,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -4146,7 +4154,9 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -4166,7 +4176,9 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -4188,7 +4200,9 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -4208,7 +4222,9 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -4230,7 +4246,9 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -4250,7 +4268,9 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -4272,7 +4292,9 @@
         <v>168</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -4294,7 +4316,9 @@
         <v>64</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -4316,7 +4340,9 @@
         <v>68</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -4338,7 +4364,9 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -4358,7 +4386,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -4380,7 +4410,9 @@
         <v>169</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -4402,7 +4434,9 @@
         <v>80</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -4422,7 +4456,9 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -4444,7 +4480,9 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -4464,7 +4502,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -4484,7 +4524,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -4504,120 +4546,126 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3000</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1">
-        <v>8000</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -4629,69 +4677,77 @@
         <v>45</v>
       </c>
       <c r="F32" s="1">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8000</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3000</v>
+        <v>172</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4701,55 +4757,59 @@
         <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8000</v>
+      </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>49</v>
@@ -4763,18 +4823,20 @@
         <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3000</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -4783,20 +4845,18 @@
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="1">
-        <v>20000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -4805,18 +4865,20 @@
         <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3000</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -4825,16 +4887,16 @@
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4845,16 +4907,16 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4865,10 +4927,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>38</v>
@@ -4877,7 +4939,7 @@
         <v>45</v>
       </c>
       <c r="F44" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -4887,16 +4949,16 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -4907,16 +4969,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -4927,20 +4989,18 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="1">
-        <v>30000</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
@@ -4949,20 +5009,104 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10000</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4977,10 +5121,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4996,7 +5140,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5072,9 +5216,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -5096,9 +5238,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -5117,12 +5257,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -5142,9 +5280,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -5166,9 +5302,7 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -5188,9 +5322,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -5212,9 +5344,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -5230,15 +5360,13 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -5260,9 +5388,7 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -5272,19 +5398,17 @@
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -5294,7 +5418,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
@@ -5306,9 +5430,7 @@
         <v>64</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -5318,19 +5440,17 @@
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -5340,19 +5460,17 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -5362,19 +5480,17 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -5394,9 +5510,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -5418,9 +5532,7 @@
         <v>168</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -5439,12 +5551,10 @@
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -5466,9 +5576,7 @@
         <v>68</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -5490,9 +5598,7 @@
         <v>5000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -5512,9 +5618,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -5533,12 +5637,10 @@
         <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -5557,12 +5659,10 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -5582,9 +5682,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -5606,9 +5704,7 @@
         <v>3000</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -5628,9 +5724,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -5650,9 +5744,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -5672,9 +5764,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -5684,19 +5774,17 @@
         <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -5706,21 +5794,17 @@
         <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>91</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -5730,19 +5814,17 @@
         <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -5752,432 +5834,394 @@
         <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3000</v>
+        <v>75</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="13">
-        <v>43526</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="13">
-        <v>45743</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F46" s="13">
+        <v>43526</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45743</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="15" t="s">
+      <c r="B53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
@@ -6188,15 +6232,17 @@
         <v>165</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F54" s="9">
+        <v>5000</v>
+      </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
     </row>
@@ -6205,21 +6251,19 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
@@ -6227,41 +6271,43 @@
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="1">
-        <v>60000</v>
-      </c>
-      <c r="G57" s="1"/>
+      <c r="B57" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
@@ -6269,19 +6315,19 @@
         <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
@@ -6289,7 +6335,7 @@
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>44</v>
@@ -6301,7 +6347,7 @@
         <v>45</v>
       </c>
       <c r="F59" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="9"/>
@@ -6311,20 +6357,18 @@
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="9"/>
     </row>
@@ -6333,23 +6377,21 @@
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="F61" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
@@ -6357,20 +6399,108 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6406,7 +6536,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6523,7 +6653,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -6536,16 +6666,16 @@
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6558,10 +6688,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>49</v>
@@ -6578,10 +6708,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>49</v>
@@ -6598,7 +6728,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
@@ -6607,7 +6737,7 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6620,10 +6750,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>49</v>
@@ -6640,10 +6770,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>49</v>
@@ -6702,16 +6832,16 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>230</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6724,10 +6854,10 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -6753,7 +6883,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -6766,13 +6896,13 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -6788,13 +6918,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -6808,13 +6938,13 @@
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -6830,13 +6960,13 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -6850,13 +6980,13 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -6872,10 +7002,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>49</v>
@@ -6892,13 +7022,13 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -6912,13 +7042,13 @@
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -6932,10 +7062,10 @@
         <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>49</v>
@@ -6952,13 +7082,13 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -6974,13 +7104,13 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -6994,7 +7124,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -7003,7 +7133,7 @@
         <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -7016,10 +7146,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>49</v>
@@ -7036,13 +7166,13 @@
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7056,7 +7186,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>38</v>
@@ -7065,7 +7195,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7078,10 +7208,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>49</v>
@@ -7098,10 +7228,10 @@
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>49</v>
@@ -7118,7 +7248,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -7140,13 +7270,13 @@
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -7160,7 +7290,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -7182,7 +7312,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
@@ -7191,7 +7321,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7204,13 +7334,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7224,10 +7354,10 @@
         <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>49</v>
@@ -7244,13 +7374,13 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7264,7 +7394,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>38</v>
@@ -7273,7 +7403,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7286,13 +7416,13 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -7357,7 +7487,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -7367,19 +7497,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7389,16 +7519,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7406,16 +7536,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>280</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7423,16 +7553,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7440,16 +7570,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7457,16 +7587,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>284</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7474,16 +7604,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>285</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -7517,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7525,7 +7655,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="294">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1855,7 +1855,9 @@
         <v>38</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -1877,7 +1879,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -1899,7 +1903,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1919,7 +1925,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1941,7 +1949,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -1961,7 +1971,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -1983,7 +1995,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -2003,7 +2017,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -2025,7 +2041,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -2045,7 +2063,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -2067,7 +2087,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -2089,7 +2111,9 @@
         <v>64</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -2111,7 +2135,9 @@
         <v>68</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
@@ -2133,7 +2159,9 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -2153,7 +2181,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
@@ -2175,7 +2205,9 @@
         <v>76</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
@@ -2197,7 +2229,9 @@
         <v>80</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
@@ -2217,7 +2251,9 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -2239,7 +2275,9 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
@@ -2259,7 +2297,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
@@ -2279,7 +2319,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
@@ -2299,7 +2341,9 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
@@ -2319,7 +2363,9 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
@@ -2339,7 +2385,9 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
@@ -2359,7 +2407,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
@@ -2379,7 +2429,9 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
@@ -2399,7 +2451,9 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
@@ -2421,7 +2475,9 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
@@ -2441,7 +2497,9 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
@@ -2463,7 +2521,9 @@
         <v>3000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
@@ -2483,7 +2543,9 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
@@ -2505,7 +2567,9 @@
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
@@ -2525,7 +2589,9 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
@@ -2545,7 +2611,9 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
@@ -2567,7 +2635,9 @@
         <v>20000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
@@ -2587,7 +2657,9 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
@@ -2607,7 +2679,9 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
@@ -2627,7 +2701,9 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
@@ -2649,7 +2725,9 @@
         <v>10000</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
@@ -2669,7 +2747,9 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
@@ -2689,7 +2769,9 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
@@ -2711,7 +2793,9 @@
         <v>30000</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
@@ -2731,7 +2815,9 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2843,7 +2929,9 @@
         <v>38</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -2865,7 +2953,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -2887,7 +2977,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -2907,7 +2999,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -2929,7 +3023,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -2949,7 +3045,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -2971,7 +3069,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -2991,7 +3091,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -3013,7 +3115,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -3033,7 +3137,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -3055,7 +3161,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -3077,7 +3185,9 @@
         <v>64</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -3099,7 +3209,9 @@
         <v>68</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -3119,7 +3231,9 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -3141,7 +3255,9 @@
         <v>131</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -3163,7 +3279,9 @@
         <v>80</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -3183,7 +3301,9 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -3205,7 +3325,9 @@
         <v>3000</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -3225,7 +3347,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -3245,7 +3369,9 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -3265,7 +3391,9 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -3285,7 +3413,9 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -3305,7 +3435,9 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -3325,7 +3457,9 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -3345,7 +3479,9 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -3365,7 +3501,9 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -3385,7 +3523,9 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -3407,7 +3547,9 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -3427,7 +3569,9 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -3447,7 +3591,9 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -3469,7 +3615,9 @@
         <v>142</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -3491,7 +3639,9 @@
         <v>142</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -3513,7 +3663,9 @@
         <v>43525</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -3535,7 +3687,9 @@
         <v>45743</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -3555,7 +3709,9 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -3575,7 +3731,9 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -3597,7 +3755,9 @@
         <v>155</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -3617,7 +3777,9 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -3639,7 +3801,9 @@
         <v>160</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -3659,7 +3823,9 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -3681,7 +3847,9 @@
         <v>5000</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -3701,7 +3869,9 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -3723,7 +3893,9 @@
         <v>10000</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3743,7 +3915,9 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -3763,7 +3937,9 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -3785,7 +3961,9 @@
         <v>20000</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -3805,7 +3983,9 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -3825,7 +4005,9 @@
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -3845,7 +4027,9 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -3867,7 +4051,9 @@
         <v>10000</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -3887,7 +4073,9 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -3907,7 +4095,9 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -3929,7 +4119,9 @@
         <v>30000</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -3949,7 +4141,9 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4060,9 +4254,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -4084,9 +4276,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -4108,9 +4298,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -4130,9 +4318,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -4154,9 +4340,7 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -4176,9 +4360,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -4200,9 +4382,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -4222,9 +4402,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -4246,9 +4424,7 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -4268,9 +4444,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -4292,9 +4466,7 @@
         <v>168</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -4316,9 +4488,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -4340,9 +4510,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -4364,9 +4532,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -4386,9 +4552,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -4410,9 +4574,7 @@
         <v>169</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -4434,9 +4596,7 @@
         <v>80</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -4456,9 +4616,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -4480,9 +4638,7 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -4502,9 +4658,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -4524,9 +4678,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -4546,9 +4698,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -4568,9 +4718,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -4590,9 +4738,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -4612,9 +4758,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -4634,9 +4778,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -4656,9 +4798,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -4680,9 +4820,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -4702,9 +4840,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -4726,9 +4862,7 @@
         <v>8000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -4772,9 +4906,7 @@
         <v>8000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -4794,9 +4926,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -5216,7 +5346,9 @@
         <v>38</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -5238,7 +5370,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -5260,7 +5394,9 @@
         <v>181</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -5280,7 +5416,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -5302,7 +5440,9 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -5322,7 +5462,9 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -5344,7 +5486,9 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -5366,7 +5510,9 @@
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -5388,7 +5534,9 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -5408,7 +5556,9 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -5430,7 +5580,9 @@
         <v>64</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -5450,7 +5602,9 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -5470,7 +5624,9 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -5490,7 +5646,9 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -5510,7 +5668,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -5532,7 +5692,9 @@
         <v>168</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -5554,7 +5716,9 @@
         <v>192</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -5576,7 +5740,9 @@
         <v>68</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -5598,7 +5764,9 @@
         <v>5000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -5618,7 +5786,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -5640,7 +5810,9 @@
         <v>193</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -5662,7 +5834,9 @@
         <v>193</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -5682,7 +5856,9 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -5704,7 +5880,9 @@
         <v>3000</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -5724,7 +5902,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -5744,7 +5924,9 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -5764,7 +5946,9 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -5784,7 +5968,9 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -5804,7 +5990,9 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -5824,7 +6012,9 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -5844,7 +6034,9 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -5864,7 +6056,9 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -5886,7 +6080,9 @@
         <v>198</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -5906,7 +6102,9 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -5928,7 +6126,9 @@
         <v>198</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -5948,7 +6148,9 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -5970,7 +6172,9 @@
         <v>3000</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -5990,7 +6194,9 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -6010,7 +6216,9 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -6032,7 +6240,9 @@
         <v>203</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -6054,7 +6264,9 @@
         <v>203</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -6076,7 +6288,9 @@
         <v>43526</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -6098,7 +6312,9 @@
         <v>45743</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -6118,7 +6334,9 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -6138,7 +6356,9 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -6160,7 +6380,9 @@
         <v>155</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -6180,7 +6402,9 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -6202,7 +6426,9 @@
         <v>206</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -6222,7 +6448,9 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -6244,7 +6472,9 @@
         <v>5000</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -6264,7 +6494,9 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -6288,7 +6520,9 @@
       <c r="G56" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -6308,7 +6542,9 @@
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -6328,7 +6564,9 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -6350,7 +6588,9 @@
         <v>20000</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -6370,7 +6610,9 @@
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -6392,7 +6634,9 @@
         <v>60000</v>
       </c>
       <c r="G61" s="1"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
@@ -6412,7 +6656,9 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
@@ -6434,7 +6680,9 @@
         <v>30000</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
@@ -6456,7 +6704,9 @@
         <v>211</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
@@ -6480,7 +6730,9 @@
       <c r="G65" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -6500,7 +6752,9 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{33BE9526-47DD-4644-9857-633FAB57CE37}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9EF3D7BE-6B62-4801-A961-8B0D6EBE203C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView activeTab="4" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="293">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -546,9 +546,6 @@
   </si>
   <si>
     <t>Delete the offer</t>
-  </si>
-  <si>
-    <t>rbdeloffer</t>
   </si>
   <si>
     <t>hiddenClick</t>
@@ -1856,7 +1853,7 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1880,7 +1877,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1904,7 +1901,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1926,7 +1923,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1950,7 +1947,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1972,7 +1969,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1996,7 +1993,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2018,7 +2015,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2042,7 +2039,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2064,7 +2061,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2088,7 +2085,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2112,7 +2109,7 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2136,7 +2133,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2160,7 +2157,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2182,7 +2179,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2206,7 +2203,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2230,7 +2227,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2252,7 +2249,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2276,7 +2273,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2298,7 +2295,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2320,7 +2317,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2342,7 +2339,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2364,7 +2361,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2386,7 +2383,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2408,7 +2405,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2419,10 +2416,10 @@
         <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -2430,7 +2427,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2452,7 +2449,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2476,7 +2473,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2498,7 +2495,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2522,7 +2519,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2544,7 +2541,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2568,7 +2565,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2590,7 +2587,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2612,7 +2609,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2636,7 +2633,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2658,7 +2655,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2680,7 +2677,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2702,7 +2699,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2726,7 +2723,7 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2748,7 +2745,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2770,7 +2767,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2794,7 +2791,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2816,7 +2813,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2834,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A49" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2930,7 +2927,7 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2954,7 +2951,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2978,7 +2975,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3000,7 +2997,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3024,7 +3021,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3046,7 +3043,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3070,7 +3067,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3092,7 +3089,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3116,7 +3113,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3138,7 +3135,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3162,7 +3159,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3186,7 +3183,7 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3210,7 +3207,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3232,7 +3229,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3256,7 +3253,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3280,7 +3277,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3302,7 +3299,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3326,7 +3323,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3348,7 +3345,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3370,7 +3367,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3392,7 +3389,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3414,7 +3411,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3425,7 +3422,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -3436,7 +3433,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3458,7 +3455,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3480,7 +3477,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3494,7 +3491,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -3502,7 +3499,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3524,7 +3521,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3548,7 +3545,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3570,7 +3567,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3592,7 +3589,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3616,7 +3613,7 @@
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3640,7 +3637,7 @@
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3664,7 +3661,7 @@
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3688,7 +3685,7 @@
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3710,7 +3707,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3732,7 +3729,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3756,7 +3753,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3778,7 +3775,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3802,7 +3799,7 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3824,7 +3821,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3848,7 +3845,7 @@
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3870,7 +3867,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3894,7 +3891,7 @@
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3916,7 +3913,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3938,7 +3935,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3962,7 +3959,7 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3984,7 +3981,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4006,7 +4003,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4028,7 +4025,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4052,7 +4049,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4074,7 +4071,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4096,7 +4093,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4120,7 +4117,7 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4142,7 +4139,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4160,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4254,7 +4251,9 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -4276,7 +4275,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -4298,7 +4299,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -4318,7 +4321,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -4340,7 +4345,9 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -4360,7 +4367,9 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -4382,7 +4391,9 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -4402,7 +4413,9 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -4424,7 +4437,9 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -4444,7 +4459,9 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -4466,7 +4483,9 @@
         <v>168</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -4488,7 +4507,9 @@
         <v>64</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -4510,7 +4531,9 @@
         <v>68</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -4532,7 +4555,9 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -4552,7 +4577,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -4731,7 +4758,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4875,13 +4902,13 @@
         <v>170</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4916,10 +4943,10 @@
         <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>49</v>
@@ -4936,10 +4963,10 @@
         <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>49</v>
@@ -5181,7 +5208,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>125</v>
@@ -5223,7 +5250,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>129</v>
@@ -5232,7 +5259,7 @@
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -5270,7 +5297,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5347,7 +5374,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5371,7 +5398,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5391,11 +5418,11 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5417,7 +5444,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5441,7 +5468,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5463,7 +5490,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5487,7 +5514,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5504,14 +5531,14 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5535,7 +5562,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5546,10 +5573,10 @@
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>49</v>
@@ -5557,7 +5584,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5568,7 +5595,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
@@ -5581,7 +5608,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5592,10 +5619,10 @@
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>49</v>
@@ -5603,7 +5630,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5614,10 +5641,10 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -5625,7 +5652,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5636,18 +5663,18 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5669,7 +5696,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5693,7 +5720,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5713,11 +5740,11 @@
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5741,7 +5768,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5765,7 +5792,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5787,7 +5814,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5807,11 +5834,11 @@
         <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5831,11 +5858,11 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5857,7 +5884,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5881,7 +5908,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5903,7 +5930,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5925,7 +5952,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5947,7 +5974,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5969,7 +5996,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5983,7 +6010,7 @@
         <v>91</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>93</v>
@@ -5991,7 +6018,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6013,7 +6040,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6035,7 +6062,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6046,10 +6073,10 @@
         <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>49</v>
@@ -6057,7 +6084,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6068,20 +6095,20 @@
         <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6092,18 +6119,18 @@
         <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6114,20 +6141,20 @@
         <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6149,7 +6176,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6173,7 +6200,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6195,7 +6222,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6217,7 +6244,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6237,11 +6264,11 @@
         <v>75</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6261,11 +6288,11 @@
         <v>75</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6289,7 +6316,7 @@
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6313,7 +6340,7 @@
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6335,7 +6362,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6357,7 +6384,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6381,7 +6408,7 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6395,7 +6422,7 @@
         <v>156</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>49</v>
@@ -6403,7 +6430,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6417,17 +6444,17 @@
         <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6449,7 +6476,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6473,7 +6500,7 @@
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6484,7 +6511,7 @@
         <v>164</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>83</v>
@@ -6495,7 +6522,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6506,22 +6533,22 @@
         <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6543,7 +6570,7 @@
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6565,7 +6592,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6589,7 +6616,7 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6611,7 +6638,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6635,7 +6662,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6657,7 +6684,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6681,7 +6708,7 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6692,7 +6719,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
@@ -6701,11 +6728,11 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6716,22 +6743,22 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="F65" s="1">
         <v>123458</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6753,7 +6780,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6790,7 +6817,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6907,7 +6934,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -6920,16 +6947,16 @@
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6942,10 +6969,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>49</v>
@@ -6962,10 +6989,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>49</v>
@@ -6982,7 +7009,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
@@ -6991,7 +7018,7 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7004,10 +7031,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>49</v>
@@ -7024,10 +7051,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>49</v>
@@ -7086,16 +7113,16 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -7108,10 +7135,10 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -7137,7 +7164,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -7150,13 +7177,13 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -7172,13 +7199,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7192,13 +7219,13 @@
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -7214,13 +7241,13 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -7234,13 +7261,13 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -7256,10 +7283,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>49</v>
@@ -7276,13 +7303,13 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -7296,13 +7323,13 @@
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -7316,10 +7343,10 @@
         <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>49</v>
@@ -7336,13 +7363,13 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -7358,13 +7385,13 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -7378,7 +7405,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -7387,7 +7414,7 @@
         <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -7400,10 +7427,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>49</v>
@@ -7420,13 +7447,13 @@
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7440,7 +7467,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>38</v>
@@ -7449,7 +7476,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7462,10 +7489,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>49</v>
@@ -7482,10 +7509,10 @@
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>49</v>
@@ -7502,7 +7529,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -7524,13 +7551,13 @@
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -7544,7 +7571,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -7566,7 +7593,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
@@ -7575,7 +7602,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7588,13 +7615,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7608,10 +7635,10 @@
         <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>49</v>
@@ -7628,13 +7655,13 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7648,7 +7675,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>38</v>
@@ -7657,7 +7684,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7670,13 +7697,13 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -7741,7 +7768,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -7751,19 +7778,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7773,16 +7800,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>277</v>
+      <c r="F5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7790,16 +7820,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>279</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="F6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7807,16 +7840,19 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>275</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="F7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7824,16 +7860,19 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>277</v>
+      <c r="F8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7841,16 +7880,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>283</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="F9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7858,16 +7900,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7901,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7909,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9EF3D7BE-6B62-4801-A961-8B0D6EBE203C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{63C34059-38F0-43D4-B031-F407D3C6D4E3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="5" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="293">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -881,12 +881,6 @@
     <t>offer_name</t>
   </si>
   <si>
-    <t>OfferRegr4819</t>
-  </si>
-  <si>
-    <t>ED_Offer_RenamedLabel_2</t>
-  </si>
-  <si>
     <t>Not Available</t>
   </si>
   <si>
@@ -908,10 +902,16 @@
     <t>free_mobile</t>
   </si>
   <si>
+    <t>radBtnTestFolder</t>
+  </si>
+  <si>
+    <t>Select TestFolder</t>
+  </si>
+  <si>
+    <t>free_mobile1</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -1754,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A31" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1923,7 +1923,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1969,7 +1969,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2015,7 +2015,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2061,7 +2061,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2179,7 +2179,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2249,7 +2249,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2295,7 +2295,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2317,7 +2317,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2339,7 +2339,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2361,7 +2361,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2383,7 +2383,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2405,7 +2405,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2416,10 +2416,10 @@
         <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -2427,7 +2427,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2449,7 +2449,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2495,7 +2495,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2541,7 +2541,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2587,7 +2587,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2609,7 +2609,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2632,75 +2632,67 @@
         <v>20000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
@@ -2710,111 +2702,121 @@
         <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10000</v>
+      </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2829,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2926,9 +2928,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -2950,9 +2950,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -2974,9 +2972,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -2996,9 +2992,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -3020,9 +3014,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -3042,9 +3034,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -3066,9 +3056,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -3088,9 +3076,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -3112,9 +3098,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -3134,9 +3118,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -3158,9 +3140,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -3182,9 +3162,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -3206,9 +3184,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -3228,9 +3204,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -3252,9 +3226,7 @@
         <v>131</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -3276,9 +3248,7 @@
         <v>80</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -3298,9 +3268,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -3322,9 +3290,7 @@
         <v>3000</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -3344,9 +3310,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -3366,9 +3330,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -3388,9 +3350,7 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -3410,9 +3370,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -3422,7 +3380,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -3432,9 +3390,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -3454,9 +3410,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -3476,9 +3430,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -3491,16 +3443,14 @@
         <v>136</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -3520,9 +3470,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -3544,9 +3492,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -3566,9 +3512,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -3588,9 +3532,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -3612,9 +3554,7 @@
         <v>142</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -3636,9 +3576,7 @@
         <v>142</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -3660,9 +3598,7 @@
         <v>43525</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -3684,9 +3620,7 @@
         <v>45743</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -3706,9 +3640,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -3728,9 +3660,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -3752,9 +3682,7 @@
         <v>155</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -3774,9 +3702,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -3798,9 +3724,7 @@
         <v>160</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -3820,9 +3744,7 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -3844,9 +3766,7 @@
         <v>5000</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -3866,9 +3786,7 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -3890,9 +3808,7 @@
         <v>10000</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3912,9 +3828,7 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -3934,9 +3848,7 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -3958,75 +3870,67 @@
         <v>20000</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>290</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -4036,111 +3940,121 @@
         <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10000</v>
+      </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4155,10 +4069,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4251,9 +4165,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -4275,9 +4187,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -4299,9 +4209,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -4321,9 +4229,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -4345,9 +4251,7 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -4367,9 +4271,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -4391,9 +4293,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -4413,9 +4313,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -4437,9 +4335,7 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -4459,9 +4355,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -4483,9 +4377,7 @@
         <v>168</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -4507,9 +4399,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -4531,9 +4421,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -4555,9 +4443,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -4577,9 +4463,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -4758,7 +4642,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4908,7 +4792,7 @@
         <v>171</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -5106,16 +4990,16 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -5126,16 +5010,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -5146,13 +5030,13 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>116</v>
@@ -5166,20 +5050,18 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="1">
-        <v>10000</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -5188,18 +5070,20 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10000</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -5208,16 +5092,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -5228,20 +5112,18 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -5250,20 +5132,42 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F52" s="1">
+        <v>30000</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5278,10 +5182,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5373,9 +5277,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -5397,9 +5299,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -5421,9 +5321,7 @@
         <v>180</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -5443,9 +5341,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -5467,9 +5363,7 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -5489,9 +5383,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -5513,9 +5405,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -5537,9 +5427,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -5561,9 +5449,7 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -5583,9 +5469,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -5607,9 +5491,7 @@
         <v>64</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -5629,9 +5511,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -5651,9 +5531,7 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -5673,9 +5551,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -5695,9 +5571,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -5719,9 +5593,7 @@
         <v>168</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -5743,9 +5615,7 @@
         <v>191</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -5767,9 +5637,7 @@
         <v>68</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -5791,9 +5659,7 @@
         <v>5000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -5813,9 +5679,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -5837,9 +5701,7 @@
         <v>192</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -5861,9 +5723,7 @@
         <v>192</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -5883,9 +5743,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -5907,9 +5765,7 @@
         <v>3000</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -5929,9 +5785,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -5951,9 +5805,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -5973,9 +5825,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -5995,9 +5845,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -6010,16 +5858,14 @@
         <v>91</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -6039,9 +5885,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -6061,9 +5905,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -6083,9 +5925,7 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -6107,9 +5947,7 @@
         <v>197</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -6129,9 +5967,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -6153,9 +5989,7 @@
         <v>197</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -6175,9 +6009,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -6199,9 +6031,7 @@
         <v>3000</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -6221,9 +6051,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -6243,9 +6071,7 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -6267,9 +6093,7 @@
         <v>202</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -6291,9 +6115,7 @@
         <v>202</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -6315,9 +6137,7 @@
         <v>43526</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -6339,9 +6159,7 @@
         <v>45743</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -6361,9 +6179,7 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -6383,9 +6199,7 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -6407,9 +6221,7 @@
         <v>155</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -6429,9 +6241,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -6453,9 +6263,7 @@
         <v>205</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -6475,9 +6283,7 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -6499,9 +6305,7 @@
         <v>5000</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -6521,9 +6325,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -6547,9 +6349,7 @@
       <c r="G56" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -6569,9 +6369,7 @@
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -6591,9 +6389,7 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -6615,101 +6411,89 @@
         <v>20000</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="1">
-        <v>60000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F62" s="1">
+        <v>60000</v>
+      </c>
       <c r="G62" s="1"/>
-      <c r="H62" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
@@ -6719,21 +6503,19 @@
         <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>210</v>
+        <v>45</v>
+      </c>
+      <c r="F64" s="1">
+        <v>30000</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
@@ -6743,45 +6525,63 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F65" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>292</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6798,8 +6598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7722,10 +7522,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7811,9 +7611,6 @@
       <c r="E5" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F5" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -7831,9 +7628,6 @@
       <c r="E6" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F6" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -7851,9 +7645,6 @@
       <c r="E7" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F7" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -7871,9 +7662,6 @@
       <c r="E8" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F8" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -7886,13 +7674,10 @@
         <v>281</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="F9" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7906,10 +7691,27 @@
         <v>281</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>284</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7943,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7951,7 +7753,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{63C34059-38F0-43D4-B031-F407D3C6D4E3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E719EFB7-82EC-4159-8DFF-E9C735E82A3B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView activeTab="5" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="294">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -912,6 +912,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1138,6 +1141,9 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1756,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1852,9 +1858,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -1876,9 +1880,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -1900,9 +1902,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1922,9 +1922,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1946,9 +1944,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -1968,9 +1964,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -1992,9 +1986,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -2014,9 +2006,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -2038,9 +2028,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -2060,9 +2048,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -2084,9 +2070,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -2108,9 +2092,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -2132,9 +2114,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
@@ -2156,9 +2136,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -2178,9 +2156,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
@@ -2202,9 +2178,7 @@
         <v>76</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
@@ -2226,9 +2200,7 @@
         <v>80</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
@@ -2248,9 +2220,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -2272,9 +2242,7 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
@@ -2294,9 +2262,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
@@ -2316,9 +2282,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
@@ -2338,9 +2302,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
@@ -2360,9 +2322,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
@@ -2382,9 +2342,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
@@ -2404,9 +2362,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
@@ -2426,9 +2382,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
@@ -2448,9 +2402,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
@@ -2472,9 +2424,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
@@ -2494,9 +2444,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
@@ -2518,9 +2466,7 @@
         <v>3000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
@@ -2540,9 +2486,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
@@ -2564,9 +2508,7 @@
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
@@ -2586,9 +2528,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
@@ -2608,9 +2548,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
@@ -2831,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3190,20 +3128,22 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9">
+        <v>7000</v>
+      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
@@ -3211,20 +3151,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="9"/>
     </row>
@@ -3233,19 +3171,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
@@ -3255,18 +3193,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
     </row>
@@ -3275,20 +3215,18 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
     </row>
@@ -3297,18 +3235,20 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3000</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="9"/>
     </row>
@@ -3317,19 +3257,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
@@ -3337,16 +3277,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3360,13 +3300,13 @@
         <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3377,13 +3317,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>93</v>
@@ -3397,13 +3337,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -3417,13 +3357,13 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>93</v>
@@ -3437,15 +3377,15 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="E30" s="20" t="s">
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F30" s="9"/>
@@ -3457,16 +3397,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>136</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3477,21 +3417,19 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
@@ -3499,19 +3437,21 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
@@ -3519,13 +3459,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>49</v>
@@ -3539,20 +3479,18 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>142</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
@@ -3561,13 +3499,13 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>75</v>
@@ -3583,21 +3521,21 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="13">
-        <v>43525</v>
-      </c>
-      <c r="G37" s="13"/>
+      <c r="F37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
@@ -3605,19 +3543,19 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="13">
-        <v>45743</v>
+        <v>43525</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="9"/>
@@ -3627,19 +3565,21 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45743</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
@@ -3650,10 +3590,10 @@
         <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>49</v>
@@ -3667,21 +3607,19 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
@@ -3692,15 +3630,17 @@
         <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="9"/>
     </row>
@@ -3709,20 +3649,18 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="9"/>
     </row>
@@ -3731,19 +3669,21 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
@@ -3757,14 +3697,12 @@
         <v>162</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="9">
-        <v>5000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
@@ -3773,18 +3711,20 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F46" s="9">
+        <v>5000</v>
+      </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
@@ -3793,20 +3733,18 @@
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="9">
-        <v>10000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
@@ -3815,18 +3753,20 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="9">
+        <v>10000</v>
+      </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
     </row>
@@ -3838,10 +3778,10 @@
         <v>165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>49</v>
@@ -3855,22 +3795,20 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -3880,15 +3818,17 @@
         <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="1">
+        <v>20000</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -3897,16 +3837,16 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>290</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3917,16 +3857,16 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3937,13 +3877,13 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>116</v>
@@ -3960,17 +3900,15 @@
         <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -3979,18 +3917,20 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10000</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -3999,16 +3939,16 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -4019,20 +3959,18 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -4041,20 +3979,42 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30000</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4071,7 +4031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="A7" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -4165,7 +4125,9 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -4187,7 +4149,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -4209,7 +4173,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -4229,7 +4195,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -4251,7 +4219,9 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -4271,7 +4241,9 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -4293,7 +4265,9 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -4313,7 +4287,9 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -4335,7 +4311,9 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -4355,7 +4333,9 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -4377,7 +4357,9 @@
         <v>168</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -4399,7 +4381,9 @@
         <v>64</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -4421,7 +4405,9 @@
         <v>68</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -4443,7 +4429,9 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -4463,7 +4451,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -4485,7 +4475,9 @@
         <v>169</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -4507,7 +4499,9 @@
         <v>80</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -4527,7 +4521,9 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -4549,7 +4545,9 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -4569,7 +4567,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -4589,7 +4589,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -4609,7 +4611,9 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -4629,7 +4633,9 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -4649,7 +4655,9 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -4669,7 +4677,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -4689,7 +4699,9 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -4709,7 +4721,9 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -4731,7 +4745,9 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -4751,7 +4767,9 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -4773,7 +4791,9 @@
         <v>8000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -4795,7 +4815,9 @@
         <v>288</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -4817,7 +4839,9 @@
         <v>8000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -4837,7 +4861,9 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -4857,7 +4883,9 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -4879,7 +4907,9 @@
         <v>3000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -4899,7 +4929,9 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -4921,7 +4953,9 @@
         <v>3000</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -4941,7 +4975,9 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -4961,7 +4997,9 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -4983,7 +5021,9 @@
         <v>20000</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -5003,7 +5043,9 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -5023,7 +5065,9 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -5043,7 +5087,9 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -5063,7 +5109,9 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -5085,7 +5133,9 @@
         <v>10000</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -5105,7 +5155,9 @@
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -5125,7 +5177,9 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -5147,7 +5201,9 @@
         <v>30000</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -5167,7 +5223,9 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5182,10 +5240,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5656,7 +5714,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6355,40 +6413,42 @@
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="B57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="29">
+        <v>5000</v>
+      </c>
+      <c r="G57" s="27"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="C58" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
@@ -6396,21 +6456,19 @@
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
@@ -6423,13 +6481,15 @@
       <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="1">
+        <v>20000</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="9"/>
     </row>
@@ -6438,16 +6498,16 @@
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -6458,20 +6518,18 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="1">
-        <v>60000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
@@ -6480,18 +6538,20 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F63" s="1">
+        <v>60000</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
@@ -6500,20 +6560,18 @@
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
@@ -6525,16 +6583,16 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>210</v>
+        <v>45</v>
+      </c>
+      <c r="F65" s="1">
+        <v>30000</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
@@ -6547,20 +6605,18 @@
         <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F66" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8">
@@ -6568,20 +6624,44 @@
         <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F67" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="9"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7696,6 +7776,9 @@
       <c r="E10" s="18" t="s">
         <v>276</v>
       </c>
+      <c r="F10" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -7712,6 +7795,9 @@
       </c>
       <c r="E11" s="18" t="s">
         <v>282</v>
+      </c>
+      <c r="F11" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E719EFB7-82EC-4159-8DFF-E9C735E82A3B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7CF96C99-6828-4E73-8325-25C8E74BF65C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView activeTab="5" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="294">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1123,6 +1123,9 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -1141,9 +1144,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1632,22 +1632,22 @@
   </cols>
   <sheetData>
     <row customFormat="1" ht="14.25" r="1" s="3" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row customFormat="1" ht="14.25" r="2" s="3" spans="1:5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row customFormat="1" ht="14.25" r="3" s="3" spans="1:5">
       <c r="A3" s="4"/>
@@ -1760,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1779,38 +1779,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -2597,18 +2597,20 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7000</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2617,16 +2619,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2637,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>116</v>
@@ -2660,17 +2662,15 @@
         <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2679,18 +2679,20 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10000</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2699,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2719,20 +2721,18 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
@@ -2741,20 +2741,42 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>30000</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2769,10 +2791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D53" sqref="D53:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2787,38 +2809,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -2866,7 +2888,9 @@
         <v>38</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -2888,7 +2912,9 @@
         <v>38</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -2910,7 +2936,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -2930,7 +2958,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -2952,7 +2982,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -2972,7 +3004,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -2994,7 +3028,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -3014,7 +3050,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -3036,7 +3074,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -3056,7 +3096,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -3078,7 +3120,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -3100,7 +3144,9 @@
         <v>64</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -3122,7 +3168,9 @@
         <v>68</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -3144,7 +3192,9 @@
         <v>7000</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -3164,7 +3214,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -3186,7 +3238,9 @@
         <v>131</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -3208,7 +3262,9 @@
         <v>80</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -3228,7 +3284,9 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -3250,7 +3308,9 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -3270,7 +3330,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -3290,7 +3352,9 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -3310,7 +3374,9 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -3330,7 +3396,9 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -3350,7 +3418,9 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -3370,7 +3440,9 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -3390,7 +3462,9 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -3410,7 +3484,9 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -3430,7 +3506,9 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -3452,7 +3530,9 @@
         <v>3000</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -3472,7 +3552,9 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -3492,7 +3574,9 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -3514,7 +3598,9 @@
         <v>142</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -3536,7 +3622,9 @@
         <v>142</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -3558,7 +3646,9 @@
         <v>43525</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -3580,7 +3670,9 @@
         <v>45743</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -3600,7 +3692,9 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -3620,7 +3714,9 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -3642,7 +3738,9 @@
         <v>155</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -3662,7 +3760,9 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -3684,7 +3784,9 @@
         <v>160</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -3704,7 +3806,9 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -3726,7 +3830,9 @@
         <v>5000</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -3746,7 +3852,9 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3768,7 +3876,9 @@
         <v>10000</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -3788,7 +3898,9 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -3808,7 +3920,9 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -3830,7 +3944,9 @@
         <v>20000</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -3850,67 +3966,77 @@
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>290</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7000</v>
+      </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -3920,101 +4046,133 @@
         <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F57" s="1">
+        <v>10000</v>
+      </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4029,10 +4187,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A34" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="D46" sqref="D46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4048,38 +4206,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -4125,9 +4283,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -4149,9 +4305,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -4173,9 +4327,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -4195,9 +4347,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -4219,9 +4369,7 @@
         <v>167</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -4241,9 +4389,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -4265,9 +4411,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -4287,9 +4431,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -4311,9 +4453,7 @@
         <v>168</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -4333,9 +4473,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -4357,9 +4495,7 @@
         <v>168</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -4381,9 +4517,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -4405,9 +4539,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -4429,9 +4561,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -4451,9 +4581,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -4475,9 +4603,7 @@
         <v>169</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -4499,9 +4625,7 @@
         <v>80</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -4521,9 +4645,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -4545,9 +4667,7 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -4567,9 +4687,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -4589,9 +4707,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -4611,9 +4727,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -4633,9 +4747,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -4655,9 +4767,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -4677,9 +4787,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -4699,9 +4807,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -4721,9 +4827,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -4745,9 +4849,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -4767,9 +4869,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -4791,9 +4891,7 @@
         <v>8000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -4815,9 +4913,7 @@
         <v>288</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -4839,9 +4935,7 @@
         <v>8000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -4861,9 +4955,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -4883,9 +4975,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -4907,9 +4997,7 @@
         <v>3000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -4929,9 +5017,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -4953,9 +5039,7 @@
         <v>3000</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -4975,9 +5059,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -4997,9 +5079,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -5021,9 +5101,7 @@
         <v>20000</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -5043,189 +5121,193 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7000</v>
+      </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="1">
-        <v>10000</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10000</v>
+      </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5240,10 +5322,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5258,36 +5340,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -6422,13 +6504,13 @@
       <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="23">
         <v>5000</v>
       </c>
-      <c r="G57" s="27"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
@@ -6518,18 +6600,20 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7000</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
@@ -6538,20 +6622,18 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="1">
-        <v>60000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
@@ -6560,18 +6642,20 @@
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F64" s="1">
+        <v>60000</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
@@ -6580,20 +6664,18 @@
         <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
@@ -6605,16 +6687,16 @@
         <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>210</v>
+        <v>45</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30000</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
@@ -6627,20 +6709,18 @@
         <v>127</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F67" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
@@ -6648,20 +6728,44 @@
         <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="9"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6696,36 +6800,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -7622,36 +7726,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -7725,6 +7829,9 @@
       <c r="E7" s="18" t="s">
         <v>276</v>
       </c>
+      <c r="F7" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -7742,6 +7849,9 @@
       <c r="E8" s="18" t="s">
         <v>276</v>
       </c>
+      <c r="F8" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -7759,6 +7869,9 @@
       <c r="E9" s="18" t="s">
         <v>276</v>
       </c>
+      <c r="F9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -7776,9 +7889,6 @@
       <c r="E10" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F10" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -7795,9 +7905,6 @@
       </c>
       <c r="E11" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="F11" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -7870,7 +7870,7 @@
         <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:8">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{7CF96C99-6828-4E73-8325-25C8E74BF65C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BF4ECC72-ECD6-4CD5-901E-46E0729165AA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="295">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -909,6 +909,9 @@
   </si>
   <si>
     <t>free_mobile1</t>
+  </si>
+  <si>
+    <t>Downloadclick</t>
   </si>
   <si>
     <t>Pass</t>
@@ -1762,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A41" sqref="A41:C41"/>
+    <sheetView topLeftCell="A37" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2668,7 +2671,7 @@
         <v>119</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2793,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D53" sqref="D53:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2913,7 +2916,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2937,7 +2940,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2959,7 +2962,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2983,7 +2986,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3005,7 +3008,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3029,7 +3032,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3051,7 +3054,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3075,7 +3078,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3097,7 +3100,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3121,7 +3124,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3145,7 +3148,7 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3169,7 +3172,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3193,7 +3196,7 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3215,7 +3218,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3239,7 +3242,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3263,7 +3266,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3285,7 +3288,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3309,7 +3312,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3331,7 +3334,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3353,7 +3356,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3375,7 +3378,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3397,7 +3400,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3419,7 +3422,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3441,7 +3444,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3463,7 +3466,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3485,7 +3488,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3507,7 +3510,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3531,7 +3534,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3553,7 +3556,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3575,7 +3578,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3599,7 +3602,7 @@
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3623,7 +3626,7 @@
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3647,7 +3650,7 @@
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3671,7 +3674,7 @@
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3693,7 +3696,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3715,7 +3718,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3739,7 +3742,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3761,7 +3764,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3785,7 +3788,7 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3807,7 +3810,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3831,7 +3834,7 @@
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3853,7 +3856,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3877,7 +3880,7 @@
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3899,7 +3902,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3921,7 +3924,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3945,7 +3948,7 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3967,7 +3970,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3991,7 +3994,7 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4013,7 +4016,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4035,7 +4038,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4052,13 +4055,11 @@
         <v>119</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -4080,9 +4081,7 @@
         <v>10000</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -4102,9 +4101,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -4124,9 +4121,7 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -4148,9 +4143,7 @@
         <v>30000</v>
       </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -4170,9 +4163,7 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5324,7 +5315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
@@ -7829,9 +7820,6 @@
       <c r="E7" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F7" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -7849,9 +7837,6 @@
       <c r="E8" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F8" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -7868,9 +7853,6 @@
       </c>
       <c r="E9" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="F9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:8">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{BF4ECC72-ECD6-4CD5-901E-46E0729165AA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7B927F24-CFDE-48F9-B2D6-201966EAF61E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="6" firstSheet="4" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Executing the real time spine API</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Below is the template to add new test cases to the suite.</t>
   </si>
   <si>
@@ -806,9 +803,6 @@
     <t>put wait</t>
   </si>
   <si>
-    <t>Switch to default</t>
-  </si>
-  <si>
     <t>Switch to child</t>
   </si>
   <si>
@@ -911,13 +905,10 @@
     <t>free_mobile1</t>
   </si>
   <si>
-    <t>Downloadclick</t>
+    <t>Fail</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1612,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1747,7 +1738,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1765,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A30" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1783,7 +1774,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1795,7 +1786,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1820,22 +1811,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -1846,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="1"/>
@@ -1868,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
@@ -1890,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1912,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1932,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="9">
         <v>2000</v>
@@ -1954,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1974,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="9">
         <v>3000</v>
@@ -1996,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2016,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="9">
         <v>3000</v>
@@ -2038,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2058,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="9">
         <v>3000</v>
@@ -2080,19 +2071,19 @@
         <v>0</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
@@ -2102,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
@@ -2124,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
         <v>5000</v>
@@ -2146,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2166,19 +2157,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2188,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2210,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2230,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>3000</v>
@@ -2252,16 +2243,16 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2272,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2292,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2312,16 +2303,16 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2332,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2352,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2372,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2392,16 +2383,16 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2412,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -2434,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2454,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F34" s="1">
         <v>3000</v>
@@ -2476,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2496,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F36" s="1">
         <v>3000</v>
@@ -2518,16 +2509,16 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2538,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2558,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F39" s="1">
         <v>20000</v>
@@ -2580,16 +2571,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2600,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F41" s="1">
         <v>7000</v>
@@ -2622,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2642,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2662,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E44" s="12" t="s">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2682,16 +2673,16 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="1">
         <v>10000</v>
@@ -2704,16 +2695,16 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2724,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2744,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F48" s="1">
         <v>30000</v>
@@ -2766,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2796,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -2813,7 +2804,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2825,7 +2816,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -2850,22 +2841,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -2876,1186 +2867,1084 @@
         <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="9">
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="9">
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="9">
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="9">
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="9">
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="9">
         <v>7000</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F33" s="1">
         <v>3000</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" s="13">
         <v>43525</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="13">
         <v>45743</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="9">
         <v>5000</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F48" s="9">
         <v>10000</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F51" s="1">
         <v>20000</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" s="1">
         <v>7000</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E56" s="12" t="s">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -4066,16 +3955,16 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="1">
         <v>10000</v>
@@ -4088,16 +3977,16 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4108,16 +3997,16 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -4128,16 +4017,16 @@
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F60" s="1">
         <v>30000</v>
@@ -4150,16 +4039,16 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -4180,7 +4069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="A43" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D46" sqref="D46:E46"/>
     </sheetView>
   </sheetViews>
@@ -4198,7 +4087,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -4210,7 +4099,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -4235,22 +4124,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -4261,16 +4150,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4281,19 +4170,19 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4303,16 +4192,16 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="14">
         <v>5000</v>
@@ -4325,16 +4214,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4345,19 +4234,19 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4367,16 +4256,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4387,19 +4276,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4409,16 +4298,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4429,19 +4318,19 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4451,16 +4340,16 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -4471,19 +4360,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4493,19 +4382,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4515,19 +4404,19 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4537,16 +4426,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
         <v>5000</v>
@@ -4559,16 +4448,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -4579,19 +4468,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4601,19 +4490,19 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4623,16 +4512,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -4643,16 +4532,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>3000</v>
@@ -4665,16 +4554,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -4685,16 +4574,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -4705,16 +4594,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -4725,16 +4614,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -4745,16 +4634,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -4765,16 +4654,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -4785,16 +4674,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -4805,16 +4694,16 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -4825,16 +4714,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -4847,16 +4736,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -4867,16 +4756,16 @@
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F34" s="1">
         <v>8000</v>
@@ -4889,19 +4778,19 @@
         <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4911,16 +4800,16 @@
         <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F36" s="1">
         <v>8000</v>
@@ -4933,16 +4822,16 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4953,16 +4842,16 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4973,16 +4862,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F39" s="1">
         <v>3000</v>
@@ -4995,16 +4884,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5018,13 +4907,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F41" s="1">
         <v>3000</v>
@@ -5037,16 +4926,16 @@
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -5057,16 +4946,16 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -5077,16 +4966,16 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F44" s="1">
         <v>20000</v>
@@ -5099,16 +4988,16 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -5119,16 +5008,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F46" s="1">
         <v>7000</v>
@@ -5141,16 +5030,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -5161,16 +5050,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5181,16 +5070,16 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -5201,16 +5090,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" s="1">
         <v>10000</v>
@@ -5223,16 +5112,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -5243,16 +5132,16 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -5263,16 +5152,16 @@
         <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F53" s="1">
         <v>30000</v>
@@ -5285,16 +5174,16 @@
         <v>22</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -5313,10 +5202,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5332,7 +5221,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -5367,22 +5256,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -5393,19 +5282,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5415,19 +5304,19 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5437,19 +5326,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -5459,16 +5348,16 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5479,19 +5368,19 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5501,16 +5390,16 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5521,19 +5410,19 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5543,16 +5432,16 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -5565,19 +5454,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5587,16 +5476,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5607,19 +5496,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5629,16 +5518,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5649,16 +5538,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5669,16 +5558,16 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5689,16 +5578,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5709,19 +5598,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5731,19 +5620,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5753,19 +5642,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5775,16 +5664,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1">
         <v>10000</v>
@@ -5797,16 +5686,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -5817,19 +5706,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5839,19 +5728,19 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5861,16 +5750,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -5881,16 +5770,16 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F28" s="1">
         <v>3000</v>
@@ -5903,16 +5792,16 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -5923,16 +5812,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5943,16 +5832,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5963,16 +5852,16 @@
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -5983,16 +5872,16 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -6003,16 +5892,16 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -6023,16 +5912,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -6043,16 +5932,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -6063,19 +5952,19 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -6085,16 +5974,16 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -6105,19 +5994,19 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -6127,16 +6016,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6147,16 +6036,16 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F41" s="1">
         <v>3000</v>
@@ -6169,16 +6058,16 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -6189,16 +6078,16 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -6209,19 +6098,19 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -6231,19 +6120,19 @@
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -6253,16 +6142,16 @@
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="13">
         <v>43526</v>
@@ -6275,16 +6164,16 @@
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="13">
         <v>45743</v>
@@ -6297,16 +6186,16 @@
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -6317,16 +6206,16 @@
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -6337,19 +6226,19 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="9"/>
@@ -6359,16 +6248,16 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -6379,19 +6268,19 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="9"/>
@@ -6401,16 +6290,16 @@
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -6421,16 +6310,16 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" s="9">
         <v>5000</v>
@@ -6443,16 +6332,16 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -6463,22 +6352,22 @@
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H56" s="9"/>
     </row>
@@ -6487,16 +6376,16 @@
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="23">
         <v>5000</v>
@@ -6509,16 +6398,16 @@
         <v>19</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="E58" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -6529,16 +6418,16 @@
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -6549,16 +6438,16 @@
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F60" s="1">
         <v>20000</v>
@@ -6571,16 +6460,16 @@
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -6591,16 +6480,16 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F62" s="1">
         <v>7000</v>
@@ -6613,16 +6502,16 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -6633,20 +6522,18 @@
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1">
-        <v>60000</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
@@ -6655,18 +6542,20 @@
         <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F65" s="1">
+        <v>30000</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
@@ -6675,19 +6564,19 @@
         <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="1">
-        <v>30000</v>
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
@@ -6697,21 +6586,23 @@
         <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="F67" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
@@ -6722,41 +6613,17 @@
         <v>127</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F68" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6771,10 +6638,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6792,7 +6659,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -6827,22 +6694,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -6853,710 +6720,780 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1">
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3000</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -7565,20 +7502,18 @@
         <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -7587,16 +7522,16 @@
         <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7607,82 +7542,46 @@
         <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+        <v>260</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7743,7 +7642,7 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -7753,19 +7652,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7775,16 +7674,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7792,16 +7691,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7809,16 +7708,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7826,16 +7725,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7843,16 +7742,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7860,16 +7759,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7877,16 +7776,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7920,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7928,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="291">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -903,9 +903,6 @@
   </si>
   <si>
     <t>free_mobile1</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Pass</t>
@@ -1577,7 +1574,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1617,12 +1614,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="70.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
-    <col min="6" max="1025" customWidth="true" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="2" width="14.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="70.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="19.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="24.42578125" collapsed="false"/>
+    <col min="6" max="1025" customWidth="true" style="2" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="14.25" r="1" s="3" spans="1:5">
@@ -1762,14 +1759,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="false"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1852,7 +1849,9 @@
         <v>37</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -2793,13 +2792,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="34.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="30.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="26.5703125" collapsed="false"/>
+    <col min="7" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4075,14 +4074,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="9" max="1025" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="false"/>
+    <col min="9" max="1025" customWidth="true" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5210,13 +5209,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="8" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" width="21.85546875" collapsed="false"/>
+    <col min="8" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6646,15 +6645,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="35.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="38.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="8.140625" collapsed="false"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6735,9 +6734,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -6759,9 +6756,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -6783,9 +6778,7 @@
         <v>179</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -6807,9 +6800,7 @@
         <v>215</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -6831,9 +6822,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -6855,9 +6844,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -6879,9 +6866,7 @@
         <v>221</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -6901,9 +6886,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -6923,9 +6906,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -6945,9 +6926,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -6969,9 +6948,7 @@
         <v>167</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -6993,9 +6970,7 @@
         <v>228</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -7015,9 +6990,7 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -7039,9 +7012,7 @@
         <v>179</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -7063,9 +7034,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -7085,9 +7054,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -7109,9 +7076,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -7131,9 +7096,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -7155,9 +7118,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -7177,9 +7138,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -7199,9 +7158,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -7221,9 +7178,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -7243,9 +7198,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -7267,9 +7220,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -7289,9 +7240,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -7313,9 +7262,7 @@
         <v>245</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -7335,9 +7282,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -7357,9 +7302,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -7381,9 +7324,7 @@
         <v>250</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -7403,9 +7344,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -7425,9 +7364,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -7449,9 +7386,7 @@
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -7473,9 +7408,7 @@
         <v>257</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>290</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -7557,9 +7490,7 @@
         <v>263</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>290</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -7579,9 +7510,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9" t="s">
-        <v>290</v>
-      </c>
+      <c r="H42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7604,15 +7533,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.28515625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="19.5703125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7809,9 +7738,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="3" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="291">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1574,7 +1574,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="1" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1614,12 +1614,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="14.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="70.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="2" width="19.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="2" width="24.42578125" collapsed="false"/>
-    <col min="6" max="1025" customWidth="true" style="2" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="70.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
+    <col min="6" max="1025" customWidth="true" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="14.25" r="1" s="3" spans="1:5">
@@ -1759,14 +1759,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="39.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1873,7 +1873,9 @@
         <v>37</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -1895,7 +1897,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1915,7 +1919,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1937,7 +1943,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -1957,7 +1965,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -1979,7 +1989,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -1999,7 +2011,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -2021,7 +2035,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -2792,13 +2808,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="8.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="34.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="30.85546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="26.5703125" collapsed="false"/>
-    <col min="7" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4074,14 +4090,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="39.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="9" max="1025" customWidth="true" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5209,13 +5225,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" width="21.85546875" collapsed="false"/>
-    <col min="8" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="8" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6645,15 +6661,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="35.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="38.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="8.140625" collapsed="false"/>
-    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7533,15 +7549,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="28.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="19.5703125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7738,9 +7754,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="false"/>
-    <col min="3" max="1025" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{204B1757-A26F-43DF-9CE7-3C4AB55A345B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0F793908-24F3-49D3-B2CC-953F1F59BCE5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="5" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="6" firstSheet="5" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -909,9 +909,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -2893,9 +2890,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -2917,9 +2912,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -2941,9 +2934,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -2963,9 +2954,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -2987,9 +2976,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -3009,9 +2996,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -3033,9 +3018,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -3055,9 +3038,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -3079,9 +3060,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -3101,9 +3080,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -3125,9 +3102,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -3149,9 +3124,7 @@
         <v>63</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -3173,9 +3146,7 @@
         <v>67</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -3197,9 +3168,7 @@
         <v>7000</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -3219,9 +3188,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -3243,9 +3210,7 @@
         <v>130</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -3267,9 +3232,7 @@
         <v>79</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -3289,9 +3252,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -3313,9 +3274,7 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -3335,9 +3294,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -3357,9 +3314,7 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -3379,9 +3334,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -3401,9 +3354,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -3423,9 +3374,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -3445,9 +3394,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -3467,9 +3414,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -3489,9 +3434,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -3511,9 +3454,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -3535,9 +3476,7 @@
         <v>3000</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -3557,9 +3496,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -3579,9 +3516,7 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -3603,9 +3538,7 @@
         <v>141</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -3627,9 +3560,7 @@
         <v>141</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -3651,9 +3582,7 @@
         <v>43525</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -3675,9 +3604,7 @@
         <v>45743</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -3697,9 +3624,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -3719,9 +3644,7 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -3743,9 +3666,7 @@
         <v>154</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -3765,9 +3686,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -3789,9 +3708,7 @@
         <v>159</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -3811,9 +3728,7 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -3835,9 +3750,7 @@
         <v>5000</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -3857,9 +3770,7 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3881,9 +3792,7 @@
         <v>10000</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -3903,9 +3812,7 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -3925,9 +3832,7 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -3949,9 +3854,7 @@
         <v>20000</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -3971,9 +3874,7 @@
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -3995,9 +3896,7 @@
         <v>7000</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -4017,9 +3916,7 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -4039,9 +3936,7 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -4061,9 +3956,7 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -4085,9 +3978,7 @@
         <v>10000</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -4107,9 +3998,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -4129,9 +4018,7 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -4153,9 +4040,7 @@
         <v>30000</v>
       </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -4175,9 +4060,7 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6765,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7734,9 +7617,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -7756,9 +7637,7 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -7780,9 +7659,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -7802,9 +7679,7 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -7824,9 +7699,7 @@
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="25" t="s">
-        <v>291</v>
-      </c>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -7848,9 +7721,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="25"/>
-      <c r="H48" s="25" t="s">
-        <v>291</v>
-      </c>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -7870,9 +7741,7 @@
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="25" t="s">
-        <v>292</v>
-      </c>
+      <c r="H49" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7890,7 +7759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -8011,9 +7880,6 @@
       <c r="E7" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="F7" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -8031,9 +7897,6 @@
       <c r="E8" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="F8" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -8050,9 +7913,6 @@
       </c>
       <c r="E9" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="F9" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:8">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{0F793908-24F3-49D3-B2CC-953F1F59BCE5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B1777103-F85A-4194-AA16-E50823627D69}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="5" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="6" firstSheet="4" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="314">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -818,9 +818,6 @@
     <t>click Start</t>
   </si>
   <si>
-    <t>btnStart</t>
-  </si>
-  <si>
     <t>select the UpdateRTSpineDataChild</t>
   </si>
   <si>
@@ -906,6 +903,75 @@
   </si>
   <si>
     <t>frame switch</t>
+  </si>
+  <si>
+    <t>btnRestart</t>
+  </si>
+  <si>
+    <t>lnkDecisioningSubmenu</t>
+  </si>
+  <si>
+    <t>lnkDecisionsSubmenu</t>
+  </si>
+  <si>
+    <t>lnkDataFlowsSubmenu</t>
+  </si>
+  <si>
+    <t>lnkRealTimeProcessingSubmenu</t>
+  </si>
+  <si>
+    <t>submenu selection</t>
+  </si>
+  <si>
+    <t>closing the browser</t>
+  </si>
+  <si>
+    <t>close RTSpineData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait time </t>
+  </si>
+  <si>
+    <t>restating the df rtspinedata</t>
+  </si>
+  <si>
+    <t>ensureDataflowIsInProgress</t>
+  </si>
+  <si>
+    <t>RTStreamDataFlow</t>
+  </si>
+  <si>
+    <t>closeTab</t>
+  </si>
+  <si>
+    <t>closing the tab</t>
+  </si>
+  <si>
+    <t>btnPauseAndResume</t>
+  </si>
+  <si>
+    <t>btnRealtimeLoader</t>
+  </si>
+  <si>
+    <t>switchOnToggleButton</t>
+  </si>
+  <si>
+    <t>Decisioning:</t>
+  </si>
+  <si>
+    <t>navigation</t>
+  </si>
+  <si>
+    <t>switching</t>
+  </si>
+  <si>
+    <t>clcik</t>
+  </si>
+  <si>
+    <t>swtching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle </t>
   </si>
   <si>
     <t>Pass</t>
@@ -1099,7 +1165,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1128,6 +1194,7 @@
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -1634,22 +1701,22 @@
   </cols>
   <sheetData>
     <row customFormat="1" ht="14.25" r="1" s="3" spans="1:5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row customFormat="1" ht="14.25" r="2" s="3" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row customFormat="1" ht="14.25" r="3" s="3" spans="1:5">
       <c r="A3" s="4"/>
@@ -1781,38 +1848,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -2374,10 +2441,10 @@
         <v>97</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>92</v>
@@ -2585,7 +2652,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>259</v>
@@ -2811,38 +2878,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -3364,7 +3431,7 @@
         <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>94</v>
@@ -3427,7 +3494,7 @@
         <v>135</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>92</v>
@@ -3864,10 +3931,10 @@
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>259</v>
@@ -3884,7 +3951,7 @@
         <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>37</v>
@@ -4077,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D46" sqref="D46:E46"/>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="D10" sqref="D10:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4094,38 +4161,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -4648,7 +4715,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>92</v>
@@ -4798,7 +4865,7 @@
         <v>170</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -5002,7 +5069,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>259</v>
@@ -5212,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A52" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D10" sqref="D10:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5228,36 +5295,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -5886,7 +5953,7 @@
         <v>90</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>92</v>
@@ -6474,7 +6541,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>259</v>
@@ -6646,10 +6713,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6658,7 +6725,7 @@
     <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="35.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="8.140625" collapsed="true"/>
@@ -6666,36 +6733,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -6744,7 +6811,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6768,7 +6835,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6792,7 +6859,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6816,7 +6883,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6840,7 +6907,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6864,7 +6931,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6888,7 +6955,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6910,7 +6977,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6932,7 +6999,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6954,7 +7021,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6978,7 +7045,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7002,7 +7069,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7024,7 +7091,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7048,7 +7115,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7072,7 +7139,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7094,7 +7161,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7118,7 +7185,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7140,7 +7207,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7164,7 +7231,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7175,18 +7242,20 @@
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7197,18 +7266,18 @@
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7219,10 +7288,10 @@
         <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>238</v>
@@ -7230,7 +7299,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7241,18 +7310,18 @@
         <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7263,20 +7332,18 @@
         <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7287,18 +7354,20 @@
         <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7309,20 +7378,18 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7333,18 +7400,20 @@
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7355,18 +7424,18 @@
         <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>37</v>
+        <v>246</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7377,20 +7446,18 @@
         <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7401,18 +7468,20 @@
         <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7423,10 +7492,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -7434,7 +7503,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7445,20 +7514,18 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7475,12 +7542,14 @@
         <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3000</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7488,23 +7557,21 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7521,14 +7588,14 @@
         <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7536,21 +7603,23 @@
         <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7564,15 +7633,15 @@
         <v>257</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7583,20 +7652,18 @@
         <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7604,20 +7671,24 @@
         <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -7627,17 +7698,19 @@
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -7647,101 +7720,551 @@
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+        <v>287</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>290</v>
+        <v>49</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+        <v>259</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F48" s="25">
-        <v>0</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="25" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F49" s="25">
+        <v>0</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="25">
+        <v>8000</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7777,55 +8300,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7835,16 +8358,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7852,16 +8375,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>274</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7869,16 +8392,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>270</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7886,16 +8409,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7903,16 +8426,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7920,16 +8443,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7937,16 +8460,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7980,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7988,7 +8511,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B1777103-F85A-4194-AA16-E50823627D69}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B9D4E062-E4C1-4A75-BA6C-3E2D08B76BDF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="4" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="6" firstSheet="5" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="329">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -972,6 +972,51 @@
   </si>
   <si>
     <t xml:space="preserve">toggle </t>
+  </si>
+  <si>
+    <t>switching to parent frame</t>
+  </si>
+  <si>
+    <t>btnEngineConfigFilter</t>
+  </si>
+  <si>
+    <t>filter click</t>
+  </si>
+  <si>
+    <t>txtSearchbox</t>
+  </si>
+  <si>
+    <t>btnApply</t>
+  </si>
+  <si>
+    <t>LoadType</t>
+  </si>
+  <si>
+    <t>enter the loadtype</t>
+  </si>
+  <si>
+    <t>clcik apply</t>
+  </si>
+  <si>
+    <t>verifyLoadType</t>
+  </si>
+  <si>
+    <t>ensure loadtype is delta</t>
+  </si>
+  <si>
+    <t>txtValue</t>
+  </si>
+  <si>
+    <t>toggle button click</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>realtimeSpineAPIPostRequest</t>
+  </si>
+  <si>
+    <t>post api request to insert in to spine</t>
   </si>
   <si>
     <t>Pass</t>
@@ -984,7 +1029,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1029,6 +1074,12 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1161,9 +1212,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1214,9 +1266,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{58C6B9B9-44EF-4FF6-B4E2-0E7E1176543B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -4145,7 +4198,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D10" sqref="D10:F16"/>
+      <selection activeCell="C8" sqref="C8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5279,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D10" sqref="D10:F15"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6713,10 +6766,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6811,7 +6864,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6835,7 +6888,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6859,7 +6912,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6883,7 +6936,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6907,7 +6960,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6931,7 +6984,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6955,7 +7008,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6977,7 +7030,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6999,7 +7052,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7021,7 +7074,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7045,7 +7098,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7069,7 +7122,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7091,7 +7144,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7115,7 +7168,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7139,7 +7192,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7161,7 +7214,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7185,7 +7238,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7207,7 +7260,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7231,7 +7284,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7255,7 +7308,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7277,7 +7330,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7299,7 +7352,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7321,7 +7374,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7343,7 +7396,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7367,7 +7420,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7389,7 +7442,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7413,7 +7466,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7435,7 +7488,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7457,7 +7510,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7481,7 +7534,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7503,7 +7556,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7525,7 +7578,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7549,7 +7602,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7571,7 +7624,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7595,7 +7648,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7619,7 +7672,7 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7641,7 +7694,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7663,7 +7716,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7687,7 +7740,7 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7709,7 +7762,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7731,7 +7784,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7755,7 +7808,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7777,7 +7830,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7799,7 +7852,7 @@
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7823,7 +7876,7 @@
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7845,7 +7898,7 @@
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7867,7 +7920,7 @@
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7891,7 +7944,7 @@
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7913,7 +7966,7 @@
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7935,7 +7988,7 @@
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7957,7 +8010,7 @@
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7979,7 +8032,7 @@
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -8001,7 +8054,7 @@
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -8025,7 +8078,7 @@
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -8049,7 +8102,7 @@
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -8073,7 +8126,7 @@
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -8081,190 +8134,462 @@
         <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>307</v>
-      </c>
+      <c r="E61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="26"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="H61" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>307</v>
+      </c>
       <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="H62" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+      <c r="H63" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
+      <c r="H64" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>298</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
+      <c r="H65" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>182</v>
+        <v>309</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="H66" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>63</v>
+        <v>180</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
       </c>
       <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="F68" s="25"/>
+        <v>310</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="H68" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C72" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D74" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E74" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25" t="s">
+        <v>328</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8488,7 +8813,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B9D4E062-E4C1-4A75-BA6C-3E2D08B76BDF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{077B0738-AED3-4F96-9DAC-E2D270F22B14}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="5" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="2" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="330">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1020,6 +1020,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1980,7 +1983,9 @@
         <v>37</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -2002,7 +2007,9 @@
         <v>37</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -2024,7 +2031,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2044,7 +2053,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -2066,7 +2077,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -2086,7 +2099,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -2108,7 +2123,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -2128,7 +2145,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -2150,7 +2169,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -2170,7 +2191,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -2192,7 +2215,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -2214,7 +2239,9 @@
         <v>63</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -2236,7 +2263,9 @@
         <v>67</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
@@ -2258,7 +2287,9 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -2278,7 +2309,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
@@ -2300,7 +2333,9 @@
         <v>75</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
@@ -2322,7 +2357,9 @@
         <v>79</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
@@ -2342,7 +2379,9 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -2364,7 +2403,9 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
@@ -6768,8 +6809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A70" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6863,9 +6904,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -6887,9 +6926,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -6911,9 +6948,7 @@
         <v>179</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -6935,9 +6970,7 @@
         <v>215</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -6959,9 +6992,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -6983,9 +7014,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -7007,9 +7036,7 @@
         <v>221</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -7029,9 +7056,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -7051,9 +7076,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -7073,9 +7096,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -7097,9 +7118,7 @@
         <v>167</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -7121,9 +7140,7 @@
         <v>228</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -7143,9 +7160,7 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -7167,9 +7182,7 @@
         <v>179</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -7191,9 +7204,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -7213,9 +7224,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -7237,9 +7246,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -7259,9 +7266,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -7283,9 +7288,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -7307,9 +7310,7 @@
         <v>215</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -7329,9 +7330,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -7351,9 +7350,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -7373,9 +7370,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -7395,9 +7390,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -7419,9 +7412,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -7441,9 +7432,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -7465,9 +7454,7 @@
         <v>245</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -7487,9 +7474,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -7509,9 +7494,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -7533,9 +7516,7 @@
         <v>250</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -7555,9 +7536,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -7577,9 +7556,7 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -7601,9 +7578,7 @@
         <v>3000</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -7623,9 +7598,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -7647,9 +7620,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -7671,9 +7642,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -7693,9 +7662,7 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -7715,9 +7682,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -7739,9 +7704,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -7761,9 +7724,7 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -7783,9 +7744,7 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -7807,9 +7766,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -7829,9 +7786,7 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>328</v>
-      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -7851,9 +7806,7 @@
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -7875,9 +7828,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="25"/>
-      <c r="H49" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -7897,9 +7848,7 @@
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -7919,9 +7868,7 @@
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -7943,9 +7890,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="25"/>
-      <c r="H52" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -7965,9 +7910,7 @@
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -7987,9 +7930,7 @@
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -8009,9 +7950,7 @@
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -8031,9 +7970,7 @@
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -8053,9 +7990,7 @@
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -8077,9 +8012,7 @@
         <v>8000</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="H58" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -8101,9 +8034,7 @@
         <v>221</v>
       </c>
       <c r="G59" s="25"/>
-      <c r="H59" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -8125,9 +8056,7 @@
         <v>301</v>
       </c>
       <c r="G60" s="25"/>
-      <c r="H60" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -8147,9 +8076,7 @@
       </c>
       <c r="F61" s="26"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
@@ -8171,9 +8098,7 @@
         <v>307</v>
       </c>
       <c r="G62" s="25"/>
-      <c r="H62" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
@@ -8193,9 +8118,7 @@
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="25"/>
-      <c r="H63" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
@@ -8217,9 +8140,7 @@
         <v>166</v>
       </c>
       <c r="G64" s="25"/>
-      <c r="H64" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
@@ -8239,9 +8160,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="25"/>
-      <c r="H65" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -8263,9 +8182,7 @@
         <v>167</v>
       </c>
       <c r="G66" s="25"/>
-      <c r="H66" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
@@ -8287,9 +8204,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="25"/>
-      <c r="H67" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
@@ -8311,9 +8226,7 @@
         <v>167</v>
       </c>
       <c r="G68" s="25"/>
-      <c r="H68" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
@@ -8333,9 +8246,7 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="25"/>
-      <c r="H69" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
@@ -8357,9 +8268,7 @@
         <v>63</v>
       </c>
       <c r="G70" s="25"/>
-      <c r="H70" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
@@ -8381,9 +8290,7 @@
         <v>5000</v>
       </c>
       <c r="G71" s="25"/>
-      <c r="H71" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
@@ -8403,9 +8310,7 @@
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
-      <c r="H72" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
@@ -8427,9 +8332,7 @@
         <v>2000</v>
       </c>
       <c r="G73" s="25"/>
-      <c r="H73" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
@@ -8449,9 +8352,7 @@
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
-      <c r="H74" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
@@ -8471,9 +8372,7 @@
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
-      <c r="H75" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
@@ -8495,9 +8394,7 @@
         <v>5000</v>
       </c>
       <c r="G76" s="25"/>
-      <c r="H76" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
@@ -8519,9 +8416,7 @@
         <v>318</v>
       </c>
       <c r="G77" s="25"/>
-      <c r="H77" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
@@ -8541,9 +8436,7 @@
       </c>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
-      <c r="H78" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
@@ -8565,9 +8458,7 @@
         <v>325</v>
       </c>
       <c r="G79" s="25"/>
-      <c r="H79" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
@@ -8587,9 +8478,7 @@
       </c>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
-      <c r="H80" s="25" t="s">
-        <v>328</v>
-      </c>
+      <c r="H80" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{077B0738-AED3-4F96-9DAC-E2D270F22B14}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{28B72A81-A035-41E4-B1AA-DB3BF8FFC53E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="5" firstSheet="4" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="340">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -236,9 +236,6 @@
     <t>rollBackToBaselineVersion</t>
   </si>
   <si>
-    <t>29.356.254.2.NA.01-01-01</t>
-  </si>
-  <si>
     <t>wait time</t>
   </si>
   <si>
@@ -1017,6 +1014,39 @@
   </si>
   <si>
     <t>post api request to insert in to spine</t>
+  </si>
+  <si>
+    <t>radBtnAllForIH</t>
+  </si>
+  <si>
+    <t>select All</t>
+  </si>
+  <si>
+    <t>click on Email tab</t>
+  </si>
+  <si>
+    <t>EmailTab</t>
+  </si>
+  <si>
+    <t>EmailRefresh</t>
+  </si>
+  <si>
+    <t>refresh email</t>
+  </si>
+  <si>
+    <t>offerNameFilter</t>
+  </si>
+  <si>
+    <t>click on offerName filter</t>
+  </si>
+  <si>
+    <t>search offer name</t>
+  </si>
+  <si>
+    <t>click Apply</t>
+  </si>
+  <si>
+    <t>sleep</t>
   </si>
   <si>
     <t>Pass</t>
@@ -1887,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1983,9 +2013,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -2007,9 +2035,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -2031,9 +2057,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2053,9 +2077,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -2077,9 +2099,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -2099,9 +2119,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -2123,9 +2141,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -2145,9 +2161,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -2169,9 +2183,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -2191,9 +2203,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -2215,9 +2225,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -2239,9 +2247,7 @@
         <v>63</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -2259,13 +2265,11 @@
       <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
+      <c r="F17" s="9">
+        <v>2</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
@@ -2275,7 +2279,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -2287,9 +2291,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -2299,96 +2301,88 @@
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
@@ -2403,25 +2397,23 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2432,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2452,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2472,16 +2464,16 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2492,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2512,16 +2504,16 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2532,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2552,13 +2544,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>48</v>
@@ -2572,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>43</v>
@@ -2594,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>48</v>
@@ -2614,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>43</v>
@@ -2636,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -2656,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -2678,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -2698,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>48</v>
@@ -2718,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
@@ -2740,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2760,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
@@ -2782,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2802,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2822,16 +2814,16 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E44" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2842,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
@@ -2864,16 +2856,16 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2884,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2904,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>43</v>
@@ -2926,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2954,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A16" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3303,8 +3295,8 @@
       <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
+      <c r="F17" s="9">
+        <v>2</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3339,10 +3331,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>48</v>
@@ -3356,19 +3348,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
@@ -3378,19 +3370,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
@@ -3400,13 +3392,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
@@ -3420,7 +3412,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
@@ -3442,16 +3434,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3462,16 +3454,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3482,16 +3474,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3502,16 +3494,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -3522,16 +3514,16 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3542,16 +3534,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -3562,16 +3554,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -3582,16 +3574,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3602,13 +3594,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>48</v>
@@ -3622,7 +3614,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>43</v>
@@ -3644,13 +3636,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -3664,13 +3656,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -3684,19 +3676,19 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -3706,21 +3698,21 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F37" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G37" s="13"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
@@ -3731,16 +3723,16 @@
         <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" s="13">
-        <v>43525</v>
+        <v>45743</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="9"/>
@@ -3750,21 +3742,19 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="13">
-        <v>45743</v>
-      </c>
-      <c r="G39" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
@@ -3772,13 +3762,13 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>48</v>
@@ -3792,19 +3782,21 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
@@ -3812,20 +3804,18 @@
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="9"/>
     </row>
@@ -3834,18 +3824,20 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="9"/>
     </row>
@@ -3854,21 +3846,19 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
@@ -3876,18 +3866,20 @@
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F45" s="9">
+        <v>5000</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
@@ -3896,20 +3888,18 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="9">
-        <v>5000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
@@ -3921,15 +3911,17 @@
         <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F47" s="9">
+        <v>10000</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
@@ -3941,17 +3933,15 @@
         <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="9">
-        <v>10000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
     </row>
@@ -3960,13 +3950,13 @@
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>48</v>
@@ -3980,40 +3970,40 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F50" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="1">
-        <v>20000</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -4022,18 +4012,20 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7000</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -4045,17 +4037,15 @@
         <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>37</v>
+        <v>108</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="1">
-        <v>7000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -4064,16 +4054,16 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4084,16 +4074,16 @@
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -4104,18 +4094,20 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10000</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -4124,20 +4116,18 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="1">
-        <v>10000</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -4146,16 +4136,16 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4166,18 +4156,20 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30000</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
@@ -4189,39 +4181,17 @@
         <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="1">
-        <v>30000</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4236,10 +4206,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="C8" sqref="C8:E12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4415,7 +4385,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4457,7 +4427,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4499,7 +4469,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4541,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4576,16 +4546,16 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5000</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4601,14 +4571,12 @@
         <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -4617,18 +4585,20 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -4637,19 +4607,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4659,20 +4629,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
@@ -4681,18 +4649,20 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3000</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
@@ -4701,20 +4671,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3000</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
@@ -4723,16 +4691,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -4743,16 +4711,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -4763,16 +4731,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -4783,16 +4751,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -4803,16 +4771,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -4823,16 +4791,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -4843,16 +4811,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -4863,18 +4831,20 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3000</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
@@ -4883,20 +4853,18 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -4905,18 +4873,20 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8000</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -4925,19 +4895,19 @@
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1">
-        <v>8000</v>
+        <v>169</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4950,16 +4920,16 @@
         <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>283</v>
+        <v>44</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8000</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4972,17 +4942,15 @@
         <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="1">
-        <v>8000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -4991,13 +4959,13 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -5011,18 +4979,20 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3000</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -5034,17 +5004,15 @@
         <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -5053,18 +5021,20 @@
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3000</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -5073,20 +5043,18 @@
         <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -5095,13 +5063,13 @@
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>48</v>
@@ -5115,18 +5083,20 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F43" s="1">
+        <v>20000</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
@@ -5135,20 +5105,18 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="1">
-        <v>20000</v>
-      </c>
+      <c r="D44" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -5157,18 +5125,20 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7000</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -5177,20 +5147,18 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>37</v>
+        <v>108</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="1">
-        <v>7000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -5199,16 +5167,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -5219,16 +5187,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5239,18 +5207,20 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10000</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -5259,20 +5229,18 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="1">
-        <v>10000</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -5281,16 +5249,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -5301,18 +5269,20 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F52" s="1">
+        <v>30000</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -5321,42 +5291,20 @@
         <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="1">
-        <v>30000</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5371,10 +5319,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C15" sqref="C15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5390,7 +5338,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -5466,7 +5414,9 @@
         <v>37</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -5488,7 +5438,9 @@
         <v>37</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -5507,10 +5459,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -5530,7 +5484,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -5549,10 +5505,12 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -5572,7 +5530,9 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -5591,10 +5551,12 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -5610,13 +5572,15 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -5635,10 +5599,12 @@
         <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -5648,17 +5614,19 @@
         <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -5668,7 +5636,7 @@
         <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -5680,47 +5648,53 @@
         <v>63</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>328</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -5730,59 +5704,63 @@
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -5798,35 +5776,39 @@
         <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -5836,19 +5818,21 @@
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -5858,643 +5842,705 @@
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10000</v>
+      </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3000</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>280</v>
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>201</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="13">
-        <v>43526</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="13">
-        <v>45743</v>
+        <v>43526</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45743</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="9">
-        <v>5000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -6504,295 +6550,551 @@
         <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F55" s="9">
+        <v>5000</v>
+      </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="23">
-        <v>5000</v>
-      </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="9"/>
+      <c r="B58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="23">
+        <v>5000</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="B59" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="1">
+        <v>20000</v>
+      </c>
       <c r="G61" s="1"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="1">
-        <v>7000</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7000</v>
+      </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="1">
-        <v>30000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30000</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F67" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H67" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="1">
+        <v>600000</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="9"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6800,8 +7102,9 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6828,7 +7131,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6945,7 +7248,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -6958,16 +7261,16 @@
         <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6980,10 +7283,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -7002,10 +7305,10 @@
         <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>48</v>
@@ -7024,7 +7327,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>37</v>
@@ -7033,7 +7336,7 @@
         <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7046,10 +7349,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>48</v>
@@ -7066,10 +7369,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
@@ -7115,7 +7418,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -7128,16 +7431,16 @@
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -7150,10 +7453,10 @@
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
@@ -7179,7 +7482,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -7192,13 +7495,13 @@
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -7214,13 +7517,13 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7234,13 +7537,13 @@
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -7256,13 +7559,13 @@
         <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -7276,13 +7579,13 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -7298,16 +7601,16 @@
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -7320,10 +7623,10 @@
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -7340,13 +7643,13 @@
         <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -7360,13 +7663,13 @@
         <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -7380,10 +7683,10 @@
         <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>48</v>
@@ -7400,13 +7703,13 @@
         <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -7422,13 +7725,13 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -7442,7 +7745,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>37</v>
@@ -7451,7 +7754,7 @@
         <v>62</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7464,10 +7767,10 @@
         <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>48</v>
@@ -7484,13 +7787,13 @@
         <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -7504,7 +7807,7 @@
         <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>37</v>
@@ -7513,7 +7816,7 @@
         <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -7526,10 +7829,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -7546,10 +7849,10 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>48</v>
@@ -7566,7 +7869,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
@@ -7588,13 +7891,13 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -7608,13 +7911,13 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
@@ -7630,13 +7933,13 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -7652,13 +7955,13 @@
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -7672,13 +7975,13 @@
         <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7692,13 +7995,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -7714,10 +8017,10 @@
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>48</v>
@@ -7734,13 +8037,13 @@
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -7754,13 +8057,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -7776,13 +8079,13 @@
         <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -7796,13 +8099,13 @@
         <v>50</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
@@ -7816,13 +8119,13 @@
         <v>53</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F49" s="25">
         <v>0</v>
@@ -7838,10 +8141,10 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>48</v>
@@ -7858,13 +8161,13 @@
         <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
@@ -7878,13 +8181,13 @@
         <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -7900,10 +8203,10 @@
         <v>57</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -7920,13 +8223,13 @@
         <v>58</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
@@ -7940,13 +8243,13 @@
         <v>61</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
@@ -7960,13 +8263,13 @@
         <v>64</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
@@ -7977,13 +8280,13 @@
         <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>48</v>
@@ -7997,10 +8300,10 @@
         <v>25</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>37</v>
@@ -8019,10 +8322,10 @@
         <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>37</v>
@@ -8031,7 +8334,7 @@
         <v>62</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -8041,19 +8344,19 @@
         <v>25</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="26" t="s">
+      <c r="F60" s="26" t="s">
         <v>300</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>301</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -8063,16 +8366,16 @@
         <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F61" s="26"/>
       <c r="G61" s="25"/>
@@ -8083,19 +8386,19 @@
         <v>25</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -8105,10 +8408,10 @@
         <v>25</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
@@ -8125,10 +8428,10 @@
         <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
@@ -8137,7 +8440,7 @@
         <v>44</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -8147,10 +8450,10 @@
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>52</v>
@@ -8167,10 +8470,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>37</v>
@@ -8179,7 +8482,7 @@
         <v>44</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -8189,16 +8492,16 @@
         <v>25</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67" s="1">
         <v>2</v>
@@ -8211,10 +8514,10 @@
         <v>25</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>37</v>
@@ -8223,7 +8526,7 @@
         <v>44</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -8233,13 +8536,13 @@
         <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -8253,10 +8556,10 @@
         <v>25</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>37</v>
@@ -8275,10 +8578,10 @@
         <v>25</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>37</v>
@@ -8297,16 +8600,16 @@
         <v>25</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -8317,10 +8620,10 @@
         <v>25</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D73" s="26" t="s">
         <v>37</v>
@@ -8339,16 +8642,16 @@
         <v>25</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D74" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>305</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>306</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -8362,10 +8665,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>48</v>
@@ -8382,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>37</v>
@@ -8401,19 +8704,19 @@
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -8423,13 +8726,13 @@
         <v>25</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>48</v>
@@ -8443,19 +8746,19 @@
         <v>25</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="26" t="s">
-        <v>323</v>
-      </c>
       <c r="E79" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -8465,16 +8768,16 @@
         <v>25</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D80" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
@@ -8540,7 +8843,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -8550,19 +8853,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>267</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -8572,16 +8875,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8589,16 +8892,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8606,16 +8909,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>269</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8623,16 +8926,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8640,16 +8943,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8657,16 +8960,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8674,16 +8977,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8717,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8725,7 +9028,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{ED18A878-9B97-44CB-A0D3-97252EC1DFF5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3FEC00EA-BAE8-433C-ACF9-7C5D94D79DCD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="11" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="4" firstSheet="2" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" r:id="rId1" sheetId="2"/>
@@ -22,12 +22,13 @@
     <sheet name="RealtimeSpineWithNewProperty" r:id="rId7" sheetId="10"/>
     <sheet name="EmailTempWithNewAttribute" r:id="rId8" sheetId="11"/>
     <sheet name="MicrositeTempWithExistingAttrib" r:id="rId9" sheetId="12"/>
-    <sheet name="VerifyDBForNewAgreementModel" r:id="rId10" sheetId="13"/>
-    <sheet name="VerifyAgreementClassFornewProp" r:id="rId11" sheetId="14"/>
-    <sheet name="VerifyDiscardVersioIsSuccessful" r:id="rId12" sheetId="15"/>
-    <sheet name="EnsureRollbackIsSuccessful" r:id="rId13" sheetId="16"/>
-    <sheet name="BatchDecisionOutputValidations" r:id="rId14" sheetId="8"/>
-    <sheet name="CheckLists" r:id="rId15" sheetId="9"/>
+    <sheet name="OBCCTempWithExistingAttrib" r:id="rId10" sheetId="17"/>
+    <sheet name="VerifyDBForNewAgreementModel" r:id="rId11" sheetId="13"/>
+    <sheet name="VerifyAgreementClassFornewProp" r:id="rId12" sheetId="14"/>
+    <sheet name="VerifyDiscardVersioIsSuccessful" r:id="rId13" sheetId="15"/>
+    <sheet name="EnsureRollbackIsSuccessful" r:id="rId14" sheetId="16"/>
+    <sheet name="BatchDecisionOutputValidations" r:id="rId15" sheetId="8"/>
+    <sheet name="CheckLists" r:id="rId16" sheetId="9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4765" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="534">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1475,9 +1476,6 @@
     <t>ADQURA-FW-AppsFW-Data-AgreementStaging</t>
   </si>
   <si>
-    <t>AutoProp</t>
-  </si>
-  <si>
     <t>lnkStagingAgreementClass</t>
   </si>
   <si>
@@ -1628,7 +1626,28 @@
     <t>PegaGadget5Ifr</t>
   </si>
   <si>
+    <t>OBCCTempWithExistingAttrib</t>
+  </si>
+  <si>
+    <t>Verify existing attribute can be added to OBCC template</t>
+  </si>
+  <si>
+    <t>TS15_Regr_01</t>
+  </si>
+  <si>
+    <t>Ensure same attribute added in the email temp can be added to OBCC and verifying in the UI</t>
+  </si>
+  <si>
+    <t>AutoProp1</t>
+  </si>
+  <si>
+    <t>verifying the engine and download</t>
+  </si>
+  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -2306,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2516,13 +2535,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -2531,18 +2550,33 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2555,11 +2589,457 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="25">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3278,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="F35" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="9"/>
@@ -3320,7 +3800,7 @@
         <v>41</v>
       </c>
       <c r="F37" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="9"/>
@@ -3362,7 +3842,7 @@
         <v>41</v>
       </c>
       <c r="F39" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="9"/>
@@ -3404,7 +3884,7 @@
         <v>41</v>
       </c>
       <c r="F41" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="9"/>
@@ -3463,7 +3943,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="1"/>
@@ -3546,12 +4026,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3897,7 +4377,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4207,7 +4687,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="9"/>
@@ -4269,7 +4749,7 @@
         <v>41</v>
       </c>
       <c r="F35" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="9"/>
@@ -4311,7 +4791,7 @@
         <v>41</v>
       </c>
       <c r="F37" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="9"/>
@@ -4353,7 +4833,7 @@
         <v>41</v>
       </c>
       <c r="F39" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="9"/>
@@ -4395,7 +4875,7 @@
         <v>41</v>
       </c>
       <c r="F41" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="9"/>
@@ -4454,7 +4934,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="1"/>
@@ -4571,18 +5051,20 @@
         <v>462</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F50" s="25">
+        <v>5000</v>
+      </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
@@ -4591,20 +5073,18 @@
         <v>462</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>34</v>
+        <v>468</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="25">
-        <v>8000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
     </row>
@@ -4613,19 +5093,19 @@
         <v>462</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="F52" s="25">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -4635,18 +5115,20 @@
         <v>462</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>473</v>
+        <v>244</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="25"/>
+        <v>280</v>
+      </c>
+      <c r="F53" s="25">
+        <v>0</v>
+      </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
     </row>
@@ -4655,20 +5137,18 @@
         <v>462</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>34</v>
+        <v>471</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>476</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F54" s="25"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
     </row>
@@ -4680,15 +5160,17 @@
         <v>342</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>185</v>
+        <v>470</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" s="25"/>
+        <v>469</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>530</v>
+      </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
@@ -4697,20 +5179,18 @@
         <v>462</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>467</v>
+        <v>342</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>475</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
     </row>
@@ -4719,18 +5199,20 @@
         <v>462</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>193</v>
+        <v>343</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>467</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>475</v>
+      </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
     </row>
@@ -4739,13 +5221,13 @@
         <v>462</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>477</v>
+        <v>212</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>45</v>
@@ -4759,10 +5241,10 @@
         <v>462</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>34</v>
@@ -4771,7 +5253,7 @@
         <v>41</v>
       </c>
       <c r="F59" s="25">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -4781,20 +5263,18 @@
         <v>462</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>244</v>
+        <v>472</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>34</v>
+        <v>476</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F60" s="25">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
@@ -4803,18 +5283,20 @@
         <v>462</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>473</v>
+        <v>64</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F61" s="25">
+        <v>8000</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
     </row>
@@ -4823,19 +5305,19 @@
         <v>462</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>470</v>
+        <v>244</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>476</v>
+        <v>280</v>
+      </c>
+      <c r="F62" s="25">
+        <v>1</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -4845,20 +5327,62 @@
         <v>462</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>34</v>
+        <v>471</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4871,12 +5395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4904,7 +5428,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -4952,7 +5476,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>32</v>
@@ -4974,7 +5498,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -4996,7 +5520,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>39</v>
@@ -5018,7 +5542,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>42</v>
@@ -5038,7 +5562,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>46</v>
@@ -5060,7 +5584,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>47</v>
@@ -5080,7 +5604,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>50</v>
@@ -5102,7 +5626,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>51</v>
@@ -5122,7 +5646,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>54</v>
@@ -5144,7 +5668,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>55</v>
@@ -5164,7 +5688,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>58</v>
@@ -5186,7 +5710,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>58</v>
@@ -5208,7 +5732,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>61</v>
@@ -5223,14 +5747,14 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>61</v>
@@ -5252,7 +5776,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
@@ -5272,7 +5796,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>67</v>
@@ -5287,14 +5811,14 @@
         <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>72</v>
@@ -5309,14 +5833,14 @@
         <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>76</v>
@@ -5336,7 +5860,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>79</v>
@@ -5358,7 +5882,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>83</v>
@@ -5378,7 +5902,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>89</v>
@@ -5398,7 +5922,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>91</v>
@@ -5418,7 +5942,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>91</v>
@@ -5438,7 +5962,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>93</v>
@@ -5458,7 +5982,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>95</v>
@@ -5478,7 +6002,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>96</v>
@@ -5498,7 +6022,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>97</v>
@@ -5518,7 +6042,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>100</v>
@@ -5527,7 +6051,7 @@
         <v>347</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>45</v>
@@ -5538,7 +6062,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>103</v>
@@ -5553,14 +6077,14 @@
         <v>70</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>104</v>
@@ -5580,7 +6104,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -5600,7 +6124,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>108</v>
@@ -5622,7 +6146,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>112</v>
@@ -5642,7 +6166,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>79</v>
@@ -5664,13 +6188,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>34</v>
@@ -5679,16 +6203,16 @@
         <v>474</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>95</v>
@@ -5708,7 +6232,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>96</v>
@@ -5728,7 +6252,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>97</v>
@@ -5743,14 +6267,14 @@
         <v>70</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>100</v>
@@ -5772,7 +6296,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>103</v>
@@ -5787,14 +6311,14 @@
         <v>70</v>
       </c>
       <c r="F44" s="13">
-        <v>45743</v>
+        <v>45719</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>104</v>
@@ -5814,7 +6338,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -5836,7 +6360,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>108</v>
@@ -5856,7 +6380,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>112</v>
@@ -5878,7 +6402,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>116</v>
@@ -5898,7 +6422,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>116</v>
@@ -5918,7 +6442,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>119</v>
@@ -5938,7 +6462,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>122</v>
@@ -5958,7 +6482,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>123</v>
@@ -5980,7 +6504,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>156</v>
@@ -6000,7 +6524,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>158</v>
@@ -6022,7 +6546,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>160</v>
@@ -6042,7 +6566,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>160</v>
@@ -6064,7 +6588,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>171</v>
@@ -6076,7 +6600,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -6084,16 +6608,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C59" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>484</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>485</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>452</v>
@@ -6104,7 +6628,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>172</v>
@@ -6124,7 +6648,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>338</v>
@@ -6146,13 +6670,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>34</v>
@@ -6166,7 +6690,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>340</v>
@@ -6186,13 +6710,13 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>57</v>
@@ -6206,7 +6730,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>341</v>
@@ -6228,7 +6752,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>341</v>
@@ -6250,19 +6774,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
@@ -6270,13 +6794,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>34</v>
@@ -6292,13 +6816,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>66</v>
@@ -6312,7 +6836,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>383</v>
@@ -6327,14 +6851,14 @@
         <v>70</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>384</v>
@@ -6349,14 +6873,14 @@
         <v>70</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>385</v>
@@ -6376,7 +6900,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>389</v>
@@ -6391,14 +6915,14 @@
         <v>41</v>
       </c>
       <c r="F73" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>390</v>
@@ -6418,7 +6942,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>395</v>
@@ -6433,14 +6957,14 @@
         <v>41</v>
       </c>
       <c r="F75" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>396</v>
@@ -6460,61 +6984,61 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F78" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="D78" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>500</v>
-      </c>
       <c r="G78" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>34</v>
@@ -6523,20 +7047,20 @@
         <v>41</v>
       </c>
       <c r="F79" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D80" s="38" t="s">
         <v>78</v>
@@ -6550,13 +7074,13 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D81" s="38" t="s">
         <v>34</v>
@@ -6565,20 +7089,20 @@
         <v>41</v>
       </c>
       <c r="F81" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>99</v>
@@ -6592,13 +7116,13 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>102</v>
@@ -6612,19 +7136,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D84" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
@@ -6632,13 +7156,13 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D85" s="26" t="s">
         <v>34</v>
@@ -6661,12 +7185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6682,7 +7206,7 @@
   <sheetData>
     <row customHeight="1" ht="29.25" r="1" spans="1:8">
       <c r="A1" s="44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -6740,7 +7264,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>32</v>
@@ -6758,13 +7282,11 @@
         <v>34</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -6782,13 +7304,11 @@
         <v>34</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>39</v>
@@ -6806,13 +7326,11 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>42</v>
@@ -6828,13 +7346,11 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>46</v>
@@ -6852,13 +7368,11 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>47</v>
@@ -6874,13 +7388,11 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>50</v>
@@ -6898,13 +7410,11 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>51</v>
@@ -6920,13 +7430,11 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>54</v>
@@ -6944,13 +7452,11 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>55</v>
@@ -6966,13 +7472,11 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>58</v>
@@ -6990,13 +7494,11 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>61</v>
@@ -7014,13 +7516,11 @@
         <v>60</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>67</v>
@@ -7035,16 +7535,14 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>72</v>
@@ -7062,13 +7560,11 @@
         <v>7000</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>76</v>
@@ -7084,13 +7580,11 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9" t="s">
-        <v>527</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>79</v>
@@ -7106,13 +7600,11 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>83</v>
@@ -7128,13 +7620,11 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>89</v>
@@ -7150,13 +7640,11 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>91</v>
@@ -7174,13 +7662,11 @@
         <v>2</v>
       </c>
       <c r="G23" s="25"/>
-      <c r="H23" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>93</v>
@@ -7196,13 +7682,11 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>95</v>
@@ -7217,16 +7701,14 @@
         <v>70</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G25" s="25"/>
-      <c r="H25" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>96</v>
@@ -7242,13 +7724,11 @@
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>97</v>
@@ -7263,16 +7743,14 @@
         <v>70</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>100</v>
@@ -7290,13 +7768,11 @@
         <v>376</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="16" t="s">
-        <v>527</v>
-      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>103</v>
@@ -7312,13 +7788,11 @@
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>103</v>
@@ -7334,13 +7808,11 @@
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>104</v>
@@ -7356,13 +7828,11 @@
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>1</v>
@@ -7378,13 +7848,11 @@
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>108</v>
@@ -7402,13 +7870,11 @@
         <v>3</v>
       </c>
       <c r="G33" s="25"/>
-      <c r="H33" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>112</v>
@@ -7424,13 +7890,11 @@
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>116</v>
@@ -7445,16 +7909,14 @@
         <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G35" s="25"/>
-      <c r="H35" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>119</v>
@@ -7469,16 +7931,14 @@
         <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G36" s="25"/>
-      <c r="H36" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>122</v>
@@ -7494,13 +7954,11 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>123</v>
@@ -7518,13 +7976,11 @@
         <v>3000</v>
       </c>
       <c r="G38" s="25"/>
-      <c r="H38" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>156</v>
@@ -7540,13 +7996,11 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>158</v>
@@ -7562,13 +8016,11 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>160</v>
@@ -7584,13 +8036,11 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>171</v>
@@ -7606,13 +8056,11 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>159</v>
@@ -7628,13 +8076,11 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>172</v>
@@ -7650,13 +8096,11 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>338</v>
@@ -7672,13 +8116,11 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>339</v>
@@ -7694,35 +8136,31 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>340</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>341</v>
@@ -7737,16 +8175,14 @@
         <v>70</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G48" s="25"/>
-      <c r="H48" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>342</v>
@@ -7762,13 +8198,11 @@
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>343</v>
@@ -7784,13 +8218,11 @@
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>344</v>
@@ -7808,13 +8240,11 @@
         <v>7000</v>
       </c>
       <c r="G51" s="25"/>
-      <c r="H51" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>340</v>
@@ -7830,13 +8260,11 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>341</v>
@@ -7854,13 +8282,11 @@
         <v>3000</v>
       </c>
       <c r="G53" s="25"/>
-      <c r="H53" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>342</v>
@@ -7876,13 +8302,11 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>343</v>
@@ -7898,13 +8322,11 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>344</v>
@@ -7919,16 +8341,14 @@
         <v>70</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G56" s="25"/>
-      <c r="H56" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>345</v>
@@ -7946,13 +8366,11 @@
         <v>43525</v>
       </c>
       <c r="G57" s="25"/>
-      <c r="H57" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>346</v>
@@ -7967,16 +8385,14 @@
         <v>70</v>
       </c>
       <c r="F58" s="13">
-        <v>45743</v>
+        <v>45717</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="H58" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>383</v>
@@ -7992,13 +8408,11 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>383</v>
@@ -8016,13 +8430,11 @@
         <v>435</v>
       </c>
       <c r="G60" s="25"/>
-      <c r="H60" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B61" s="36" t="s">
         <v>384</v>
@@ -8038,13 +8450,11 @@
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>384</v>
@@ -8062,13 +8472,11 @@
         <v>438</v>
       </c>
       <c r="G62" s="25"/>
-      <c r="H62" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B63" s="36" t="s">
         <v>384</v>
@@ -8084,13 +8492,11 @@
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="25"/>
-      <c r="H63" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B64" s="36" t="s">
         <v>384</v>
@@ -8106,13 +8512,11 @@
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="25"/>
-      <c r="H64" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>385</v>
@@ -8127,16 +8531,14 @@
         <v>149</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G65" s="25"/>
-      <c r="H65" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>389</v>
@@ -8151,16 +8553,14 @@
         <v>394</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G66" s="25"/>
-      <c r="H66" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>390</v>
@@ -8178,13 +8578,11 @@
         <v>376</v>
       </c>
       <c r="G67" s="25"/>
-      <c r="H67" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>395</v>
@@ -8200,13 +8598,11 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="25"/>
-      <c r="H68" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>396</v>
@@ -8224,13 +8620,11 @@
         <v>5000</v>
       </c>
       <c r="G69" s="25"/>
-      <c r="H69" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>397</v>
@@ -8246,13 +8640,11 @@
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="25"/>
-      <c r="H70" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>398</v>
@@ -8270,13 +8662,11 @@
         <v>10000</v>
       </c>
       <c r="G71" s="25"/>
-      <c r="H71" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>399</v>
@@ -8292,13 +8682,11 @@
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="25"/>
-      <c r="H72" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>400</v>
@@ -8314,13 +8702,11 @@
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="25"/>
-      <c r="H73" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>400</v>
@@ -8332,21 +8718,19 @@
         <v>34</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="25"/>
-      <c r="H74" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>34</v>
@@ -8355,24 +8739,22 @@
         <v>474</v>
       </c>
       <c r="F75" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>34</v>
@@ -8382,13 +8764,11 @@
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="25"/>
-      <c r="H76" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>400</v>
@@ -8404,19 +8784,17 @@
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
-      <c r="H77" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>57</v>
@@ -8426,13 +8804,11 @@
       </c>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
-      <c r="H78" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>400</v>
@@ -8450,13 +8826,11 @@
         <v>163</v>
       </c>
       <c r="G79" s="25"/>
-      <c r="H79" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>400</v>
@@ -8471,22 +8845,20 @@
         <v>59</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G80" s="25"/>
-      <c r="H80" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>34</v>
@@ -8498,13 +8870,11 @@
         <v>5000</v>
       </c>
       <c r="G81" s="25"/>
-      <c r="H81" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>400</v>
@@ -8519,16 +8889,14 @@
         <v>63</v>
       </c>
       <c r="F82" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G82" s="25"/>
-      <c r="H82" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>400</v>
@@ -8546,35 +8914,31 @@
         <v>7000</v>
       </c>
       <c r="G83" s="25"/>
-      <c r="H83" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
-      <c r="H84" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>400</v>
@@ -8590,19 +8954,17 @@
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
-      <c r="H85" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>34</v>
@@ -8614,19 +8976,17 @@
         <v>3000</v>
       </c>
       <c r="G86" s="25"/>
-      <c r="H86" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>78</v>
@@ -8636,19 +8996,17 @@
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="25"/>
-      <c r="H87" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>34</v>
@@ -8660,19 +9018,17 @@
         <v>3000</v>
       </c>
       <c r="G88" s="25"/>
-      <c r="H88" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>78</v>
@@ -8682,19 +9038,17 @@
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="25"/>
-      <c r="H89" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>34</v>
@@ -8706,71 +9060,65 @@
         <v>3000</v>
       </c>
       <c r="G90" s="25"/>
-      <c r="H90" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>527</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F92" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H92" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>78</v>
@@ -8780,13 +9128,11 @@
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="25"/>
-      <c r="H93" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>400</v>
@@ -8804,19 +9150,17 @@
         <v>3000</v>
       </c>
       <c r="G94" s="25"/>
-      <c r="H94" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>34</v>
@@ -8826,13 +9170,11 @@
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="25"/>
-      <c r="H95" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>400</v>
@@ -8848,19 +9190,17 @@
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
-      <c r="H96" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>57</v>
@@ -8870,13 +9210,11 @@
       </c>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
-      <c r="H97" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>400</v>
@@ -8894,13 +9232,11 @@
         <v>163</v>
       </c>
       <c r="G98" s="25"/>
-      <c r="H98" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>400</v>
@@ -8915,22 +9251,20 @@
         <v>59</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G99" s="25"/>
-      <c r="H99" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>34</v>
@@ -8939,40 +9273,36 @@
         <v>41</v>
       </c>
       <c r="F100" s="1">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G100" s="25"/>
-      <c r="H100" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D101" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G101" s="25"/>
-      <c r="H101" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>400</v>
@@ -8990,35 +9320,31 @@
         <v>7000</v>
       </c>
       <c r="G102" s="25"/>
-      <c r="H102" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E103" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
-      <c r="H103" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>400</v>
@@ -9034,19 +9360,17 @@
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
-      <c r="H104" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>34</v>
@@ -9058,19 +9382,17 @@
         <v>3000</v>
       </c>
       <c r="G105" s="25"/>
-      <c r="H105" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>78</v>
@@ -9080,19 +9402,17 @@
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="25"/>
-      <c r="H106" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>34</v>
@@ -9104,19 +9424,17 @@
         <v>3000</v>
       </c>
       <c r="G107" s="25"/>
-      <c r="H107" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>78</v>
@@ -9126,19 +9444,17 @@
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="25"/>
-      <c r="H108" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>34</v>
@@ -9150,45 +9466,41 @@
         <v>3000</v>
       </c>
       <c r="G109" s="25"/>
-      <c r="H109" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G110" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="H110" s="25" t="s">
-        <v>527</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>34</v>
@@ -9197,24 +9509,22 @@
         <v>474</v>
       </c>
       <c r="F111" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H111" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>78</v>
@@ -9224,13 +9534,11 @@
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="25"/>
-      <c r="H112" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>400</v>
@@ -9248,9 +9556,27 @@
         <v>3000</v>
       </c>
       <c r="G113" s="25"/>
-      <c r="H113" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="H113" s="25"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9263,7 +9589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -9451,7 +9777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:C3"/>
   <sheetViews>
@@ -9490,10 +9816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C39" sqref="C39:F39"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9588,7 +9914,9 @@
         <v>34</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -9610,7 +9938,9 @@
         <v>34</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -9632,7 +9962,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -9652,7 +9984,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -9674,7 +10008,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -9694,7 +10030,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -9716,7 +10054,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -9736,7 +10076,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -9758,7 +10100,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -9778,7 +10122,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -9800,7 +10146,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -9822,7 +10170,9 @@
         <v>60</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -9841,10 +10191,12 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
@@ -9866,7 +10218,9 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -9886,7 +10240,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
@@ -9908,7 +10264,9 @@
         <v>71</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
@@ -9930,7 +10288,9 @@
         <v>75</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
@@ -9950,7 +10310,9 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -9972,7 +10334,9 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
@@ -9992,7 +10356,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
@@ -10012,7 +10378,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
@@ -10032,7 +10400,9 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
@@ -10052,7 +10422,9 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
@@ -10072,7 +10444,9 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
@@ -10092,7 +10466,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
@@ -10112,7 +10488,9 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
@@ -10132,7 +10510,9 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
@@ -10154,7 +10534,9 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
@@ -10174,7 +10556,9 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
@@ -10196,7 +10580,9 @@
         <v>3000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
@@ -10216,7 +10602,9 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
@@ -10238,7 +10626,9 @@
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
@@ -10258,7 +10648,9 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
@@ -10278,7 +10670,9 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
@@ -10300,7 +10694,9 @@
         <v>20000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
@@ -10320,7 +10716,9 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
@@ -10342,171 +10740,53 @@
         <v>7000</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>105</v>
+        <v>531</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>111</v>
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10523,8 +10803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10871,7 +11151,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -10926,13 +11206,13 @@
         <v>61</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -11327,7 +11607,7 @@
         <v>70</v>
       </c>
       <c r="F39" s="13">
-        <v>45743</v>
+        <v>45719</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="9"/>
@@ -11928,7 +12208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="A31" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -13041,8 +13321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14084,7 +14364,7 @@
         <v>70</v>
       </c>
       <c r="F50" s="13">
-        <v>45743</v>
+        <v>45717</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="9"/>
@@ -14846,7 +15126,7 @@
   </sheetPr>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A76" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -16578,7 +16858,7 @@
   </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
@@ -18659,8 +18939,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19752,7 +20032,7 @@
         <v>70</v>
       </c>
       <c r="F53" s="13">
-        <v>45743</v>
+        <v>45719</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -20254,8 +20534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21345,7 +21625,7 @@
         <v>70</v>
       </c>
       <c r="F53" s="13">
-        <v>45743</v>
+        <v>45719</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="533">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1645,9 +1645,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -10762,9 +10759,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
@@ -10784,9 +10779,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>532</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3FEC00EA-BAE8-433C-ACF9-7C5D94D79DCD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{782EAEEF-98DC-4E22-ACC5-AB41B785FFD5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="2" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" r:id="rId1" sheetId="2"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4941" uniqueCount="533">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1641,10 +1641,10 @@
     <t>AutoProp1</t>
   </si>
   <si>
-    <t>verifying the engine and download</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -2589,7 +2589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3036,7 +3036,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3383,7 +3383,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4027,8 +4027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4374,7 +4374,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -5396,8 +5396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5744,7 +5744,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -7186,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7532,7 +7532,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -8886,7 +8886,7 @@
         <v>63</v>
       </c>
       <c r="F82" s="9">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -9677,6 +9677,9 @@
       <c r="E5" s="18" t="s">
         <v>266</v>
       </c>
+      <c r="F5" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -9694,6 +9697,9 @@
       <c r="E6" s="18" t="s">
         <v>266</v>
       </c>
+      <c r="F6" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -9711,6 +9717,9 @@
       <c r="E7" s="18" t="s">
         <v>266</v>
       </c>
+      <c r="F7" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -9728,6 +9737,9 @@
       <c r="E8" s="18" t="s">
         <v>266</v>
       </c>
+      <c r="F8" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -9744,6 +9756,9 @@
       </c>
       <c r="E9" s="18" t="s">
         <v>266</v>
+      </c>
+      <c r="F9" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9813,10 +9828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9912,7 +9927,7 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9936,7 +9951,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9960,7 +9975,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9982,7 +9997,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10006,7 +10021,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -10028,7 +10043,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10052,7 +10067,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -10074,7 +10089,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -10098,7 +10113,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10120,7 +10135,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -10144,7 +10159,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -10168,7 +10183,7 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -10192,7 +10207,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10216,7 +10231,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10238,7 +10253,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10262,7 +10277,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10286,7 +10301,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10308,7 +10323,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10332,7 +10347,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10354,7 +10369,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10376,7 +10391,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10398,7 +10413,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10420,7 +10435,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10442,7 +10457,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10464,7 +10479,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10486,7 +10501,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10508,7 +10523,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10532,7 +10547,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -10554,7 +10569,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -10578,7 +10593,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -10600,7 +10615,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -10624,7 +10639,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -10646,7 +10661,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -10668,7 +10683,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -10692,7 +10707,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -10714,7 +10729,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -10738,7 +10753,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -10746,40 +10761,180 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>531</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10796,8 +10951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10891,7 +11046,9 @@
         <v>34</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -10913,7 +11070,9 @@
         <v>34</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -10935,7 +11094,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -10955,7 +11116,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -10977,7 +11140,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -10997,7 +11162,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -11019,7 +11186,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -11039,7 +11208,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -11061,7 +11232,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -11081,7 +11254,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -11103,7 +11278,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -11125,7 +11302,9 @@
         <v>60</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -11147,7 +11326,9 @@
         <v>47</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -11169,7 +11350,9 @@
         <v>7000</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -11189,7 +11372,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row customFormat="1" r="20" s="39" spans="1:8">
       <c r="A20" s="20" t="s">
@@ -11231,7 +11416,9 @@
         <v>126</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -11253,7 +11440,9 @@
         <v>75</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -11273,7 +11462,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -11295,7 +11486,9 @@
         <v>3000</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -11315,7 +11508,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -11335,7 +11530,9 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -11355,7 +11552,9 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -11375,7 +11574,9 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -11395,7 +11596,9 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -11415,7 +11618,9 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -11435,7 +11640,9 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -11455,7 +11662,9 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -11475,7 +11684,9 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -11497,7 +11708,9 @@
         <v>3000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -11517,7 +11730,9 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -11537,7 +11752,9 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -11559,7 +11776,9 @@
         <v>137</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -11581,7 +11800,9 @@
         <v>43525</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -11603,7 +11824,9 @@
         <v>45719</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -11623,7 +11846,9 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -11645,7 +11870,9 @@
         <v>435</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -11665,7 +11892,9 @@
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -11687,7 +11916,9 @@
         <v>438</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -11707,7 +11938,9 @@
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -11727,7 +11960,9 @@
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -11747,7 +11982,9 @@
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -11767,7 +12004,9 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -11789,7 +12028,9 @@
         <v>150</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -11809,7 +12050,9 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -11831,7 +12074,9 @@
         <v>155</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -11851,7 +12096,9 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -11873,7 +12120,9 @@
         <v>5000</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -11893,7 +12142,9 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -11915,7 +12166,9 @@
         <v>10000</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -11935,7 +12188,9 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -11955,7 +12210,9 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -11977,7 +12234,9 @@
         <v>20000</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -11997,7 +12256,9 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -12019,7 +12280,9 @@
         <v>7000</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -12039,7 +12302,9 @@
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -12059,7 +12324,9 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
@@ -12079,7 +12346,9 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
@@ -12101,7 +12370,9 @@
         <v>10000</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
@@ -12121,7 +12392,9 @@
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
@@ -12141,7 +12414,9 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -12163,7 +12438,9 @@
         <v>30000</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
@@ -12183,7 +12460,9 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13314,7 +13593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A64" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -18932,8 +19211,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19279,7 +19558,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -20527,7 +20806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4941" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4814" uniqueCount="533">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -9677,9 +9677,6 @@
       <c r="E5" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="F5" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -9697,9 +9694,6 @@
       <c r="E6" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="F6" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -9717,9 +9711,6 @@
       <c r="E7" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="F7" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -9737,9 +9728,6 @@
       <c r="E8" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="F8" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -9756,9 +9744,6 @@
       </c>
       <c r="E9" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="F9" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9926,9 +9911,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -9950,9 +9933,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -9974,9 +9955,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -9996,9 +9975,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -10020,9 +9997,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -10042,9 +10017,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -10066,9 +10039,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -10088,9 +10059,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -10112,9 +10081,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -10134,9 +10101,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -10158,9 +10123,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -10182,9 +10145,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -10206,9 +10167,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
@@ -10230,9 +10189,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -10252,9 +10209,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
@@ -10276,9 +10231,7 @@
         <v>71</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
@@ -10300,9 +10253,7 @@
         <v>75</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
@@ -10322,9 +10273,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -10346,9 +10295,7 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
@@ -10368,9 +10315,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
@@ -10390,9 +10335,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
@@ -10412,9 +10355,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
@@ -10434,9 +10375,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
@@ -10456,9 +10395,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
@@ -10478,9 +10415,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
@@ -10500,9 +10435,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
@@ -10522,9 +10455,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
@@ -10546,9 +10477,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
@@ -10568,9 +10497,7 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
@@ -10592,9 +10519,7 @@
         <v>3000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
@@ -10614,9 +10539,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
@@ -10638,9 +10561,7 @@
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
@@ -10660,9 +10581,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
@@ -10682,9 +10601,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
@@ -10706,9 +10623,7 @@
         <v>20000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
@@ -10728,9 +10643,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
@@ -10752,9 +10665,7 @@
         <v>7000</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
@@ -10774,9 +10685,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
@@ -10796,9 +10705,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
@@ -10818,9 +10725,7 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
@@ -10842,9 +10747,7 @@
         <v>10000</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
@@ -10864,9 +10767,7 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
@@ -10886,9 +10787,7 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
@@ -10910,9 +10809,7 @@
         <v>30000</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
@@ -10932,9 +10829,7 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11046,9 +10941,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -11070,9 +10963,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -11094,9 +10985,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -11116,9 +11005,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -11140,9 +11027,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -11162,9 +11047,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -11186,9 +11069,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -11208,9 +11089,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -11232,9 +11111,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -11254,9 +11131,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -11278,9 +11153,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -11302,9 +11175,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -11326,9 +11197,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -11350,9 +11219,7 @@
         <v>7000</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -11372,9 +11239,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row customFormat="1" r="20" s="39" spans="1:8">
       <c r="A20" s="20" t="s">
@@ -11416,9 +11281,7 @@
         <v>126</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -11440,9 +11303,7 @@
         <v>75</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -11462,9 +11323,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -11486,9 +11345,7 @@
         <v>3000</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -11508,9 +11365,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -11530,9 +11385,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -11552,9 +11405,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -11574,9 +11425,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -11596,9 +11445,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -11618,9 +11465,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -11640,9 +11485,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -11662,9 +11505,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -11684,9 +11525,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -11708,9 +11547,7 @@
         <v>3000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -11730,9 +11567,7 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -11752,9 +11587,7 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -11776,9 +11609,7 @@
         <v>137</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -11800,9 +11631,7 @@
         <v>43525</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -11824,9 +11653,7 @@
         <v>45719</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -11846,9 +11673,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -11870,9 +11695,7 @@
         <v>435</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -11892,9 +11715,7 @@
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -11916,9 +11737,7 @@
         <v>438</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -11938,9 +11757,7 @@
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -11960,9 +11777,7 @@
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -11982,9 +11797,7 @@
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -12004,9 +11817,7 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -12028,9 +11839,7 @@
         <v>150</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -12050,9 +11859,7 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -12074,9 +11881,7 @@
         <v>155</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -12096,9 +11901,7 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -12120,9 +11923,7 @@
         <v>5000</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -12142,9 +11943,7 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -12166,9 +11965,7 @@
         <v>10000</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -12188,9 +11985,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -12210,9 +12005,7 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -12234,9 +12027,7 @@
         <v>20000</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -12256,9 +12047,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -12280,9 +12069,7 @@
         <v>7000</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -12302,9 +12089,7 @@
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -12324,9 +12109,7 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
@@ -12346,9 +12129,7 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
@@ -12370,9 +12151,7 @@
         <v>10000</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
@@ -12392,9 +12171,7 @@
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
@@ -12414,9 +12191,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -12438,9 +12213,7 @@
         <v>30000</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
@@ -12460,9 +12233,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="H67" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12574,7 +12345,9 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -12596,7 +12369,9 @@
         <v>34</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -12618,7 +12393,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -12638,7 +12415,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -12660,7 +12439,9 @@
         <v>162</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -12680,7 +12461,9 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -12702,7 +12485,9 @@
         <v>163</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -12722,7 +12507,9 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -12744,7 +12531,9 @@
         <v>163</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -12764,7 +12553,9 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -12786,7 +12577,9 @@
         <v>163</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -12808,7 +12601,9 @@
         <v>60</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -12830,7 +12625,9 @@
         <v>5000</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -12850,7 +12647,9 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -12872,7 +12671,9 @@
         <v>164</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -12894,7 +12695,9 @@
         <v>75</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -12914,7 +12717,9 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -12936,7 +12741,9 @@
         <v>3000</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -12956,7 +12763,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -12976,7 +12785,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -12996,7 +12807,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -13016,7 +12829,9 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -13036,7 +12851,9 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -13056,7 +12873,9 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -13076,7 +12895,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -13096,7 +12917,9 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -13118,7 +12941,9 @@
         <v>3000</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -13138,7 +12963,9 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -13160,7 +12987,9 @@
         <v>8000</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -13182,7 +13011,9 @@
         <v>137</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -13204,7 +13035,9 @@
         <v>8000</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -13224,7 +13057,9 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -13244,7 +13079,9 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -13266,7 +13103,9 @@
         <v>3000</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -13286,7 +13125,9 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -13308,7 +13149,9 @@
         <v>3000</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -13328,7 +13171,9 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -13348,7 +13193,9 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -13370,7 +13217,9 @@
         <v>20000</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -13390,7 +13239,9 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -13412,7 +13263,9 @@
         <v>7000</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C9639B4F-CFDA-4E15-9136-D215B4F1D053}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1AE855E4-E569-4264-8B93-31716486F88B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="15" firstSheet="15" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" r:id="rId1" sheetId="2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="547">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -11588,7 +11588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -12427,7 +12427,7 @@
       <c r="D41" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="26" t="s">
         <v>541</v>
       </c>
       <c r="F41" s="25" t="s">
@@ -12676,7 +12676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D77694-076F-429F-BF53-870C5B748F6D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{1AE855E4-E569-4264-8B93-31716486F88B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{995C1696-FA64-4A77-8AED-E7083F9D54F5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="15" firstSheet="15" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="4" firstSheet="4" tabRatio="500" windowHeight="10920" windowWidth="20490" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" r:id="rId1" sheetId="2"/>
     <sheet name="EngineGeneration" r:id="rId2" sheetId="19"/>
     <sheet name="VerifyCSVForExistingVersion" r:id="rId3" sheetId="3"/>
     <sheet name="VerifyCSVForNewVersion" r:id="rId4" sheetId="4"/>
-    <sheet name="VerifyDeleteOffer" r:id="rId5" sheetId="5"/>
-    <sheet name="VerifyEventAPI" r:id="rId6" sheetId="6"/>
-    <sheet name="VerifyRealtimeSpineAPI" r:id="rId7" sheetId="7"/>
-    <sheet name="RealtimeSpineWithNewProperty" r:id="rId8" sheetId="10"/>
-    <sheet name="EmailTempWithNewAttribute" r:id="rId9" sheetId="11"/>
-    <sheet name="MicrositeTempWithExistingAttrib" r:id="rId10" sheetId="12"/>
-    <sheet name="OBCCTempWithExistingAttrib" r:id="rId11" sheetId="17"/>
-    <sheet name="VerifyDBForNewAgreementModel" r:id="rId12" sheetId="13"/>
-    <sheet name="VerifyAgreementClassFornewProp" r:id="rId13" sheetId="14"/>
-    <sheet name="VerifyDiscardVersioIsSuccessful" r:id="rId14" sheetId="15"/>
-    <sheet name="EnsureRollbackIsSuccessful" r:id="rId15" sheetId="16"/>
-    <sheet name="AdpativeModelForUnsubscribe" r:id="rId16" sheetId="18"/>
-    <sheet name="BatchDecisionOutputValidations" r:id="rId17" sheetId="8"/>
-    <sheet name="CheckLists" r:id="rId18" sheetId="9"/>
+    <sheet name="VerifyIHDeleted" r:id="rId5" sheetId="20"/>
+    <sheet name="VerifyDeleteOffer" r:id="rId6" sheetId="5"/>
+    <sheet name="VerifyEventAPI" r:id="rId7" sheetId="6"/>
+    <sheet name="VerifyRealtimeSpineAPI" r:id="rId8" sheetId="7"/>
+    <sheet name="RealtimeSpineWithNewProperty" r:id="rId9" sheetId="10"/>
+    <sheet name="EmailTempWithNewAttribute" r:id="rId10" sheetId="11"/>
+    <sheet name="MicrositeTempWithExistingAttrib" r:id="rId11" sheetId="12"/>
+    <sheet name="OBCCTempWithExistingAttrib" r:id="rId12" sheetId="17"/>
+    <sheet name="VerifyDBForNewAgreementModel" r:id="rId13" sheetId="13"/>
+    <sheet name="VerifyAgreementClassFornewProp" r:id="rId14" sheetId="14"/>
+    <sheet name="VerifyDiscardVersioIsSuccessful" r:id="rId15" sheetId="15"/>
+    <sheet name="EnsureRollbackIsSuccessful" r:id="rId16" sheetId="16"/>
+    <sheet name="AdpativeModelForUnsubscribe" r:id="rId17" sheetId="18"/>
+    <sheet name="BatchDecisionOutputValidations" r:id="rId18" sheetId="8"/>
+    <sheet name="CheckLists" r:id="rId19" sheetId="9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="558">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1687,10 +1688,43 @@
     <t>EngineGeneration</t>
   </si>
   <si>
-    <t>engine run multiple times</t>
+    <t>AdpativeModelForUnsubscribe</t>
+  </si>
+  <si>
+    <t>radPreviousrun</t>
+  </si>
+  <si>
+    <t>TS16_Regr_01</t>
+  </si>
+  <si>
+    <t>VerifyIHDeleted</t>
+  </si>
+  <si>
+    <t>Verifying the adaptive model for -ve response</t>
+  </si>
+  <si>
+    <t>Engine run multiple times</t>
+  </si>
+  <si>
+    <t>Clearing by Áll, verify IH deleted</t>
+  </si>
+  <si>
+    <t>lnkInteractionHistory</t>
+  </si>
+  <si>
+    <t>verifyIHRecordsAreAvailable</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>radioBtnAllForIH</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -2381,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2642,12 +2676,42 @@
         <v>544</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2660,6 +2724,1620 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B974F-EC20-4DA5-9D9F-A5ACD05AB2C7}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:I77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9">
+        <v>7000</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="25">
+        <v>2</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="25">
+        <v>3</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="36"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="33">
+        <v>30000</v>
+      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:I78"/>
   <sheetViews>
@@ -4290,7 +5968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -4739,12 +6417,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:E51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5110,9 +6788,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -5685,7 +7361,7 @@
         <v>279</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>278</v>
+        <v>546</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>254</v>
@@ -5855,12 +7531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6225,9 +7901,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -7244,12 +8918,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7615,9 +9289,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -9160,12 +10832,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9529,9 +11201,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -10883,9 +12553,7 @@
       <c r="E83" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F83" s="9">
-        <v>60</v>
-      </c>
+      <c r="F83" s="9"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
     </row>
@@ -11584,12 +13252,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12076,7 +13744,9 @@
       <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>5000</v>
+      </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
@@ -12136,7 +13806,9 @@
       <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>5000</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
     </row>
@@ -12156,7 +13828,9 @@
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
@@ -12367,7 +14041,7 @@
         <v>280</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
@@ -12447,7 +14121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -12635,7 +14309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:C3"/>
   <sheetViews>
@@ -12676,13 +14350,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D77694-076F-429F-BF53-870C5B748F6D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
@@ -12769,9 +14443,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -12793,9 +14465,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -12817,9 +14487,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -12839,9 +14507,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -12863,9 +14529,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -12885,9 +14549,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -12909,9 +14571,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -12931,9 +14591,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -12955,9 +14613,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -12977,9 +14633,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -13001,9 +14655,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -13025,9 +14677,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -13047,9 +14697,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
@@ -13067,13 +14715,9 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>16</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -13095,9 +14739,7 @@
         <v>5000</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
@@ -13117,9 +14759,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
@@ -13141,9 +14781,7 @@
         <v>71</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
@@ -13165,9 +14803,7 @@
         <v>75</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -13187,9 +14823,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
@@ -13211,9 +14845,7 @@
         <v>3000</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
@@ -13233,9 +14865,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
@@ -13255,9 +14885,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
@@ -13277,9 +14905,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
@@ -13299,9 +14925,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
@@ -13321,9 +14945,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
@@ -13343,9 +14965,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
@@ -13365,9 +14985,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
@@ -13387,9 +15005,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
@@ -13411,9 +15027,7 @@
         <v>3000</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
@@ -13433,9 +15047,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
@@ -13457,9 +15069,7 @@
         <v>3000</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
@@ -13479,9 +15089,7 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
@@ -13503,9 +15111,7 @@
         <v>3000</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
@@ -13525,9 +15131,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
@@ -13547,9 +15151,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
@@ -13569,9 +15171,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
@@ -13593,9 +15193,7 @@
         <v>30000</v>
       </c>
       <c r="G41" s="25"/>
-      <c r="H41" s="25" t="s">
-        <v>546</v>
-      </c>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
@@ -13615,9 +15213,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="25" t="s">
-        <v>546</v>
-      </c>
+      <c r="H42" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13634,8 +15230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C49" sqref="C49:F50"/>
+    <sheetView topLeftCell="A25" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14002,9 +15598,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
     </row>
@@ -14683,8 +16277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A40" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15050,9 +16644,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -16083,6 +17675,713 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440AE6C1-8303-4801-938E-D5D89C6CD179}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
@@ -17213,12 +19512,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A9" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D16" sqref="D16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17687,9 +19986,7 @@
       <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
@@ -19015,14 +21312,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A73" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -20747,7 +23044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1A5F4-9176-42F8-9D13-5A98D8683A92}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -22826,1620 +25123,4 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B974F-EC20-4DA5-9D9F-A5ACD05AB2C7}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:I77"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70:E70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="9">
-        <v>7000</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="25">
-        <v>2</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="F34" s="25">
-        <v>3</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="13">
-        <v>43525</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="13">
-        <v>45719</v>
-      </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="1">
-        <v>7000</v>
-      </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="33">
-        <v>30000</v>
-      </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{995C1696-FA64-4A77-8AED-E7083F9D54F5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3935C56B-5C95-4850-B295-9F1E67CC98AE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="4" tabRatio="500" windowHeight="10920" windowWidth="20490" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="600"/>
+    <workbookView activeTab="5" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" r:id="rId1" sheetId="2"/>
-    <sheet name="EngineGeneration" r:id="rId2" sheetId="19"/>
-    <sheet name="VerifyCSVForExistingVersion" r:id="rId3" sheetId="3"/>
-    <sheet name="VerifyCSVForNewVersion" r:id="rId4" sheetId="4"/>
-    <sheet name="VerifyIHDeleted" r:id="rId5" sheetId="20"/>
-    <sheet name="VerifyDeleteOffer" r:id="rId6" sheetId="5"/>
+    <sheet name="VerifyCSVForExistingVersion" r:id="rId2" sheetId="3"/>
+    <sheet name="VerifyCSVForNewVersion" r:id="rId3" sheetId="4"/>
+    <sheet name="VerifyIHDeleted" r:id="rId4" sheetId="20"/>
+    <sheet name="VerifyDeleteOffer" r:id="rId5" sheetId="5"/>
+    <sheet name="RenameOffer" r:id="rId6" sheetId="21"/>
     <sheet name="VerifyEventAPI" r:id="rId7" sheetId="6"/>
     <sheet name="VerifyRealtimeSpineAPI" r:id="rId8" sheetId="7"/>
     <sheet name="RealtimeSpineWithNewProperty" r:id="rId9" sheetId="10"/>
@@ -33,7 +33,7 @@
     <sheet name="BatchDecisionOutputValidations" r:id="rId18" sheetId="8"/>
     <sheet name="CheckLists" r:id="rId19" sheetId="9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5522" uniqueCount="566">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1682,12 +1682,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>generate engine</t>
-  </si>
-  <si>
-    <t>EngineGeneration</t>
-  </si>
-  <si>
     <t>AdpativeModelForUnsubscribe</t>
   </si>
   <si>
@@ -1703,9 +1697,6 @@
     <t>Verifying the adaptive model for -ve response</t>
   </si>
   <si>
-    <t>Engine run multiple times</t>
-  </si>
-  <si>
     <t>Clearing by Áll, verify IH deleted</t>
   </si>
   <si>
@@ -1719,6 +1710,39 @@
   </si>
   <si>
     <t>radioBtnAllForIH</t>
+  </si>
+  <si>
+    <t>Scenario to verify the rename offer is successful or not</t>
+  </si>
+  <si>
+    <t>TS1_Regr_03</t>
+  </si>
+  <si>
+    <t>New offer to rename</t>
+  </si>
+  <si>
+    <t>NewOfferToRename</t>
+  </si>
+  <si>
+    <t>enableOverride</t>
+  </si>
+  <si>
+    <t>RenameOffer</t>
+  </si>
+  <si>
+    <t>Verify renaming of offer is successful</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>increaseWeightIfRequired</t>
+  </si>
+  <si>
+    <t>select override for the offer</t>
+  </si>
+  <si>
+    <t>drag to top if below in the list</t>
   </si>
   <si>
     <t>Pass</t>
@@ -2418,7 +2442,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2499,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2514,7 +2538,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2529,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2544,7 +2568,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2559,7 +2583,7 @@
         <v>354</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2574,7 +2598,7 @@
         <v>365</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2589,7 +2613,7 @@
         <v>414</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2604,7 +2628,7 @@
         <v>451</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2619,7 +2643,7 @@
         <v>464</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2634,7 +2658,7 @@
         <v>482</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2649,7 +2673,7 @@
         <v>509</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2664,49 +2688,49 @@
         <v>524</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="25" t="s">
-        <v>0</v>
+      <c r="A18" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -7361,7 +7385,7 @@
         <v>279</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>254</v>
@@ -14347,891 +14371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D77694-076F-429F-BF53-870C5B748F6D}">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16273,12 +15417,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C53" sqref="C53:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17674,11 +16818,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440AE6C1-8303-4801-938E-D5D89C6CD179}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -17754,7 +16898,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -17770,13 +16914,11 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -17794,13 +16936,11 @@
         <v>34</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -17818,13 +16958,11 @@
         <v>5000</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
@@ -17840,13 +16978,11 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
@@ -17864,13 +17000,11 @@
         <v>162</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
@@ -17886,13 +17020,11 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>50</v>
@@ -17910,13 +17042,11 @@
         <v>163</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
@@ -17932,13 +17062,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
@@ -17956,13 +17084,11 @@
         <v>163</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -17978,13 +17104,11 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
@@ -18002,13 +17126,11 @@
         <v>163</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
@@ -18026,19 +17148,17 @@
         <v>60</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>146</v>
@@ -18048,19 +17168,17 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
@@ -18072,65 +17190,59 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>522</v>
       </c>
       <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
-        <v>557</v>
-      </c>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
@@ -18144,13 +17256,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>178</v>
@@ -18164,13 +17276,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -18186,16 +17298,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>254</v>
@@ -18206,13 +17318,13 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>181</v>
@@ -18226,13 +17338,13 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>34</v>
@@ -18246,13 +17358,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>534</v>
@@ -18266,13 +17378,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>34</v>
@@ -18288,13 +17400,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>34</v>
@@ -18310,13 +17422,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>146</v>
@@ -18330,16 +17442,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>45</v>
@@ -18350,19 +17462,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F32" s="37" t="s">
         <v>521</v>
@@ -18381,7 +17493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
@@ -19509,6 +18621,1155 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9">
+        <v>7000</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="36"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3935C56B-5C95-4850-B295-9F1E67CC98AE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BD8C921D-65F4-456E-B6E9-85AD7B390B1E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="3" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="15" firstSheet="14" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" r:id="rId1" sheetId="2"/>
@@ -33,7 +33,7 @@
     <sheet name="BatchDecisionOutputValidations" r:id="rId18" sheetId="8"/>
     <sheet name="CheckLists" r:id="rId19" sheetId="9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5522" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="594">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1733,22 +1733,106 @@
     <t>Verify renaming of offer is successful</t>
   </si>
   <si>
+    <t>increaseWeightIfRequired</t>
+  </si>
+  <si>
+    <t>select override for the offer</t>
+  </si>
+  <si>
+    <t>drag to top if below in the list</t>
+  </si>
+  <si>
+    <t>Define brain</t>
+  </si>
+  <si>
+    <t>switch to parent frame</t>
+  </si>
+  <si>
+    <t>click toggle navigation</t>
+  </si>
+  <si>
+    <t>Renaming offer</t>
+  </si>
+  <si>
+    <t>radBtnUpdateOffer</t>
+  </si>
+  <si>
+    <t>TS_65</t>
+  </si>
+  <si>
+    <t>TS_66</t>
+  </si>
+  <si>
+    <t>TS_67</t>
+  </si>
+  <si>
+    <t>TS_68</t>
+  </si>
+  <si>
+    <t>TS_69</t>
+  </si>
+  <si>
+    <t>TS_70</t>
+  </si>
+  <si>
+    <t>TS_71</t>
+  </si>
+  <si>
+    <t>TS_72</t>
+  </si>
+  <si>
+    <t>TS_73</t>
+  </si>
+  <si>
+    <t>TS_74</t>
+  </si>
+  <si>
+    <t>TS_75</t>
+  </si>
+  <si>
+    <t>TS_76</t>
+  </si>
+  <si>
+    <t>TS_77</t>
+  </si>
+  <si>
+    <t>TS_78</t>
+  </si>
+  <si>
+    <t>TS_79</t>
+  </si>
+  <si>
+    <t>TS_80</t>
+  </si>
+  <si>
+    <t>TS_81</t>
+  </si>
+  <si>
+    <t>TS_82</t>
+  </si>
+  <si>
+    <t>TS_83</t>
+  </si>
+  <si>
+    <t>TS_84</t>
+  </si>
+  <si>
+    <t>RenamedOfferQA</t>
+  </si>
+  <si>
+    <t>ddnSubChannel</t>
+  </si>
+  <si>
+    <t>select subchannel</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>increaseWeightIfRequired</t>
-  </si>
-  <si>
-    <t>select override for the offer</t>
-  </si>
-  <si>
-    <t>drag to top if below in the list</t>
+    <t>DirectMailUK</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2526,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2508,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2523,7 +2607,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2537,8 +2621,8 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>560</v>
+      <c r="D7" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2553,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2567,8 +2651,8 @@
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>560</v>
+      <c r="D9" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2582,8 +2666,8 @@
       <c r="C10" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>560</v>
+      <c r="D10" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2598,7 +2682,7 @@
         <v>365</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2613,7 +2697,7 @@
         <v>414</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2628,7 +2712,7 @@
         <v>451</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2643,7 +2727,7 @@
         <v>464</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2658,7 +2742,7 @@
         <v>482</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2673,7 +2757,7 @@
         <v>509</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2688,7 +2772,7 @@
         <v>524</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2703,7 +2787,7 @@
         <v>547</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2718,7 +2802,7 @@
         <v>548</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2733,7 +2817,7 @@
         <v>559</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -2752,10 +2836,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4209,18 +4293,20 @@
         <v>355</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="9">
+        <v>3000</v>
+      </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
@@ -4229,20 +4315,18 @@
         <v>355</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>279</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="1">
-        <v>7000</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
     </row>
@@ -4251,18 +4335,20 @@
         <v>355</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>106</v>
+        <v>279</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F73" s="1">
+        <v>7000</v>
+      </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
@@ -4274,15 +4360,15 @@
         <v>404</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F74" s="25"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
@@ -4294,17 +4380,15 @@
         <v>404</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="33">
-        <v>30000</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
@@ -4316,16 +4400,16 @@
         <v>404</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>204</v>
+        <v>41</v>
+      </c>
+      <c r="F76" s="33">
+        <v>30000</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -4338,17 +4422,39 @@
         <v>404</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6446,7 +6552,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7559,7 +7665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8944,10 +9050,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9041,7 +9147,9 @@
         <v>34</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -9063,7 +9171,9 @@
         <v>34</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -9085,7 +9195,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -9105,7 +9217,9 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -9127,7 +9241,9 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -9147,7 +9263,9 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -9169,7 +9287,9 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -9189,7 +9309,9 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -9211,7 +9333,9 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -9231,7 +9355,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -9253,7 +9379,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -9275,7 +9403,9 @@
         <v>60</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -9295,7 +9425,9 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -9315,7 +9447,9 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -9337,7 +9471,9 @@
         <v>7000</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -9357,7 +9493,9 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -9379,7 +9517,9 @@
         <v>478</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -9401,7 +9541,9 @@
         <v>478</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -9421,7 +9563,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -9443,7 +9587,9 @@
         <v>3000</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -9463,7 +9609,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -9483,7 +9631,9 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -9503,7 +9653,9 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -9523,7 +9675,9 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -9543,7 +9697,9 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -9563,7 +9719,9 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -9583,7 +9741,9 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -9603,7 +9763,9 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -9623,7 +9785,9 @@
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -9645,7 +9809,9 @@
         <v>494</v>
       </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -9665,7 +9831,9 @@
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -9685,7 +9853,9 @@
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -9707,7 +9877,9 @@
         <v>7000</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -9727,7 +9899,9 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -9749,7 +9923,9 @@
         <v>3000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -9773,7 +9949,9 @@
       <c r="G40" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -9793,7 +9971,9 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -9813,7 +9993,9 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -9835,7 +10017,9 @@
         <v>479</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -9857,7 +10041,9 @@
         <v>43525</v>
       </c>
       <c r="G44" s="13"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -9879,7 +10065,9 @@
         <v>45719</v>
       </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -9899,7 +10087,9 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -9921,7 +10111,9 @@
         <v>435</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -9941,7 +10133,9 @@
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -9963,7 +10157,9 @@
         <v>438</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -9983,7 +10179,9 @@
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -10003,7 +10201,9 @@
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -10023,7 +10223,9 @@
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -10043,7 +10245,9 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -10065,7 +10269,9 @@
         <v>150</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -10085,7 +10291,9 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -10107,48 +10315,48 @@
         <v>155</v>
       </c>
       <c r="G56" s="1"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="1" t="s">
-        <v>481</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>481</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G58" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G58" s="1"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
@@ -10156,16 +10364,16 @@
         <v>481</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -10176,60 +10384,60 @@
         <v>481</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+        <v>160</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+        <v>486</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="1">
-        <v>5000</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
     </row>
@@ -10238,18 +10446,18 @@
         <v>481</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>487</v>
+        <v>161</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
@@ -10258,18 +10466,20 @@
         <v>481</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="25"/>
+        <v>338</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5000</v>
+      </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
     </row>
@@ -10278,18 +10488,18 @@
         <v>481</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="25"/>
+        <v>339</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
@@ -10298,20 +10508,18 @@
         <v>481</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
@@ -10322,18 +10530,16 @@
       <c r="B67" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>34</v>
+      <c r="C67" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>186</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
@@ -10342,18 +10548,20 @@
         <v>481</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="F68" s="25"/>
+        <v>341</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
     </row>
@@ -10362,19 +10570,19 @@
         <v>481</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>490</v>
+        <v>341</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="1">
-        <v>5000</v>
+      <c r="E69" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -10384,18 +10592,18 @@
         <v>481</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
@@ -10404,19 +10612,19 @@
         <v>481</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>68</v>
+        <v>345</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>492</v>
+        <v>41</v>
+      </c>
+      <c r="F71" s="1">
+        <v>5000</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -10426,20 +10634,18 @@
         <v>481</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>73</v>
+        <v>346</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>491</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>492</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
     </row>
@@ -10448,18 +10654,20 @@
         <v>481</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
@@ -10468,19 +10676,19 @@
         <v>481</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="1">
-        <v>7000</v>
+        <v>70</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -10490,7 +10698,7 @@
         <v>481</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>77</v>
@@ -10510,12 +10718,12 @@
         <v>481</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -10532,12 +10740,12 @@
         <v>481</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -10552,23 +10760,21 @@
         <v>481</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="G78" s="37" t="s">
-        <v>521</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G78" s="25"/>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
@@ -10576,23 +10782,19 @@
         <v>481</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>494</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8">
@@ -10600,21 +10802,23 @@
         <v>481</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D80" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="25">
-        <v>7000</v>
-      </c>
-      <c r="G80" s="25"/>
+      <c r="D80" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>521</v>
+      </c>
       <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8">
@@ -10622,19 +10826,23 @@
         <v>481</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D81" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+      <c r="D81" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>494</v>
+      </c>
       <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
@@ -10642,7 +10850,7 @@
         <v>481</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>497</v>
@@ -10664,13 +10872,13 @@
         <v>481</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>99</v>
+      <c r="D83" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>45</v>
@@ -10684,18 +10892,20 @@
         <v>481</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>497</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="25">
+        <v>7000</v>
+      </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
     </row>
@@ -10704,18 +10914,18 @@
         <v>481</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F85" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="25"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
     </row>
@@ -10724,20 +10934,18 @@
         <v>481</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>34</v>
+        <v>498</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F86" s="1">
-        <v>7000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F86" s="25"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
     </row>
@@ -10749,13 +10957,13 @@
         <v>403</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>501</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="25"/>
@@ -10769,15 +10977,15 @@
         <v>403</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="25"/>
+        <v>279</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" s="1"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
     </row>
@@ -10789,16 +10997,16 @@
         <v>403</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="33">
-        <v>30000</v>
+      <c r="F89" s="1">
+        <v>7000</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
@@ -10811,17 +11019,15 @@
         <v>403</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F90" s="1"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
     </row>
@@ -10833,17 +11039,81 @@
         <v>403</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>406</v>
+        <v>120</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F91" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F91" s="25"/>
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="33">
+        <v>30000</v>
+      </c>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10860,7 +11130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -13280,8 +13550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:F28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14147,7 +14417,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D12" sqref="D12"/>
@@ -14320,6 +14590,40 @@
       </c>
       <c r="E10" s="18" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -14374,7 +14678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A40" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -15419,10 +15723,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C53" sqref="C53:F56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D51" sqref="D51:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16461,19 +16765,21 @@
         <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
@@ -16481,21 +16787,21 @@
         <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>590</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G52" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
@@ -16503,13 +16809,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>45</v>
@@ -16523,10 +16829,10 @@
         <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -16535,7 +16841,7 @@
         <v>41</v>
       </c>
       <c r="F54" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -16545,13 +16851,13 @@
         <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>45</v>
@@ -16565,18 +16871,20 @@
         <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F56" s="9">
+        <v>10000</v>
+      </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
@@ -16585,40 +16893,40 @@
         <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -16628,17 +16936,15 @@
         <v>103</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="1">
-        <v>7000</v>
-      </c>
+      <c r="E59" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
@@ -16647,16 +16953,16 @@
         <v>14</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>107</v>
+        <v>279</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -16667,18 +16973,20 @@
         <v>14</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7000</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -16687,16 +16995,16 @@
         <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -16707,20 +17015,18 @@
         <v>14</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="1">
-        <v>10000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
@@ -16729,16 +17035,16 @@
         <v>14</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -16749,18 +17055,20 @@
         <v>14</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10000</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
@@ -16769,20 +17077,18 @@
         <v>14</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="1">
-        <v>30000</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
@@ -16791,20 +17097,62 @@
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16822,7 +17170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440AE6C1-8303-4801-938E-D5D89C6CD179}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -17498,7 +17846,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D44" sqref="D44:E44"/>
+      <selection activeCell="D38" sqref="D38:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18626,10 +18974,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18722,9 +19070,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -18746,9 +19092,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -18770,9 +19114,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -18792,9 +19134,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -18816,9 +19156,7 @@
         <v>2000</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -18838,9 +19176,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -18862,9 +19198,7 @@
         <v>3000</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -18884,9 +19218,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -18908,9 +19240,7 @@
         <v>3000</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -18930,9 +19260,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -18954,9 +19282,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -18978,9 +19304,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -19000,9 +19324,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -19022,9 +19344,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -19046,9 +19366,7 @@
         <v>7000</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -19068,9 +19386,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="9" t="s">
-        <v>564</v>
-      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -19092,9 +19408,7 @@
         <v>555</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="9" t="s">
-        <v>565</v>
-      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -19726,7 +20040,7 @@
         <v>160</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
@@ -19748,19 +20062,1085 @@
         <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>556</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="25">
+        <v>3000</v>
+      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="25">
+        <v>3000</v>
+      </c>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="25">
+        <v>8000</v>
+      </c>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19777,8 +21157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D16" sqref="D16:E18"/>
+    <sheetView topLeftCell="A73" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21580,8 +22960,8 @@
   </sheetPr>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D19" sqref="D19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23312,8 +24692,8 @@
   </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF248D4E-9299-4D7D-888E-334D34934B3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9180DD22-6A90-4315-8707-3D8F0866EA58}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
-    <sheet name="VerifyCSVForExistingVersion" sheetId="3" r:id="rId2"/>
-    <sheet name="VerifyCSVForNewVersion" sheetId="4" r:id="rId3"/>
-    <sheet name="VerifyChannelSelection" sheetId="23" r:id="rId4"/>
-    <sheet name="VerifyIHDeleted" sheetId="20" r:id="rId5"/>
-    <sheet name="VerifyDeleteOffer" sheetId="5" r:id="rId6"/>
-    <sheet name="RenameOffer" sheetId="21" r:id="rId7"/>
-    <sheet name="VerifyEventAPI" sheetId="6" r:id="rId8"/>
-    <sheet name="PickBestChannel" sheetId="24" r:id="rId9"/>
-    <sheet name="VerifyRealtimeSpineAPI" sheetId="7" r:id="rId10"/>
-    <sheet name="RealtimeSpineWithNewProperty" sheetId="10" r:id="rId11"/>
-    <sheet name="EmailTempWithNewAttribute" sheetId="11" r:id="rId12"/>
-    <sheet name="MicrositeTempWithExistingAttrib" sheetId="12" r:id="rId13"/>
-    <sheet name="OBCCTempWithExistingAttrib" sheetId="17" r:id="rId14"/>
-    <sheet name="VerifyDBForNewAgreementModel" sheetId="13" r:id="rId15"/>
-    <sheet name="VerifyAgreementClassFornewProp" sheetId="14" r:id="rId16"/>
-    <sheet name="VerifyDiscardVersioIsSuccessful" sheetId="15" r:id="rId17"/>
-    <sheet name="EnsureRollbackIsSuccessful" sheetId="16" r:id="rId18"/>
-    <sheet name="AdpativeModelForUnsubscribe" sheetId="18" r:id="rId19"/>
-    <sheet name="SingleChannelOn" sheetId="22" r:id="rId20"/>
-    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId21"/>
-    <sheet name="CheckLists" sheetId="9" r:id="rId22"/>
+    <sheet name="DriverSheet" r:id="rId1" sheetId="2"/>
+    <sheet name="VerifyCSVForExistingVersion" r:id="rId2" sheetId="3"/>
+    <sheet name="VerifyCSVForNewVersion" r:id="rId3" sheetId="4"/>
+    <sheet name="VerifyChannelSelection" r:id="rId4" sheetId="23"/>
+    <sheet name="VerifyIHDeleted" r:id="rId5" sheetId="20"/>
+    <sheet name="VerifyDeleteOffer" r:id="rId6" sheetId="5"/>
+    <sheet name="RenameOffer" r:id="rId7" sheetId="21"/>
+    <sheet name="VerifyEventAPI" r:id="rId8" sheetId="6"/>
+    <sheet name="PickBestChannel" r:id="rId9" sheetId="24"/>
+    <sheet name="VerifyRealtimeSpineAPI" r:id="rId10" sheetId="7"/>
+    <sheet name="RealtimeSpineWithNewProperty" r:id="rId11" sheetId="10"/>
+    <sheet name="EmailTempWithNewAttribute" r:id="rId12" sheetId="11"/>
+    <sheet name="MicrositeTempWithExistingAttrib" r:id="rId13" sheetId="12"/>
+    <sheet name="OBCCTempWithExistingAttrib" r:id="rId14" sheetId="17"/>
+    <sheet name="VerifyDBForNewAgreementModel" r:id="rId15" sheetId="13"/>
+    <sheet name="VerifyAgreementClassFornewProp" r:id="rId16" sheetId="14"/>
+    <sheet name="VerifyDiscardVersioIsSuccessful" r:id="rId17" sheetId="15"/>
+    <sheet name="EnsureRollbackIsSuccessful" r:id="rId18" sheetId="16"/>
+    <sheet name="AdpativeModelForUnsubscribe" r:id="rId19" sheetId="18"/>
+    <sheet name="SingleChannelOn" r:id="rId20" sheetId="22"/>
+    <sheet name="BatchDecisionOutputValidations" r:id="rId21" sheetId="8"/>
+    <sheet name="CheckLists" r:id="rId22" sheetId="9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6677" uniqueCount="638">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1871,12 +1871,6 @@
     <t>SMSUK</t>
   </si>
   <si>
-    <t>override the offer</t>
-  </si>
-  <si>
-    <t>increase the weight</t>
-  </si>
-  <si>
     <t>txtSearchOnEligbileOffers</t>
   </si>
   <si>
@@ -1901,76 +1895,79 @@
     <t>Verifying the selected channels in UI</t>
   </si>
   <si>
+    <t>quit browser</t>
+  </si>
+  <si>
+    <t>Below scenario is to ensure the pick best channel scenario for the channel heirarchy</t>
+  </si>
+  <si>
+    <t>Pick best channel Scenario</t>
+  </si>
+  <si>
+    <t>webTableForOffer</t>
+  </si>
+  <si>
+    <t>btnCustomerChannels</t>
+  </si>
+  <si>
+    <t>click on customer channels</t>
+  </si>
+  <si>
+    <t>PickBestChannel</t>
+  </si>
+  <si>
+    <t>Verifying the pick best channel with channel heirarchy</t>
+  </si>
+  <si>
+    <t>webTableForChannel</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>btnSaveChannelHi</t>
+  </si>
+  <si>
+    <t>changeChannelPriorityIfRequired</t>
+  </si>
+  <si>
+    <t>PickBestOffer</t>
+  </si>
+  <si>
+    <t>chkOBCC2</t>
+  </si>
+  <si>
+    <t>chkPickBest</t>
+  </si>
+  <si>
+    <t>rdnChannelHi</t>
+  </si>
+  <si>
+    <t>tabOBCC</t>
+  </si>
+  <si>
+    <t>ddnOBCCTemplate</t>
+  </si>
+  <si>
+    <t>Sophie Default OutboundCC</t>
+  </si>
+  <si>
+    <t>ddnOBCCSubChannel</t>
+  </si>
+  <si>
+    <t>OutboundCCUK</t>
+  </si>
+  <si>
+    <t>verifyEligibleChannelForOfferInDB</t>
+  </si>
+  <si>
+    <t>select distinct channel from interaction_history_v where associatedoffer='PickBestOffer'</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>quit browser</t>
-  </si>
-  <si>
-    <t>Below scenario is to ensure the pick best channel scenario for the channel heirarchy</t>
-  </si>
-  <si>
-    <t>Pick best channel Scenario</t>
-  </si>
-  <si>
-    <t>webTableForOffer</t>
-  </si>
-  <si>
-    <t>btnCustomerChannels</t>
-  </si>
-  <si>
-    <t>click on customer channels</t>
-  </si>
-  <si>
-    <t>PickBestChannel</t>
-  </si>
-  <si>
-    <t>Verifying the pick best channel with channel heirarchy</t>
-  </si>
-  <si>
-    <t>webTableForChannel</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>btnSaveChannelHi</t>
-  </si>
-  <si>
-    <t>changeChannelPriorityIfRequired</t>
-  </si>
-  <si>
-    <t>PickBestOffer</t>
-  </si>
-  <si>
-    <t>chkOBCC2</t>
-  </si>
-  <si>
-    <t>chkPickBest</t>
-  </si>
-  <si>
-    <t>rdnChannelHi</t>
-  </si>
-  <si>
-    <t>tabOBCC</t>
-  </si>
-  <si>
-    <t>ddnOBCCTemplate</t>
-  </si>
-  <si>
-    <t>Sophie Default OutboundCC</t>
-  </si>
-  <si>
-    <t>ddnOBCCSubChannel</t>
-  </si>
-  <si>
-    <t>OutboundCCUK</t>
-  </si>
-  <si>
-    <t>verifyEligibleChannelForOfferInDB</t>
-  </si>
-  <si>
-    <t>select distinct channel from interaction_history_v where associatedoffer='PickBestOffer'</t>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -2209,82 +2206,82 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{58C6B9B9-44EF-4FF6-B4E2-0E7E1176543B}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2369,10 +2366,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2407,7 +2404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2459,7 +2456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2570,21 +2567,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2601,7 +2598,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2653,31 +2650,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="2" customWidth="1"/>
-    <col min="6" max="1025" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="70.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
+    <col min="6" max="1025" customWidth="true" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="1" s="3" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
@@ -2686,7 +2683,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="2" s="3" spans="1:5">
       <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
@@ -2695,14 +2692,14 @@
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="3" s="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="14.25">
+    <row customFormat="1" ht="14.25" r="4" s="6" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2745,7 +2742,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2760,7 +2757,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2775,7 +2772,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2790,7 +2787,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2805,7 +2802,7 @@
         <v>360</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2820,7 +2817,7 @@
         <v>409</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2835,7 +2832,7 @@
         <v>446</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2850,7 +2847,7 @@
         <v>459</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2865,7 +2862,7 @@
         <v>477</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2880,7 +2877,7 @@
         <v>504</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2895,7 +2892,7 @@
         <v>540</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2910,7 +2907,7 @@
         <v>541</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2925,7 +2922,7 @@
         <v>552</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2934,13 +2931,13 @@
         <v>518</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2949,10 +2946,10 @@
         <v>538</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -2964,33 +2961,33 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4470,17 +4467,17 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1A5F4-9176-42F8-9D13-5A98D8683A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1A5F4-9176-42F8-9D13-5A98D8683A92}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:F21"/>
@@ -4488,11 +4485,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6552,16 +6549,16 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B974F-EC20-4DA5-9D9F-A5ACD05AB2C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B974F-EC20-4DA5-9D9F-A5ACD05AB2C7}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
@@ -6569,12 +6566,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8232,13 +8229,13 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
-  <dimension ref="A1:H78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E80" sqref="E80"/>
@@ -8246,14 +8243,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9863,16 +9860,16 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
@@ -9880,12 +9877,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10312,27 +10309,27 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11426,13 +11423,13 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
-  <dimension ref="A1:H66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -11440,12 +11437,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12813,13 +12810,13 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView topLeftCell="B86" workbookViewId="0">
       <selection activeCell="E96" sqref="E96"/>
@@ -12827,13 +12824,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14879,30 +14876,30 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
-  <dimension ref="A1:H117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116:F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="1" spans="1:8">
       <c r="A1" s="44" t="s">
         <v>497</v>
       </c>
@@ -17343,26 +17340,26 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -18205,6 +18202,48 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
     </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -18212,28 +18251,28 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A40" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19227,7 +19266,7 @@
         <v>41</v>
       </c>
       <c r="F49" s="1">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -19258,13 +19297,13 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4A3E8-7749-4CD2-9C58-29CEA684BAD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4A3E8-7749-4CD2-9C58-29CEA684BAD6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19273,29 +19312,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19494,24 +19533,24 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -19531,28 +19570,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D57" sqref="D57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="7" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -21020,14 +21059,14 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE57E7C9-DCBE-422B-912B-E6D243214D2D}">
-  <dimension ref="A1:H57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE57E7C9-DCBE-422B-912B-E6D243214D2D}">
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D23" sqref="D23:F41"/>
@@ -21035,12 +21074,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -21057,7 +21096,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="42" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -21458,7 +21497,7 @@
         <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
@@ -21480,7 +21519,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
@@ -21626,7 +21665,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -21935,7 +21974,7 @@
         <v>158</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>34</v>
@@ -21944,7 +21983,7 @@
         <v>165</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -22005,7 +22044,7 @@
         <v>34</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>263</v>
@@ -22207,7 +22246,7 @@
         <v>335</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>34</v>
@@ -22226,13 +22265,13 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440AE6C1-8303-4801-938E-D5D89C6CD179}">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440AE6C1-8303-4801-938E-D5D89C6CD179}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D33" sqref="D33:E33"/>
@@ -22240,14 +22279,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -22921,28 +22960,28 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D54" sqref="D54:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="1025" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -24051,27 +24090,27 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
-  <dimension ref="A1:H106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:F65"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -25193,7 +25232,7 @@
         <v>555</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>553</v>
@@ -26277,28 +26316,28 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:F31"/>
+    <sheetView topLeftCell="A62" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A71" sqref="A71:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="8" max="1025" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -27761,22 +27800,20 @@
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>155</v>
+      <c r="B71" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G71" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8">
@@ -27784,41 +27821,39 @@
         <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>606</v>
+        <v>159</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="B73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8">
@@ -27826,19 +27861,19 @@
         <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8">
@@ -27854,10 +27889,12 @@
       <c r="D75" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="F75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="1">
+        <v>7000</v>
+      </c>
       <c r="G75" s="1"/>
       <c r="H75" s="9"/>
     </row>
@@ -27866,16 +27903,16 @@
         <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>252</v>
+        <v>105</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -27886,20 +27923,18 @@
         <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>34</v>
+        <v>120</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77" s="1">
-        <v>7000</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="9"/>
     </row>
@@ -27908,18 +27943,20 @@
         <v>17</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F78" s="1">
+        <v>30000</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="9"/>
     </row>
@@ -27928,18 +27965,20 @@
         <v>17</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="9"/>
     </row>
@@ -27951,7 +27990,7 @@
         <v>122</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>34</v>
@@ -27960,7 +27999,7 @@
         <v>41</v>
       </c>
       <c r="F80" s="1">
-        <v>30000</v>
+        <v>180000</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="9"/>
@@ -27973,17 +28012,15 @@
         <v>122</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="9"/>
     </row>
@@ -27995,17 +28032,15 @@
         <v>122</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>34</v>
+        <v>322</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="1">
-        <v>180000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="9"/>
     </row>
@@ -28017,15 +28052,17 @@
         <v>122</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>321</v>
+        <v>34</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F83" s="1">
+        <v>5000</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="9"/>
     </row>
@@ -28037,10 +28074,10 @@
         <v>122</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>45</v>
@@ -28057,7 +28094,7 @@
         <v>122</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>34</v>
@@ -28066,7 +28103,7 @@
         <v>41</v>
       </c>
       <c r="F85" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
@@ -28079,10 +28116,10 @@
         <v>122</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>324</v>
+        <v>605</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>45</v>
@@ -28099,16 +28136,16 @@
         <v>122</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>34</v>
+        <v>605</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" s="1">
-        <v>3000</v>
+        <v>70</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="9"/>
@@ -28121,15 +28158,17 @@
         <v>122</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>607</v>
+        <v>34</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5000</v>
+      </c>
       <c r="G88" s="1"/>
       <c r="H88" s="9"/>
     </row>
@@ -28141,17 +28180,15 @@
         <v>122</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>607</v>
+        <v>308</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="9"/>
     </row>
@@ -28163,18 +28200,20 @@
         <v>122</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G90" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8">
@@ -28182,64 +28221,20 @@
         <v>17</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>327</v>
+        <v>124</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H92" s="9"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28248,27 +28243,27 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9D972-BC3C-4059-B86B-F0917555266F}">
-  <dimension ref="A1:H84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9D972-BC3C-4059-B86B-F0917555266F}">
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="81.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28295,7 +28290,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="42" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -28351,7 +28346,9 @@
         <v>34</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -28373,7 +28370,9 @@
         <v>34</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -28395,7 +28394,9 @@
         <v>174</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -28415,7 +28416,9 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -28437,7 +28440,9 @@
         <v>161</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -28457,7 +28462,9 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -28479,7 +28486,9 @@
         <v>162</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -28501,7 +28510,9 @@
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -28523,7 +28534,9 @@
         <v>162</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -28543,7 +28556,9 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -28565,7 +28580,9 @@
         <v>1</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -28587,7 +28604,9 @@
         <v>5000</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -28607,7 +28626,9 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -28627,7 +28648,9 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -28647,7 +28670,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -28667,7 +28692,9 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -28689,7 +28716,9 @@
         <v>162</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -28711,7 +28740,9 @@
         <v>2</v>
       </c>
       <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -28731,7 +28762,9 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -28751,7 +28784,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -28773,7 +28808,9 @@
         <v>10000</v>
       </c>
       <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -28793,7 +28830,9 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -28812,10 +28851,12 @@
         <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -28834,10 +28875,12 @@
         <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -28857,7 +28900,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -28879,7 +28924,9 @@
         <v>3000</v>
       </c>
       <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -28889,17 +28936,19 @@
         <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="H31" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -28909,19 +28958,21 @@
         <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="E32" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>627</v>
-      </c>
       <c r="F32" s="26" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="H32" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -28931,17 +28982,19 @@
         <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="H33" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -28951,7 +29004,7 @@
         <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>78</v>
@@ -28961,7 +29014,9 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -28971,7 +29026,7 @@
         <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>34</v>
@@ -28983,7 +29038,9 @@
         <v>3000</v>
       </c>
       <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="H35" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -28993,7 +29050,7 @@
         <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>78</v>
@@ -29003,7 +29060,9 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="H36" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -29013,7 +29072,7 @@
         <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>34</v>
@@ -29025,7 +29084,9 @@
         <v>3000</v>
       </c>
       <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="H37" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -29035,7 +29096,7 @@
         <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>134</v>
@@ -29045,7 +29106,9 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -29055,7 +29118,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>136</v>
@@ -29064,10 +29127,12 @@
         <v>70</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -29077,7 +29142,7 @@
         <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>139</v>
@@ -29089,7 +29154,9 @@
         <v>43525</v>
       </c>
       <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="H40" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -29099,7 +29166,7 @@
         <v>97</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>141</v>
@@ -29111,7 +29178,9 @@
         <v>45719</v>
       </c>
       <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -29121,7 +29190,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>143</v>
@@ -29131,7 +29200,9 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="H42" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -29141,7 +29212,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>429</v>
@@ -29153,7 +29224,9 @@
         <v>430</v>
       </c>
       <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="H43" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -29163,7 +29236,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>431</v>
@@ -29173,7 +29246,9 @@
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -29183,7 +29258,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>432</v>
@@ -29195,7 +29270,9 @@
         <v>433</v>
       </c>
       <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -29205,7 +29282,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>436</v>
@@ -29215,7 +29292,9 @@
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="H46" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -29225,7 +29304,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>438</v>
@@ -29235,7 +29314,9 @@
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -29245,7 +29326,7 @@
         <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>441</v>
@@ -29255,7 +29336,9 @@
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -29265,17 +29348,19 @@
         <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>82</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="H49" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -29285,17 +29370,19 @@
         <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>82</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="H50" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -29305,17 +29392,19 @@
         <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="H51" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -29325,7 +29414,7 @@
         <v>97</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>143</v>
@@ -29335,7 +29424,9 @@
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="H52" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -29345,7 +29436,7 @@
         <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>145</v>
@@ -29355,7 +29446,9 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="H53" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -29365,7 +29458,7 @@
         <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>147</v>
@@ -29377,7 +29470,9 @@
         <v>149</v>
       </c>
       <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="H54" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -29387,7 +29482,7 @@
         <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>34</v>
@@ -29399,7 +29494,9 @@
         <v>3000</v>
       </c>
       <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="H55" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -29409,7 +29506,7 @@
         <v>97</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>585</v>
@@ -29421,7 +29518,9 @@
         <v>586</v>
       </c>
       <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="H56" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -29431,7 +29530,7 @@
         <v>97</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>151</v>
@@ -29441,7 +29540,9 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="H57" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -29451,7 +29552,7 @@
         <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>153</v>
@@ -29463,7 +29564,9 @@
         <v>154</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="H58" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -29473,7 +29576,7 @@
         <v>97</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>34</v>
@@ -29485,7 +29588,9 @@
         <v>3000</v>
       </c>
       <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="H59" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -29495,7 +29600,7 @@
         <v>97</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>584</v>
@@ -29507,7 +29612,9 @@
         <v>583</v>
       </c>
       <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="H60" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -29517,7 +29624,7 @@
         <v>97</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>195</v>
@@ -29527,7 +29634,9 @@
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="H61" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
@@ -29537,7 +29646,7 @@
         <v>97</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>196</v>
@@ -29549,7 +29658,9 @@
         <v>197</v>
       </c>
       <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="H62" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
@@ -29559,7 +29670,7 @@
         <v>97</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>34</v>
@@ -29571,7 +29682,9 @@
         <v>3000</v>
       </c>
       <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+      <c r="H63" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
@@ -29581,7 +29694,7 @@
         <v>97</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>603</v>
@@ -29593,7 +29706,9 @@
         <v>604</v>
       </c>
       <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
+      <c r="H64" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
@@ -29603,17 +29718,19 @@
         <v>100</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
+      <c r="H65" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -29623,19 +29740,21 @@
         <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>148</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="H66" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
@@ -29645,7 +29764,7 @@
         <v>104</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>34</v>
@@ -29657,7 +29776,9 @@
         <v>3000</v>
       </c>
       <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
@@ -29667,19 +29788,21 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>148</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="H68" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
@@ -29689,7 +29812,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>143</v>
@@ -29699,7 +29822,9 @@
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="H69" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
@@ -29709,7 +29834,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>34</v>
@@ -29721,7 +29846,9 @@
         <v>5000</v>
       </c>
       <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="H70" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
@@ -29731,7 +29858,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>78</v>
@@ -29741,7 +29868,9 @@
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
+      <c r="H71" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
@@ -29751,7 +29880,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>34</v>
@@ -29760,10 +29889,12 @@
         <v>550</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
+      <c r="H72" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
@@ -29773,19 +29904,21 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>553</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
+      <c r="H73" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
@@ -29795,7 +29928,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>34</v>
@@ -29807,7 +29940,9 @@
         <v>3000</v>
       </c>
       <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
+      <c r="H74" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
@@ -29817,7 +29952,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>99</v>
@@ -29827,7 +29962,9 @@
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
+      <c r="H75" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
@@ -29837,7 +29974,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>102</v>
@@ -29847,7 +29984,9 @@
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
+      <c r="H76" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
@@ -29857,7 +29996,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>34</v>
@@ -29867,7 +30006,9 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
+      <c r="H77" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
@@ -29877,7 +30018,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>276</v>
@@ -29887,7 +30028,9 @@
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
+      <c r="H78" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
@@ -29897,7 +30040,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>34</v>
@@ -29909,7 +30052,9 @@
         <v>7000</v>
       </c>
       <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
+      <c r="H79" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
@@ -29919,7 +30064,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -29929,7 +30074,9 @@
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
+      <c r="H80" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
@@ -29939,7 +30086,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>121</v>
@@ -29949,7 +30096,9 @@
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
+      <c r="H81" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
@@ -29959,7 +30108,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>34</v>
@@ -29971,7 +30120,9 @@
         <v>30000</v>
       </c>
       <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
+      <c r="H82" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
@@ -29981,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>2</v>
@@ -29993,7 +30144,9 @@
         <v>202</v>
       </c>
       <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
+      <c r="H83" s="25" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
@@ -30003,21 +30156,87 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="1">
+        <v>60000</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="F84" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="G84" s="25" t="s">
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="G85" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="H84" s="25"/>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="25">
+        <v>3000</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30026,6 +30245,6 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9180DD22-6A90-4315-8707-3D8F0866EA58}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DDD6E86E-1D26-41F8-A831-875442C50B22}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="10" firstSheet="8" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" r:id="rId1" sheetId="2"/>
@@ -21,20 +21,21 @@
     <sheet name="VerifyDeleteOffer" r:id="rId6" sheetId="5"/>
     <sheet name="RenameOffer" r:id="rId7" sheetId="21"/>
     <sheet name="VerifyEventAPI" r:id="rId8" sheetId="6"/>
-    <sheet name="PickBestChannel" r:id="rId9" sheetId="24"/>
-    <sheet name="VerifyRealtimeSpineAPI" r:id="rId10" sheetId="7"/>
-    <sheet name="RealtimeSpineWithNewProperty" r:id="rId11" sheetId="10"/>
-    <sheet name="EmailTempWithNewAttribute" r:id="rId12" sheetId="11"/>
-    <sheet name="MicrositeTempWithExistingAttrib" r:id="rId13" sheetId="12"/>
-    <sheet name="OBCCTempWithExistingAttrib" r:id="rId14" sheetId="17"/>
-    <sheet name="VerifyDBForNewAgreementModel" r:id="rId15" sheetId="13"/>
-    <sheet name="VerifyAgreementClassFornewProp" r:id="rId16" sheetId="14"/>
-    <sheet name="VerifyDiscardVersioIsSuccessful" r:id="rId17" sheetId="15"/>
-    <sheet name="EnsureRollbackIsSuccessful" r:id="rId18" sheetId="16"/>
-    <sheet name="AdpativeModelForUnsubscribe" r:id="rId19" sheetId="18"/>
-    <sheet name="SingleChannelOn" r:id="rId20" sheetId="22"/>
-    <sheet name="BatchDecisionOutputValidations" r:id="rId21" sheetId="8"/>
-    <sheet name="CheckLists" r:id="rId22" sheetId="9"/>
+    <sheet name="NewSubChannelValidation" r:id="rId9" sheetId="25"/>
+    <sheet name="PickBestChannel" r:id="rId10" sheetId="24"/>
+    <sheet name="VerifyRealtimeSpineAPI" r:id="rId11" sheetId="7"/>
+    <sheet name="RealtimeSpineWithNewProperty" r:id="rId12" sheetId="10"/>
+    <sheet name="EmailTempWithNewAttribute" r:id="rId13" sheetId="11"/>
+    <sheet name="MicrositeTempWithExistingAttrib" r:id="rId14" sheetId="12"/>
+    <sheet name="OBCCTempWithExistingAttrib" r:id="rId15" sheetId="17"/>
+    <sheet name="VerifyDBForNewAgreementModel" r:id="rId16" sheetId="13"/>
+    <sheet name="VerifyAgreementClassFornewProp" r:id="rId17" sheetId="14"/>
+    <sheet name="VerifyDiscardVersioIsSuccessful" r:id="rId18" sheetId="15"/>
+    <sheet name="EnsureRollbackIsSuccessful" r:id="rId19" sheetId="16"/>
+    <sheet name="AdpativeModelForUnsubscribe" r:id="rId20" sheetId="18"/>
+    <sheet name="SingleChannelOn" r:id="rId21" sheetId="22"/>
+    <sheet name="BatchDecisionOutputValidations" r:id="rId22" sheetId="8"/>
+    <sheet name="CheckLists" r:id="rId23" sheetId="9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6677" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7124" uniqueCount="659">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1965,6 +1966,69 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>NewSubChannelValidation</t>
+  </si>
+  <si>
+    <t>Verify the newly created subchannel is added to the data type subChannelsData</t>
+  </si>
+  <si>
+    <t>New Subchannel Scenario</t>
+  </si>
+  <si>
+    <t>btnManageOBCCSubchannels</t>
+  </si>
+  <si>
+    <t>click subchannel manage button for obcc</t>
+  </si>
+  <si>
+    <t>btnAddNewSubchannel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add new subchannel </t>
+  </si>
+  <si>
+    <t>txtNewSubchannel</t>
+  </si>
+  <si>
+    <t>enter the new subchannel</t>
+  </si>
+  <si>
+    <t>keyPressEnter</t>
+  </si>
+  <si>
+    <t>OfferWithNewSubChannel</t>
+  </si>
+  <si>
+    <t>AutoSubCC</t>
+  </si>
+  <si>
+    <t>divDataTypes</t>
+  </si>
+  <si>
+    <t>txtSearchDataType</t>
+  </si>
+  <si>
+    <t>SubChannelsData</t>
+  </si>
+  <si>
+    <t>lnkSubChannelsData</t>
+  </si>
+  <si>
+    <t>lnkRecords</t>
+  </si>
+  <si>
+    <t>link records click</t>
+  </si>
+  <si>
+    <t>verifyDataTypeForNewSubChannels</t>
+  </si>
+  <si>
+    <t>OutboundCC</t>
+  </si>
+  <si>
+    <t>switchOffToggleButton</t>
   </si>
   <si>
     <t>Pass</t>
@@ -2658,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2787,7 +2851,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2952,9 +3016,24 @@
         <v>620</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2967,14 +3046,1855 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9D972-BC3C-4059-B86B-F0917555266F}">
+  <dimension ref="A1:I87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="81.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="36"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="25">
+        <v>3000</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3068,7 +4988,9 @@
         <v>34</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -3090,7 +5012,9 @@
         <v>34</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -3112,7 +5036,9 @@
         <v>174</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -3134,7 +5060,9 @@
         <v>208</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -3156,7 +5084,9 @@
         <v>34</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -3178,7 +5108,9 @@
         <v>34</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -3200,7 +5132,9 @@
         <v>214</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -3220,7 +5154,9 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -3240,7 +5176,9 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -3262,7 +5200,9 @@
         <v>2</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -3284,7 +5224,9 @@
         <v>162</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -3306,7 +5248,9 @@
         <v>221</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
@@ -3326,7 +5270,9 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -3348,7 +5294,9 @@
         <v>174</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -3370,7 +5318,9 @@
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -3390,7 +5340,9 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -3412,7 +5364,9 @@
         <v>2</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -3432,7 +5386,9 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -3454,7 +5410,9 @@
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -3476,7 +5434,9 @@
         <v>208</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -3496,7 +5456,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -3516,7 +5478,9 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -3538,7 +5502,9 @@
         <v>0</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -3558,7 +5524,9 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -3578,7 +5546,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -3600,7 +5570,9 @@
         <v>5000</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -3622,7 +5594,9 @@
         <v>595</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -3642,7 +5616,9 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -3662,7 +5638,9 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -3682,7 +5660,9 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -3704,7 +5684,9 @@
         <v>5000</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -3724,7 +5706,9 @@
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="H36" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -3746,7 +5730,9 @@
         <v>5000</v>
       </c>
       <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="H37" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -3766,7 +5752,9 @@
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -3786,7 +5774,9 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -3808,7 +5798,9 @@
         <v>5000</v>
       </c>
       <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="H40" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -3828,7 +5820,9 @@
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -3848,7 +5842,9 @@
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="H42" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -3868,7 +5864,9 @@
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="H43" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -3888,7 +5886,9 @@
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
@@ -3910,7 +5910,9 @@
         <v>5000</v>
       </c>
       <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -3930,7 +5932,9 @@
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="H46" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -3950,7 +5954,9 @@
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3972,7 +5978,9 @@
         <v>8000</v>
       </c>
       <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
@@ -3994,7 +6002,9 @@
         <v>214</v>
       </c>
       <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="H49" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -4016,7 +6026,9 @@
         <v>292</v>
       </c>
       <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="H50" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -4036,7 +6048,9 @@
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="H51" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -4058,7 +6072,9 @@
         <v>298</v>
       </c>
       <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="H52" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -4078,7 +6094,9 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="H53" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -4100,7 +6118,9 @@
         <v>161</v>
       </c>
       <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="H54" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -4120,7 +6140,9 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="H55" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -4142,7 +6164,9 @@
         <v>162</v>
       </c>
       <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="H56" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
@@ -4164,7 +6188,9 @@
         <v>2</v>
       </c>
       <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="H57" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
@@ -4186,7 +6212,9 @@
         <v>162</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="H58" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -4206,7 +6234,9 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="H59" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
@@ -4228,7 +6258,9 @@
         <v>60</v>
       </c>
       <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="H60" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -4250,7 +6282,9 @@
         <v>5000</v>
       </c>
       <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="H61" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
@@ -4270,7 +6304,9 @@
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="H62" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
@@ -4292,7 +6328,9 @@
         <v>5000</v>
       </c>
       <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+      <c r="H63" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
@@ -4312,7 +6350,9 @@
       </c>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
+      <c r="H64" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
@@ -4332,7 +6372,9 @@
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
+      <c r="H65" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -4354,7 +6396,9 @@
         <v>5000</v>
       </c>
       <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="H66" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
@@ -4376,7 +6420,9 @@
         <v>309</v>
       </c>
       <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
@@ -4396,7 +6442,9 @@
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="H68" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
@@ -4418,7 +6466,9 @@
         <v>316</v>
       </c>
       <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="H69" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
@@ -4430,15 +6480,17 @@
       <c r="C70" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="26" t="s">
+      <c r="D70" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="20" t="s">
         <v>317</v>
       </c>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="H70" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
@@ -4450,15 +6502,39 @@
       <c r="C71" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="9"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25" t="s">
+        <v>658</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4472,7 +6548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1A5F4-9176-42F8-9D13-5A98D8683A92}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6553,7 +8629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B974F-EC20-4DA5-9D9F-A5ACD05AB2C7}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -8233,7 +10309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:I78"/>
   <sheetViews>
@@ -9864,7 +11940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -10313,7 +12389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
   <dimension ref="A1:I53"/>
   <sheetViews>
@@ -11427,11 +13503,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -12814,7 +14890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:I98"/>
   <sheetViews>
@@ -14880,7 +16956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:I117"/>
   <sheetViews>
@@ -17332,917 +19408,6 @@
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
-  <dimension ref="A1:I43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="25">
-        <v>5000</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19303,6 +20468,917 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4A3E8-7749-4CD2-9C58-29CEA684BAD6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19316,7 +21392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -19538,7 +21614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:C3"/>
   <sheetViews>
@@ -21068,8 +23144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE57E7C9-DCBE-422B-912B-E6D243214D2D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F41"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24099,7 +26175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D105" sqref="D105:E106"/>
     </sheetView>
   </sheetViews>
@@ -26324,8 +28400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A71" sqref="A71:XFD72"/>
+    <sheetView topLeftCell="A53" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D48" sqref="D48:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28249,21 +30325,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9D972-BC3C-4059-B86B-F0917555266F}">
-  <dimension ref="A1:I87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE08C911-4A9E-422E-8206-4D5376182B33}">
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="81.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28289,16 +30366,14 @@
       <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="42" t="s">
-        <v>614</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -28328,7 +30403,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -28342,17 +30417,15 @@
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -28366,17 +30439,15 @@
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -28394,13 +30465,11 @@
         <v>174</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
@@ -28416,13 +30485,11 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
@@ -28440,13 +30507,11 @@
         <v>161</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
@@ -28462,13 +30527,11 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>50</v>
@@ -28476,7 +30539,7 @@
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -28486,13 +30549,11 @@
         <v>162</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
@@ -28500,7 +30561,7 @@
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -28510,13 +30571,11 @@
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
@@ -28534,13 +30593,11 @@
         <v>162</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -28556,13 +30613,11 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>55</v>
@@ -28580,13 +30635,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>55</v>
@@ -28604,13 +30657,11 @@
         <v>5000</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>55</v>
@@ -28626,13 +30677,11 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
@@ -28648,1595 +30697,1475 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>483</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>618</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>618</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>618</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>618</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25" t="s">
-        <v>637</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>625</v>
-      </c>
+      <c r="C39" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="13">
-        <v>43525</v>
-      </c>
+      <c r="C40" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="C41" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="13">
-        <v>45719</v>
+      <c r="F41" s="25" t="s">
+        <v>648</v>
       </c>
       <c r="G41" s="25"/>
-      <c r="H41" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="9"/>
+      <c r="C42" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>430</v>
+      <c r="C43" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="25">
+        <v>3000</v>
       </c>
       <c r="G43" s="25"/>
-      <c r="H43" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="36"/>
+      <c r="C44" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>433</v>
+      <c r="C45" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="25">
+        <v>3000</v>
       </c>
       <c r="G45" s="25"/>
-      <c r="H45" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="36"/>
+      <c r="C46" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="36"/>
+      <c r="C47" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="36"/>
+      <c r="C48" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>647</v>
+      </c>
       <c r="G48" s="25"/>
-      <c r="H48" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="36"/>
+      <c r="C49" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="13">
+        <v>43526</v>
+      </c>
       <c r="G49" s="25"/>
-      <c r="H49" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="36"/>
+      <c r="C50" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45717</v>
+      </c>
       <c r="G50" s="25"/>
-      <c r="H50" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="36"/>
+      <c r="C51" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="9"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="36"/>
+      <c r="C52" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>430</v>
+      </c>
       <c r="G52" s="25"/>
-      <c r="H52" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="9"/>
+      <c r="C53" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="36"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>149</v>
+      <c r="C54" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>433</v>
       </c>
       <c r="G54" s="25"/>
-      <c r="H54" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3000</v>
-      </c>
+      <c r="C55" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>618</v>
+      <c r="C56" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>585</v>
+        <v>143</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>586</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="1"/>
+      <c r="C57" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>631</v>
+      </c>
       <c r="G57" s="25"/>
-      <c r="H57" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>618</v>
+      <c r="C58" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>154</v>
+        <v>41</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3000</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="H58" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="1">
-        <v>3000</v>
+      <c r="C59" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>648</v>
       </c>
       <c r="G59" s="25"/>
-      <c r="H59" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>618</v>
+      <c r="C60" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>584</v>
+        <v>143</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>583</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F60" s="25"/>
       <c r="G60" s="25"/>
-      <c r="H60" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="25"/>
+      <c r="C61" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5000</v>
+      </c>
       <c r="G61" s="25"/>
-      <c r="H61" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>197</v>
-      </c>
+      <c r="C62" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="25"/>
       <c r="G62" s="25"/>
-      <c r="H62" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>618</v>
+      <c r="C63" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="1">
-        <v>3000</v>
+        <v>550</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>647</v>
       </c>
       <c r="G63" s="25"/>
-      <c r="H63" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>604</v>
+      <c r="C64" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>647</v>
       </c>
       <c r="G64" s="25"/>
-      <c r="H64" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3000</v>
+      </c>
       <c r="G65" s="25"/>
-      <c r="H65" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>631</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="25"/>
-      <c r="H66" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="1">
-        <v>3000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="25"/>
-      <c r="H67" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>633</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="25"/>
-      <c r="H68" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="1"/>
       <c r="G69" s="25"/>
-      <c r="H69" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F70" s="1">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G70" s="25"/>
-      <c r="H70" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="25"/>
-      <c r="H71" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>625</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="25"/>
-      <c r="H72" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>616</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>625</v>
+        <v>41</v>
+      </c>
+      <c r="F73" s="1">
+        <v>30000</v>
       </c>
       <c r="G73" s="25"/>
-      <c r="H73" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="1">
-        <v>3000</v>
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="G74" s="25"/>
-      <c r="H74" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F75" s="1">
+        <v>120000</v>
+      </c>
       <c r="G75" s="25"/>
-      <c r="H75" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="25"/>
       <c r="G76" s="25"/>
-      <c r="H76" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="1">
         <v>1</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="F77" s="1"/>
       <c r="G77" s="25"/>
-      <c r="H77" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="F78" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="25"/>
       <c r="G78" s="25"/>
-      <c r="H78" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="1">
-        <v>7000</v>
+      <c r="F79" s="25">
+        <v>6000</v>
       </c>
       <c r="G79" s="25"/>
-      <c r="H79" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>651</v>
+      </c>
       <c r="G80" s="25"/>
-      <c r="H80" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F81" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="25">
+        <v>3000</v>
+      </c>
       <c r="G81" s="25"/>
-      <c r="H81" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="1">
-        <v>30000</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="25"/>
       <c r="G82" s="25"/>
-      <c r="H82" s="25" t="s">
-        <v>637</v>
-      </c>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>2</v>
-